--- a/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
+++ b/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA879AB-7B1B-47E1-8E84-5A630C60CBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443B55C8-1E30-46AE-9C1A-C6C9F13D1886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" tabRatio="915" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="915" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU PRINCIPAL" sheetId="36" r:id="rId1"/>
@@ -4909,7 +4909,7 @@
                   <c:v>4.0677966101694916E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7505677517032549E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4927,7 +4927,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000%">
-                  <c:v>1.6251417843313645E-2</c:v>
+                  <c:v>2.0485135335009615E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5583,7 +5583,7 @@
                   <c:v>1.271186440677966E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2301286903860713E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -5601,7 +5601,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.000%">
-                  <c:v>2.072984706848672E-3</c:v>
+                  <c:v>2.6130256865355222E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9338,7 +9338,7 @@
                   <c:v>3681.3967499999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3050.1349500000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -10335,7 +10335,7 @@
                   <c:v>7362.7934999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6100.2699000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -27405,8 +27405,8 @@
   </sheetPr>
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27511,13 +27511,9 @@
       <c r="B9" s="71">
         <v>45474</v>
       </c>
-      <c r="C9" s="72">
-        <v>1220053.98</v>
-      </c>
+      <c r="C9" s="72"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="77">
-        <v>10568</v>
-      </c>
+      <c r="E9" s="77"/>
       <c r="H9" s="200"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -29389,11 +29385,11 @@
       </c>
       <c r="D10" s="149">
         <f>DADOS!C9</f>
-        <v>1220053.98</v>
+        <v>0</v>
       </c>
       <c r="E10" s="148">
         <f t="shared" si="0"/>
-        <v>3050.1349500000001</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -30814,11 +30810,11 @@
       </c>
       <c r="D10" s="98">
         <f>DADOS!C9</f>
-        <v>1220053.98</v>
+        <v>0</v>
       </c>
       <c r="E10" s="147">
         <f t="shared" si="0"/>
-        <v>6100.2699000000002</v>
+        <v>0</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="4"/>
@@ -32173,16 +32169,16 @@
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="W10" s="177">
+      <c r="W10" s="177" t="e">
         <f t="shared" si="1"/>
-        <v>1.7505677517032549E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="X10" s="178">
         <v>0.01</v>
       </c>
       <c r="Y10" s="179">
         <f>DADOS!E9</f>
-        <v>10568</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="172"/>
       <c r="AA10" s="51"/>
@@ -32490,14 +32486,14 @@
       </c>
       <c r="W16" s="180">
         <f>SUM(V16/Y16)</f>
-        <v>1.6251417843313645E-2</v>
+        <v>2.0485135335009615E-2</v>
       </c>
       <c r="X16" s="178">
         <v>0.01</v>
       </c>
       <c r="Y16" s="179">
         <f>SUM(Y4:Y15)</f>
-        <v>51134</v>
+        <v>40566</v>
       </c>
       <c r="Z16" s="172"/>
       <c r="AA16" s="51"/>
@@ -33396,16 +33392,16 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N10" s="155">
+      <c r="N10" s="155" t="e">
         <f>M10/P10</f>
-        <v>1.2301286903860713E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O10" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="P10" s="157">
         <f>DADOS!E9</f>
-        <v>10568</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="82"/>
       <c r="R10" s="51"/>
@@ -33620,14 +33616,14 @@
       </c>
       <c r="N16" s="158">
         <f>SUM(M16/P16)</f>
-        <v>2.072984706848672E-3</v>
+        <v>2.6130256865355222E-3</v>
       </c>
       <c r="O16" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="P16" s="157">
         <f>SUM(P4:P15)</f>
-        <v>51134</v>
+        <v>40566</v>
       </c>
       <c r="Q16" s="82"/>
       <c r="R16" s="32"/>

--- a/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
+++ b/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443B55C8-1E30-46AE-9C1A-C6C9F13D1886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317F46C0-0F9E-414C-93A8-1C3FD24E39B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="915" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4909,7 +4909,7 @@
                   <c:v>4.0677966101694916E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.6784612592995827E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4927,7 +4927,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000%">
-                  <c:v>2.0485135335009615E-2</c:v>
+                  <c:v>1.6108397301698069E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5583,7 +5583,7 @@
                   <c:v>1.271186440677966E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.1794592632915987E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -5601,7 +5601,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.000%">
-                  <c:v>2.6130256865355222E-3</c:v>
+                  <c:v>2.0547414127316428E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27406,7 +27406,7 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27513,7 +27513,9 @@
       </c>
       <c r="C9" s="72"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="77"/>
+      <c r="E9" s="76">
+        <v>11022</v>
+      </c>
       <c r="H9" s="200"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -32169,16 +32171,16 @@
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="W10" s="177" t="e">
+      <c r="W10" s="177">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.6784612592995827E-2</v>
       </c>
       <c r="X10" s="178">
         <v>0.01</v>
       </c>
       <c r="Y10" s="179">
         <f>DADOS!E9</f>
-        <v>0</v>
+        <v>11022</v>
       </c>
       <c r="Z10" s="172"/>
       <c r="AA10" s="51"/>
@@ -32486,14 +32488,14 @@
       </c>
       <c r="W16" s="180">
         <f>SUM(V16/Y16)</f>
-        <v>2.0485135335009615E-2</v>
+        <v>1.6108397301698069E-2</v>
       </c>
       <c r="X16" s="178">
         <v>0.01</v>
       </c>
       <c r="Y16" s="179">
         <f>SUM(Y4:Y15)</f>
-        <v>40566</v>
+        <v>51588</v>
       </c>
       <c r="Z16" s="172"/>
       <c r="AA16" s="51"/>
@@ -32886,8 +32888,8 @@
   </sheetPr>
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33392,16 +33394,16 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N10" s="155" t="e">
+      <c r="N10" s="155">
         <f>M10/P10</f>
-        <v>#DIV/0!</v>
+        <v>1.1794592632915987E-3</v>
       </c>
       <c r="O10" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="P10" s="157">
         <f>DADOS!E9</f>
-        <v>0</v>
+        <v>11022</v>
       </c>
       <c r="Q10" s="82"/>
       <c r="R10" s="51"/>
@@ -33616,14 +33618,14 @@
       </c>
       <c r="N16" s="158">
         <f>SUM(M16/P16)</f>
-        <v>2.6130256865355222E-3</v>
+        <v>2.0547414127316428E-3</v>
       </c>
       <c r="O16" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="P16" s="157">
         <f>SUM(P4:P15)</f>
-        <v>40566</v>
+        <v>51588</v>
       </c>
       <c r="Q16" s="82"/>
       <c r="R16" s="32"/>

--- a/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
+++ b/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317F46C0-0F9E-414C-93A8-1C3FD24E39B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAFE80D-C8CF-46B1-9509-C273C7D02055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="915" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="915" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU PRINCIPAL" sheetId="36" r:id="rId1"/>
@@ -4374,6 +4374,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>60</c:v>
@@ -27405,8 +27408,8 @@
   </sheetPr>
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31438,8 +31441,8 @@
   </sheetPr>
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31454,7 +31457,7 @@
     <col min="8" max="19" width="12.42578125" customWidth="1"/>
     <col min="20" max="20" width="11.5703125" customWidth="1"/>
     <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="3" customWidth="1"/>
@@ -32477,7 +32480,10 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="T16" s="85"/>
+      <c r="T16" s="85">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
       <c r="U16" s="85">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -32888,7 +32894,7 @@
   </sheetPr>
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="O10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>

--- a/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
+++ b/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Indicadores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\INDICADORES\QUALIDADE\ELOHIM\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAFE80D-C8CF-46B1-9509-C273C7D02055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="915" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="915" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="MENU PRINCIPAL" sheetId="36" r:id="rId1"/>
@@ -56,7 +55,7 @@
     <definedName name="Excel_BuiltIn_Print_Area_9" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_9">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -333,7 +332,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1383,7 +1382,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1561,8 +1560,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1634,10 +1634,10 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>900</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>800</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>200</c:v>
@@ -1654,13 +1654,16 @@
                 <c:pt idx="6">
                   <c:v>600</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>4300</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E878-4B1F-990B-9EDE7F0B81DC}"/>
             </c:ext>
@@ -1738,8 +1741,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1820,10 +1824,10 @@
                   <c:v>2297.4999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1560.01</c:v>
+                  <c:v>1920.0100000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1927.8199999999997</c:v>
+                  <c:v>1473.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6333.52</c:v>
@@ -1832,15 +1836,15 @@
                   <c:v>2159.14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1277.0999999999999</c:v>
+                  <c:v>3333.7599999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23461.229999999996</c:v>
+                  <c:v>25423.789999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E878-4B1F-990B-9EDE7F0B81DC}"/>
             </c:ext>
@@ -1857,11 +1861,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="1790575104"/>
-        <c:axId val="1675072240"/>
+        <c:axId val="1124069328"/>
+        <c:axId val="1315915680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1790575104"/>
+        <c:axId val="1124069328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,7 +1919,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1675072240"/>
+        <c:crossAx val="1315915680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1923,7 +1927,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1675072240"/>
+        <c:axId val="1315915680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,7 +1937,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1790575104"/>
+        <c:crossAx val="1124069328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,7 +2030,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2074,6 +2078,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2274,7 +2279,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -2447,7 +2452,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -2620,7 +2625,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -2793,7 +2798,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -2966,7 +2971,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3139,7 +3144,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3312,7 +3317,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3419,13 +3424,73 @@
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3538,7 +3603,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3651,7 +3716,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3766,7 +3831,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3879,7 +3944,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3895,11 +3960,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1981795536"/>
-        <c:axId val="1981790096"/>
+        <c:axId val="1317273104"/>
+        <c:axId val="1317284528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1981795536"/>
+        <c:axId val="1317273104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3939,7 +4004,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981790096"/>
+        <c:crossAx val="1317284528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3947,7 +4012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1981790096"/>
+        <c:axId val="1317284528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3995,7 +4060,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981795536"/>
+        <c:crossAx val="1317273104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4088,7 +4153,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4137,6 +4202,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4227,8 +4293,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4343,7 +4410,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>73</c:v>
@@ -4352,7 +4419,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4370,13 +4437,10 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>60</c:v>
@@ -4384,7 +4448,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3BF4-4B76-9AF4-5071D5729B49}"/>
             </c:ext>
@@ -4399,11 +4463,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1981788464"/>
-        <c:axId val="1981799344"/>
+        <c:axId val="1317280720"/>
+        <c:axId val="1317283440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1981788464"/>
+        <c:axId val="1317280720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4500,7 +4564,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981799344"/>
+        <c:crossAx val="1317283440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4508,7 +4572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1981799344"/>
+        <c:axId val="1317283440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4622,7 +4686,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981788464"/>
+        <c:crossAx val="1317280720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4677,7 +4741,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4722,6 +4786,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4820,8 +4885,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4912,7 +4978,7 @@
                   <c:v>4.0677966101694916E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6784612592995827E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4930,12 +4996,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000%">
-                  <c:v>1.6108397301698069E-2</c:v>
+                  <c:v>2.1273973278114679E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5BED-4A73-B79A-374CDFB6F0DB}"/>
             </c:ext>
@@ -4950,8 +5016,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1981803152"/>
-        <c:axId val="1981797168"/>
+        <c:axId val="1317281808"/>
+        <c:axId val="1317279632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5016,8 +5082,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5132,7 +5199,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5BED-4A73-B79A-374CDFB6F0DB}"/>
             </c:ext>
@@ -5148,11 +5215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1981803152"/>
-        <c:axId val="1981797168"/>
+        <c:axId val="1317281808"/>
+        <c:axId val="1317279632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1981803152"/>
+        <c:axId val="1317281808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5192,7 +5259,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981797168"/>
+        <c:crossAx val="1317279632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5200,7 +5267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1981797168"/>
+        <c:axId val="1317279632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5248,7 +5315,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981803152"/>
+        <c:crossAx val="1317281808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5262,6 +5329,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5331,7 +5399,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -5376,6 +5444,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5494,8 +5563,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5586,7 +5656,7 @@
                   <c:v>1.271186440677966E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1794592632915987E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -5604,12 +5674,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.000%">
-                  <c:v>2.0547414127316428E-3</c:v>
+                  <c:v>2.9581422866439876E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-809A-4AD7-8A2E-4B67A7AC8EE5}"/>
             </c:ext>
@@ -5624,8 +5694,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1981800432"/>
-        <c:axId val="1981796080"/>
+        <c:axId val="1317271472"/>
+        <c:axId val="1317272016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5758,7 +5828,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-809A-4AD7-8A2E-4B67A7AC8EE5}"/>
             </c:ext>
@@ -5774,11 +5844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1981800432"/>
-        <c:axId val="1981796080"/>
+        <c:axId val="1317271472"/>
+        <c:axId val="1317272016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1981800432"/>
+        <c:axId val="1317271472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5819,7 +5889,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981796080"/>
+        <c:crossAx val="1317272016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5827,7 +5897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1981796080"/>
+        <c:axId val="1317272016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5867,7 +5937,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981800432"/>
+        <c:crossAx val="1317271472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5881,6 +5951,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5950,7 +6021,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -5991,6 +6062,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6092,8 +6164,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6166,7 +6239,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6175,7 +6248,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -6196,12 +6269,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>106</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B5C9-42EE-8A97-00E25480C66D}"/>
             </c:ext>
@@ -6217,11 +6290,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1981791728"/>
-        <c:axId val="1981797712"/>
+        <c:axId val="1317283984"/>
+        <c:axId val="1317275280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1981791728"/>
+        <c:axId val="1317283984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6261,7 +6334,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981797712"/>
+        <c:crossAx val="1317275280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6269,7 +6342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1981797712"/>
+        <c:axId val="1317275280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6317,7 +6390,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981791728"/>
+        <c:crossAx val="1317283984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6372,7 +6445,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -6419,6 +6492,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6566,7 +6640,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3E08-4CF4-8132-8E77B1B7FA85}"/>
             </c:ext>
@@ -6626,8 +6700,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6671,12 +6746,15 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3E08-4CF4-8132-8E77B1B7FA85}"/>
             </c:ext>
@@ -6693,11 +6771,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1981793360"/>
-        <c:axId val="1981789552"/>
+        <c:axId val="1317272560"/>
+        <c:axId val="1317276912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1981793360"/>
+        <c:axId val="1317272560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6740,7 +6818,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981789552"/>
+        <c:crossAx val="1317276912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6748,7 +6826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1981789552"/>
+        <c:axId val="1317276912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6799,7 +6877,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981793360"/>
+        <c:crossAx val="1317272560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6813,14 +6891,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6856,7 +6934,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -6895,6 +6973,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7042,7 +7121,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8011-46F6-B42E-E3FA07D0D0AB}"/>
             </c:ext>
@@ -7100,8 +7179,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7147,10 +7227,13 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8011-46F6-B42E-E3FA07D0D0AB}"/>
             </c:ext>
@@ -7167,11 +7250,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1981792272"/>
-        <c:axId val="1981792816"/>
+        <c:axId val="1319166064"/>
+        <c:axId val="1319162256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1981792272"/>
+        <c:axId val="1319166064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7214,7 +7297,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981792816"/>
+        <c:crossAx val="1319162256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7222,7 +7305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1981792816"/>
+        <c:axId val="1319162256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7273,7 +7356,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981792272"/>
+        <c:crossAx val="1319166064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7287,14 +7370,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7332,7 +7415,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -7434,8 +7517,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7515,10 +7599,10 @@
                   <c:v>2297.4999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1560.01</c:v>
+                  <c:v>1920.0100000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1927.8199999999997</c:v>
+                  <c:v>1473.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6333.52</c:v>
@@ -7527,13 +7611,13 @@
                   <c:v>2159.14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1277.0999999999999</c:v>
+                  <c:v>3333.7599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5FE3-4CF6-923F-AB918B1A103F}"/>
             </c:ext>
@@ -7548,11 +7632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1675066800"/>
-        <c:axId val="1980277520"/>
+        <c:axId val="1315901536"/>
+        <c:axId val="1315910784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1675066800"/>
+        <c:axId val="1315901536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7591,14 +7675,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980277520"/>
+        <c:crossAx val="1315910784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1980277520"/>
+        <c:axId val="1315910784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7646,7 +7730,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1675066800"/>
+        <c:crossAx val="1315901536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7701,7 +7785,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -7745,6 +7829,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7840,8 +7925,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7911,10 +7997,10 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>900</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>800</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>200</c:v>
@@ -7930,12 +8016,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CF0B-498E-9CFB-B152C036E41C}"/>
             </c:ext>
@@ -7966,11 +8055,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1980268816"/>
-        <c:axId val="1980279696"/>
+        <c:axId val="1315902080"/>
+        <c:axId val="1315911328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1980268816"/>
+        <c:axId val="1315902080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8010,14 +8099,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980279696"/>
+        <c:crossAx val="1315911328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1980279696"/>
+        <c:axId val="1315911328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8051,7 +8140,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980268816"/>
+        <c:crossAx val="1315902080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8118,7 +8207,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -8163,6 +8252,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8280,8 +8370,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8359,7 +8450,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E98E-48F3-8051-088DB5672801}"/>
             </c:ext>
@@ -8376,11 +8467,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1980267728"/>
-        <c:axId val="1980264464"/>
+        <c:axId val="1315904256"/>
+        <c:axId val="1315908608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1980267728"/>
+        <c:axId val="1315904256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8421,7 +8512,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980264464"/>
+        <c:crossAx val="1315908608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8429,7 +8520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1980264464"/>
+        <c:axId val="1315908608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8469,7 +8560,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980267728"/>
+        <c:crossAx val="1315904256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8524,7 +8615,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -8572,6 +8663,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8670,8 +8762,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8708,12 +8801,12 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27761.229999999996</c:v>
+                  <c:v>29223.789999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9206-45EB-BDBF-3EC4898A0447}"/>
             </c:ext>
@@ -8729,11 +8822,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1980275888"/>
-        <c:axId val="1980265552"/>
+        <c:axId val="1315915136"/>
+        <c:axId val="1315904800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1980275888"/>
+        <c:axId val="1315915136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8774,7 +8867,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980265552"/>
+        <c:crossAx val="1315904800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8782,7 +8875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1980265552"/>
+        <c:axId val="1315904800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8822,7 +8915,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980275888"/>
+        <c:crossAx val="1315915136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8877,7 +8970,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -8917,6 +9010,10 @@
             <a:r>
               <a:rPr lang="pt-BR" sz="1400"/>
               <a:t>Produto Não Conforme - Rejeição Interna</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t/>
             </a:r>
             <a:br>
               <a:rPr lang="pt-BR"/>
@@ -9061,8 +9158,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9154,13 +9252,16 @@
                 <c:pt idx="6">
                   <c:v>288.73999999999995</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>1268.77</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>5409.88</c:v>
+                  <c:v>6678.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0025-42B7-9472-DF647C894514}"/>
             </c:ext>
@@ -9175,8 +9276,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1980269904"/>
-        <c:axId val="1980269360"/>
+        <c:axId val="1315907520"/>
+        <c:axId val="1315908064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9252,8 +9353,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9362,7 +9464,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0025-42B7-9472-DF647C894514}"/>
             </c:ext>
@@ -9378,11 +9480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1980269904"/>
-        <c:axId val="1980269360"/>
+        <c:axId val="1315907520"/>
+        <c:axId val="1315908064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1980269904"/>
+        <c:axId val="1315907520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9424,7 +9526,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980269360"/>
+        <c:crossAx val="1315908064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9432,7 +9534,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1980269360"/>
+        <c:axId val="1315908064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9473,7 +9575,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980269904"/>
+        <c:crossAx val="1315907520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9562,7 +9664,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -9612,6 +9714,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9711,7 +9814,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <a:prstGeom prst="rect">
@@ -9722,6 +9825,7 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9813,13 +9917,16 @@
                 <c:pt idx="6">
                   <c:v>288.73999999999995</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>1268.77</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>5409.88</c:v>
+                  <c:v>6678.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3C41-4F63-8252-EDF5D0E176BD}"/>
             </c:ext>
@@ -9836,11 +9943,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="1980276976"/>
-        <c:axId val="1980266096"/>
+        <c:axId val="1315910240"/>
+        <c:axId val="1315911872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1980276976"/>
+        <c:axId val="1315910240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9888,7 +9995,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980266096"/>
+        <c:crossAx val="1315911872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9896,7 +10003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1980266096"/>
+        <c:axId val="1315911872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9906,7 +10013,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1980276976"/>
+        <c:crossAx val="1315910240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9961,7 +10068,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -10106,8 +10213,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -10186,13 +10294,16 @@
                 <c:pt idx="6">
                   <c:v>295.39999999999998</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2064.9899999999998</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>16921.670000000002</c:v>
+                  <c:v>18986.660000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A12E-4C87-A3F6-E11BA52DD92B}"/>
             </c:ext>
@@ -10207,8 +10318,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1980270448"/>
-        <c:axId val="1980272080"/>
+        <c:axId val="1315914048"/>
+        <c:axId val="1317282352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10262,8 +10373,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -10359,7 +10471,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A12E-4C87-A3F6-E11BA52DD92B}"/>
             </c:ext>
@@ -10375,11 +10487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1980270448"/>
-        <c:axId val="1980272080"/>
+        <c:axId val="1315914048"/>
+        <c:axId val="1317282352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1980270448"/>
+        <c:axId val="1315914048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10420,7 +10532,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980272080"/>
+        <c:crossAx val="1317282352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10428,7 +10540,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1980272080"/>
+        <c:axId val="1317282352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10468,7 +10580,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1980270448"/>
+        <c:crossAx val="1315914048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10537,7 +10649,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -10581,6 +10693,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10680,8 +10793,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10773,13 +10887,16 @@
                 <c:pt idx="6">
                   <c:v>295.39999999999998</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2064.9899999999998</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>16921.670000000002</c:v>
+                  <c:v>18986.660000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AAE4-46EE-9E51-59674A39F794}"/>
             </c:ext>
@@ -10796,11 +10913,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="1980273712"/>
-        <c:axId val="1981794448"/>
+        <c:axId val="1317282896"/>
+        <c:axId val="1317274192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1980273712"/>
+        <c:axId val="1317282896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10848,7 +10965,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981794448"/>
+        <c:crossAx val="1317274192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10856,7 +10973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1981794448"/>
+        <c:axId val="1317274192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10866,7 +10983,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1980273712"/>
+        <c:crossAx val="1317282896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19211,7 +19328,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19288,7 +19405,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19374,7 +19491,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19451,7 +19568,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19528,7 +19645,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19605,7 +19722,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19682,7 +19799,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19759,7 +19876,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19840,7 +19957,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD85AFD-A5D3-EF15-7D80-2D8434DB3838}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCD85AFD-A5D3-EF15-7D80-2D8434DB3838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19881,7 +19998,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19917,7 +20034,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19953,7 +20070,7 @@
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19989,7 +20106,7 @@
         <xdr:cNvPr id="4" name="Fluxograma: Conector fora de Página 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20043,7 +20160,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20120,7 +20237,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20206,7 +20323,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20283,7 +20400,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20360,7 +20477,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20437,7 +20554,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20514,7 +20631,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20591,7 +20708,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20672,7 +20789,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20709,7 +20826,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20786,7 +20903,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20872,7 +20989,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20949,7 +21066,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21026,7 +21143,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21103,7 +21220,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21180,7 +21297,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21257,7 +21374,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21338,7 +21455,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21375,7 +21492,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21452,7 +21569,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21538,7 +21655,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21615,7 +21732,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21692,7 +21809,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21769,7 +21886,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21846,7 +21963,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21923,7 +22040,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22004,7 +22121,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22042,7 +22159,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22080,7 +22197,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22133,7 +22250,7 @@
         <xdr:cNvPr id="5" name="Elipse 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22187,7 +22304,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22264,7 +22381,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22350,7 +22467,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22427,7 +22544,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22504,7 +22621,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22581,7 +22698,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22658,7 +22775,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22735,7 +22852,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22816,7 +22933,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22852,7 +22969,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22889,7 +23006,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22966,7 +23083,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23052,7 +23169,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23129,7 +23246,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23206,7 +23323,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23283,7 +23400,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23360,7 +23477,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23437,7 +23554,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23518,7 +23635,7 @@
         <xdr:cNvPr id="3" name="Elipse 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23571,7 +23688,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23624,7 +23741,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23660,7 +23777,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23696,7 +23813,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23733,7 +23850,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23810,7 +23927,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23896,7 +24013,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23973,7 +24090,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24050,7 +24167,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24127,7 +24244,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24204,7 +24321,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24281,7 +24398,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24362,7 +24479,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24398,7 +24515,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24451,7 +24568,7 @@
         <xdr:cNvPr id="5" name="Elipse 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24504,7 +24621,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24541,7 +24658,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24618,7 +24735,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24704,7 +24821,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24781,7 +24898,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24858,7 +24975,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24935,7 +25052,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25012,7 +25129,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25089,7 +25206,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25170,7 +25287,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA06EEC-3CFB-42E2-870A-3A538915B99C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DA06EEC-3CFB-42E2-870A-3A538915B99C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25530,7 +25647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -27169,14 +27286,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B3:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27242,7 +27359,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="164">
-        <f t="shared" ref="F6:F11" si="0">SUM(C6:E6)</f>
+        <f t="shared" ref="F6:F12" si="0">SUM(C6:E6)</f>
         <v>3</v>
       </c>
     </row>
@@ -27342,10 +27459,19 @@
       <c r="B12" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
+      <c r="C12" s="162">
+        <v>1</v>
+      </c>
+      <c r="D12" s="162">
+        <v>1</v>
+      </c>
+      <c r="E12" s="162">
+        <v>0</v>
+      </c>
+      <c r="F12" s="164">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="163" t="s">
@@ -27402,14 +27528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27516,9 +27642,7 @@
       </c>
       <c r="C9" s="72"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="76">
-        <v>11022</v>
-      </c>
+      <c r="E9" s="77"/>
       <c r="H9" s="200"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -27581,14 +27705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27665,8 +27789,8 @@
         <v>45292</v>
       </c>
       <c r="B3" s="116">
-        <f>150+150+150+150+150+150</f>
-        <v>900</v>
+        <f>150+150+150</f>
+        <v>450</v>
       </c>
       <c r="C3" s="116">
         <f>470.5+1543.45+1543.45+192.5+122.48+500</f>
@@ -27687,8 +27811,8 @@
         <v>45323</v>
       </c>
       <c r="B4" s="116">
-        <f>400+200+200</f>
-        <v>800</v>
+        <f>150+200+200</f>
+        <v>550</v>
       </c>
       <c r="C4" s="116">
         <f>200+253.76+596+150+150+600+792+792</f>
@@ -27734,8 +27858,8 @@
         <v>600</v>
       </c>
       <c r="C6" s="116">
-        <f>356.61+356.61+453.61+271.43+121.75</f>
-        <v>1560.01</v>
+        <f>356.61+453.61+271.43+121.75+360+356.61</f>
+        <v>1920.0100000000002</v>
       </c>
       <c r="D6" s="186"/>
       <c r="E6" s="4"/>
@@ -27756,8 +27880,8 @@
         <v>400</v>
       </c>
       <c r="C7" s="116">
-        <f>384+360+397.39+452.33+120+120+94.1</f>
-        <v>1927.8199999999997</v>
+        <f>120+120+384+397.39+452.33</f>
+        <v>1473.72</v>
       </c>
       <c r="D7" s="186"/>
       <c r="E7" s="4"/>
@@ -27817,10 +27941,13 @@
       <c r="A10" s="115">
         <v>45505</v>
       </c>
-      <c r="B10" s="116"/>
+      <c r="B10" s="116">
+        <f>200</f>
+        <v>200</v>
+      </c>
       <c r="C10" s="116">
-        <f>8.33+1268.77</f>
-        <v>1277.0999999999999</v>
+        <f>8.33+1268.77+1650+406.66</f>
+        <v>3333.7599999999998</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="4"/>
@@ -27902,11 +28029,11 @@
       </c>
       <c r="B15" s="116">
         <f>SUM(B3:B14)</f>
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="C15" s="116">
         <f>SUM(C3:C14)</f>
-        <v>23461.229999999996</v>
+        <v>25423.789999999997</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="34"/>
@@ -28390,7 +28517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -28801,7 +28928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -28844,7 +28971,7 @@
       </c>
       <c r="B3" s="58">
         <f>'Custo NC '!B3</f>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="C3" s="58">
         <f>'Custo NC '!C3</f>
@@ -28890,7 +29017,7 @@
       </c>
       <c r="C6" s="58">
         <f>'Custo NC '!C6</f>
-        <v>1560.01</v>
+        <v>1920.0100000000002</v>
       </c>
       <c r="N6" s="52"/>
     </row>
@@ -28904,7 +29031,7 @@
       </c>
       <c r="C7" s="58">
         <f>'Custo NC '!C7</f>
-        <v>1927.8199999999997</v>
+        <v>1473.72</v>
       </c>
       <c r="N7" s="52"/>
     </row>
@@ -28942,11 +29069,11 @@
       </c>
       <c r="B10" s="58">
         <f>'Custo NC '!B10</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C10" s="58">
         <f>'Custo NC '!C10</f>
-        <v>1277.0999999999999</v>
+        <v>3333.7599999999998</v>
       </c>
       <c r="N10" s="52"/>
     </row>
@@ -29012,11 +29139,11 @@
       </c>
       <c r="B15" s="58">
         <f>'Custo NC '!B15</f>
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="C15" s="58">
         <f>'Custo NC '!C15</f>
-        <v>23461.229999999996</v>
+        <v>25423.789999999997</v>
       </c>
       <c r="N15" s="52"/>
     </row>
@@ -29026,7 +29153,7 @@
       </c>
       <c r="B16" s="61">
         <f>SUM(B15:C15)</f>
-        <v>27761.229999999996</v>
+        <v>29223.789999999997</v>
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="54"/>
@@ -29049,14 +29176,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29418,7 +29545,10 @@
       <c r="A11" s="68">
         <v>45505</v>
       </c>
-      <c r="B11" s="101"/>
+      <c r="B11" s="101">
+        <f>1268.77</f>
+        <v>1268.77</v>
+      </c>
       <c r="C11" s="183">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -29590,7 +29720,7 @@
       </c>
       <c r="B16" s="101">
         <f>SUM(B4:B15)</f>
-        <v>5409.88</v>
+        <v>6678.65</v>
       </c>
       <c r="C16" s="150"/>
       <c r="D16" s="149">
@@ -30552,14 +30682,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan6">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30832,7 +30962,10 @@
       <c r="A11" s="65">
         <v>45505</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="17">
+        <f>8.33+1650+406.66</f>
+        <v>2064.9899999999998</v>
+      </c>
       <c r="C11" s="182">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -30949,7 +31082,7 @@
       </c>
       <c r="B16" s="17">
         <f>SUM(B4:B15)</f>
-        <v>16921.670000000002</v>
+        <v>18986.660000000003</v>
       </c>
       <c r="C16" s="100"/>
       <c r="D16" s="100"/>
@@ -31435,14 +31568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31457,7 +31590,7 @@
     <col min="8" max="19" width="12.42578125" customWidth="1"/>
     <col min="20" max="20" width="11.5703125" customWidth="1"/>
     <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" customWidth="1"/>
     <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="3" customWidth="1"/>
@@ -32174,16 +32307,16 @@
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="W10" s="177">
+      <c r="W10" s="177" t="e">
         <f t="shared" si="1"/>
-        <v>1.6784612592995827E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="X10" s="178">
         <v>0.01</v>
       </c>
       <c r="Y10" s="179">
         <f>DADOS!E9</f>
-        <v>11022</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="172"/>
       <c r="AA10" s="51"/>
@@ -32193,29 +32326,71 @@
       <c r="A11" s="110">
         <v>45505</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
+      <c r="B11" s="102">
+        <v>0</v>
+      </c>
+      <c r="C11" s="102">
+        <v>0</v>
+      </c>
+      <c r="D11" s="102">
+        <v>0</v>
+      </c>
+      <c r="E11" s="102">
+        <v>0</v>
+      </c>
+      <c r="F11" s="102">
+        <v>0</v>
+      </c>
+      <c r="G11" s="102">
+        <v>0</v>
+      </c>
+      <c r="H11" s="102">
+        <v>0</v>
+      </c>
+      <c r="I11" s="102">
+        <f>9+9</f>
+        <v>18</v>
+      </c>
+      <c r="J11" s="102">
+        <v>0</v>
+      </c>
+      <c r="K11" s="102">
+        <v>0</v>
+      </c>
+      <c r="L11" s="102">
+        <v>8</v>
+      </c>
+      <c r="M11" s="102">
+        <v>0</v>
+      </c>
+      <c r="N11" s="102">
+        <v>0</v>
+      </c>
+      <c r="O11" s="102">
+        <v>0</v>
+      </c>
+      <c r="P11" s="102">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="102">
+        <v>0</v>
+      </c>
+      <c r="R11" s="102">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="S11" s="102">
+        <v>0</v>
+      </c>
+      <c r="T11" s="102">
+        <v>0</v>
+      </c>
+      <c r="U11" s="102">
+        <v>0</v>
+      </c>
       <c r="V11" s="176">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="W11" s="177" t="e">
         <f t="shared" si="1"/>
@@ -32438,7 +32613,7 @@
       </c>
       <c r="I16" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J16" s="85">
         <f t="shared" si="2"/>
@@ -32450,7 +32625,7 @@
       </c>
       <c r="L16" s="85">
         <f t="shared" si="2"/>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M16" s="85">
         <f t="shared" si="2"/>
@@ -32474,34 +32649,31 @@
       </c>
       <c r="R16" s="85">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S16" s="85">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="T16" s="85">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
+      <c r="T16" s="85"/>
       <c r="U16" s="85">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V16" s="176">
         <f t="shared" ref="V16" si="3">SUM(V4:V15)</f>
-        <v>831</v>
+        <v>863</v>
       </c>
       <c r="W16" s="180">
         <f>SUM(V16/Y16)</f>
-        <v>1.6108397301698069E-2</v>
+        <v>2.1273973278114679E-2</v>
       </c>
       <c r="X16" s="178">
         <v>0.01</v>
       </c>
       <c r="Y16" s="179">
         <f>SUM(Y4:Y15)</f>
-        <v>51588</v>
+        <v>40566</v>
       </c>
       <c r="Z16" s="172"/>
       <c r="AA16" s="51"/>
@@ -32561,7 +32733,7 @@
       <c r="U18" s="20"/>
       <c r="V18" s="181">
         <f>SUM(V4:V15)/12</f>
-        <v>69.25</v>
+        <v>71.916666666666671</v>
       </c>
       <c r="W18" s="180" t="e">
         <f>SUM(W4:W15)/12</f>
@@ -32888,14 +33060,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33113,7 +33285,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="107">
-        <f t="shared" ref="M5:M10" si="0">SUM(B5:L5)</f>
+        <f t="shared" ref="M5:M15" si="0">SUM(B5:L5)</f>
         <v>5</v>
       </c>
       <c r="N5" s="155">
@@ -33400,16 +33572,16 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N10" s="155">
+      <c r="N10" s="155" t="e">
         <f>M10/P10</f>
-        <v>1.1794592632915987E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O10" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="P10" s="157">
         <f>DADOS!E9</f>
-        <v>11022</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="82"/>
       <c r="R10" s="51"/>
@@ -33419,18 +33591,45 @@
       <c r="A11" s="106">
         <v>45505</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
+      <c r="B11" s="103">
+        <v>0</v>
+      </c>
+      <c r="C11" s="103">
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="D11" s="103">
+        <v>0</v>
+      </c>
+      <c r="E11" s="103">
+        <v>0</v>
+      </c>
+      <c r="F11" s="103">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="G11" s="103">
+        <v>0</v>
+      </c>
+      <c r="H11" s="103">
+        <v>0</v>
+      </c>
+      <c r="I11" s="103">
+        <v>0</v>
+      </c>
+      <c r="J11" s="103">
+        <v>0</v>
+      </c>
+      <c r="K11" s="103">
+        <v>0</v>
+      </c>
+      <c r="L11" s="103">
+        <v>0</v>
+      </c>
+      <c r="M11" s="107">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="N11" s="155" t="e">
         <f t="shared" ref="N11:N15" si="2">M11/P11</f>
         <v>#DIV/0!</v>
@@ -33461,7 +33660,10 @@
       <c r="J12" s="107"/>
       <c r="K12" s="107"/>
       <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
+      <c r="M12" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N12" s="155" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -33492,7 +33694,10 @@
       <c r="J13" s="103"/>
       <c r="K13" s="103"/>
       <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
+      <c r="M13" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N13" s="155" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -33523,7 +33728,10 @@
       <c r="J14" s="107"/>
       <c r="K14" s="107"/>
       <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
+      <c r="M14" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N14" s="155" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -33554,7 +33762,10 @@
       <c r="J15" s="103"/>
       <c r="K15" s="103"/>
       <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
+      <c r="M15" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N15" s="155" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -33580,7 +33791,7 @@
       </c>
       <c r="C16" s="83">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D16" s="83">
         <f t="shared" si="3"/>
@@ -33592,7 +33803,7 @@
       </c>
       <c r="F16" s="83">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G16" s="83">
         <f t="shared" si="3"/>
@@ -33620,18 +33831,18 @@
       </c>
       <c r="M16" s="83">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="N16" s="158">
         <f>SUM(M16/P16)</f>
-        <v>2.0547414127316428E-3</v>
+        <v>2.9581422866439876E-3</v>
       </c>
       <c r="O16" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="P16" s="157">
         <f>SUM(P4:P15)</f>
-        <v>51588</v>
+        <v>40566</v>
       </c>
       <c r="Q16" s="82"/>
       <c r="R16" s="32"/>
@@ -33675,7 +33886,7 @@
       </c>
       <c r="M18" s="87">
         <f>SUM(M4:M15)/12</f>
-        <v>8.8333333333333339</v>
+        <v>10</v>
       </c>
       <c r="N18" s="160" t="e">
         <f>SUM(N4:N15)/12</f>
@@ -33830,19 +34041,20 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B3:G17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33897,7 +34109,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="169">
-        <f t="shared" ref="G5:G11" si="0">SUM(C5:F5)</f>
+        <f t="shared" ref="G5:G12" si="0">SUM(C5:F5)</f>
         <v>8</v>
       </c>
     </row>
@@ -34017,8 +34229,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="168">
-        <f>1+1+1</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="168">
         <f>1+1+1</f>
@@ -34032,18 +34243,29 @@
       </c>
       <c r="G11" s="167">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
+      <c r="C12" s="167">
+        <v>3</v>
+      </c>
+      <c r="D12" s="167">
+        <v>1</v>
+      </c>
+      <c r="E12" s="167">
+        <v>0</v>
+      </c>
+      <c r="F12" s="167">
+        <v>0</v>
+      </c>
+      <c r="G12" s="167">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="168" t="s">

--- a/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
+++ b/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="915" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="915" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="MENU PRINCIPAL" sheetId="36" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>CORTE 2</t>
   </si>
   <si>
-    <t>DOBRA 2</t>
-  </si>
-  <si>
     <t>SOLDA 2</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>COMPRAS</t>
+  </si>
+  <si>
+    <t>MONTAGEM</t>
   </si>
 </sst>
 </file>
@@ -1657,8 +1657,11 @@
                 <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>3800</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,10 +1839,13 @@
                   <c:v>2159.14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3333.7599999999998</c:v>
+                  <c:v>3533.7599999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1717.5300000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25423.789999999997</c:v>
+                  <c:v>27341.319999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,11 +1867,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="1124069328"/>
-        <c:axId val="1315915680"/>
+        <c:axId val="249961216"/>
+        <c:axId val="479184528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1124069328"/>
+        <c:axId val="249961216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,7 +1925,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315915680"/>
+        <c:crossAx val="479184528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1927,7 +1933,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1315915680"/>
+        <c:axId val="479184528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +1943,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1124069328"/>
+        <c:crossAx val="249961216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2178,7 +2184,7 @@
                   <c:v>CORTE 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>DOBRA 2</c:v>
+                  <c:v>MONTAGEM</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>SOLDA 2</c:v>
@@ -2351,7 +2357,7 @@
                   <c:v>CORTE 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>DOBRA 2</c:v>
+                  <c:v>MONTAGEM</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>SOLDA 2</c:v>
@@ -2524,7 +2530,7 @@
                   <c:v>CORTE 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>DOBRA 2</c:v>
+                  <c:v>MONTAGEM</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>SOLDA 2</c:v>
@@ -2697,7 +2703,7 @@
                   <c:v>CORTE 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>DOBRA 2</c:v>
+                  <c:v>MONTAGEM</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>SOLDA 2</c:v>
@@ -2870,7 +2876,7 @@
                   <c:v>CORTE 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>DOBRA 2</c:v>
+                  <c:v>MONTAGEM</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>SOLDA 2</c:v>
@@ -3043,7 +3049,7 @@
                   <c:v>CORTE 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>DOBRA 2</c:v>
+                  <c:v>MONTAGEM</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>SOLDA 2</c:v>
@@ -3216,7 +3222,7 @@
                   <c:v>CORTE 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>DOBRA 2</c:v>
+                  <c:v>MONTAGEM</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>SOLDA 2</c:v>
@@ -3389,7 +3395,7 @@
                   <c:v>CORTE 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>DOBRA 2</c:v>
+                  <c:v>MONTAGEM</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>SOLDA 2</c:v>
@@ -3449,7 +3455,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3485,7 +3491,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3562,7 +3568,7 @@
                   <c:v>CORTE 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>DOBRA 2</c:v>
+                  <c:v>MONTAGEM</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>SOLDA 2</c:v>
@@ -3597,8 +3603,68 @@
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3675,7 +3741,7 @@
                   <c:v>CORTE 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>DOBRA 2</c:v>
+                  <c:v>MONTAGEM</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>SOLDA 2</c:v>
@@ -3790,7 +3856,7 @@
                   <c:v>CORTE 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>DOBRA 2</c:v>
+                  <c:v>MONTAGEM</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>SOLDA 2</c:v>
@@ -3903,7 +3969,7 @@
                   <c:v>CORTE 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>DOBRA 2</c:v>
+                  <c:v>MONTAGEM</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>SOLDA 2</c:v>
@@ -3960,11 +4026,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1317273104"/>
-        <c:axId val="1317284528"/>
+        <c:axId val="555295968"/>
+        <c:axId val="558708992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1317273104"/>
+        <c:axId val="555295968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,7 +4070,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317284528"/>
+        <c:crossAx val="558708992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4012,7 +4078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1317284528"/>
+        <c:axId val="558708992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4060,7 +4126,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317273104"/>
+        <c:crossAx val="555295968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4356,7 +4422,7 @@
                   <c:v>CORTE 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>DOBRA 2</c:v>
+                  <c:v>MONTAGEM</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>SOLDA 2</c:v>
@@ -4389,7 +4455,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4398,13 +4464,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4413,19 +4479,19 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>356</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -4463,11 +4529,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1317280720"/>
-        <c:axId val="1317283440"/>
+        <c:axId val="558714976"/>
+        <c:axId val="558707904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1317280720"/>
+        <c:axId val="558714976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4564,7 +4630,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317283440"/>
+        <c:crossAx val="558707904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4572,7 +4638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1317283440"/>
+        <c:axId val="558707904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4686,7 +4752,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317280720"/>
+        <c:crossAx val="558714976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4996,7 +5062,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000%">
-                  <c:v>2.1273973278114679E-2</c:v>
+                  <c:v>2.2580486121382439E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5016,8 +5082,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1317281808"/>
-        <c:axId val="1317279632"/>
+        <c:axId val="558722048"/>
+        <c:axId val="558713344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5215,11 +5281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1317281808"/>
-        <c:axId val="1317279632"/>
+        <c:axId val="558722048"/>
+        <c:axId val="558713344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1317281808"/>
+        <c:axId val="558722048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5259,7 +5325,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317279632"/>
+        <c:crossAx val="558713344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5267,7 +5333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1317279632"/>
+        <c:axId val="558713344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5315,7 +5381,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317281808"/>
+        <c:crossAx val="558722048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5444,7 +5510,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5565,7 +5630,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5674,7 +5738,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.000%">
-                  <c:v>2.9581422866439876E-3</c:v>
+                  <c:v>3.2539565153083864E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5694,8 +5758,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1317271472"/>
-        <c:axId val="1317272016"/>
+        <c:axId val="558706816"/>
+        <c:axId val="558711712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5844,11 +5908,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1317271472"/>
-        <c:axId val="1317272016"/>
+        <c:axId val="558706816"/>
+        <c:axId val="558711712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1317271472"/>
+        <c:axId val="558706816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5889,7 +5953,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317272016"/>
+        <c:crossAx val="558711712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5897,7 +5961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1317272016"/>
+        <c:axId val="558711712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5937,7 +6001,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317271472"/>
+        <c:crossAx val="558706816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5951,7 +6015,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6062,7 +6125,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6166,7 +6228,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6239,7 +6300,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6269,7 +6330,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6290,11 +6351,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1317283984"/>
-        <c:axId val="1317275280"/>
+        <c:axId val="558713888"/>
+        <c:axId val="558708448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1317283984"/>
+        <c:axId val="558713888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6334,7 +6395,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317275280"/>
+        <c:crossAx val="558708448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6342,7 +6403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1317275280"/>
+        <c:axId val="558708448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6390,7 +6451,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317283984"/>
+        <c:crossAx val="558713888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6749,7 +6810,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6771,11 +6832,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1317272560"/>
-        <c:axId val="1317276912"/>
+        <c:axId val="558711168"/>
+        <c:axId val="558717696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1317272560"/>
+        <c:axId val="558711168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6818,7 +6879,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317276912"/>
+        <c:crossAx val="558717696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6826,7 +6887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1317276912"/>
+        <c:axId val="558717696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6877,7 +6938,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317272560"/>
+        <c:crossAx val="558711168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7207,7 +7268,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -7229,6 +7290,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7250,11 +7314,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1319166064"/>
-        <c:axId val="1319162256"/>
+        <c:axId val="558715520"/>
+        <c:axId val="558716064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1319166064"/>
+        <c:axId val="558715520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7297,7 +7361,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319162256"/>
+        <c:crossAx val="558716064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7305,7 +7369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1319162256"/>
+        <c:axId val="558716064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7356,7 +7420,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319166064"/>
+        <c:crossAx val="558715520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7611,7 +7675,10 @@
                   <c:v>2159.14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3333.7599999999998</c:v>
+                  <c:v>3533.7599999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1717.5300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7632,11 +7699,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1315901536"/>
-        <c:axId val="1315910784"/>
+        <c:axId val="479186704"/>
+        <c:axId val="479182896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1315901536"/>
+        <c:axId val="479186704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7675,14 +7742,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315910784"/>
+        <c:crossAx val="479182896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1315910784"/>
+        <c:axId val="479182896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7730,7 +7797,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315901536"/>
+        <c:crossAx val="479186704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8020,6 +8087,9 @@
                 <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8055,11 +8125,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1315902080"/>
-        <c:axId val="1315911328"/>
+        <c:axId val="479187248"/>
+        <c:axId val="555292704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1315902080"/>
+        <c:axId val="479187248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8099,14 +8169,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315911328"/>
+        <c:crossAx val="555292704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1315911328"/>
+        <c:axId val="555292704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8140,7 +8210,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315902080"/>
+        <c:crossAx val="479187248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8467,11 +8537,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1315904256"/>
-        <c:axId val="1315908608"/>
+        <c:axId val="555287264"/>
+        <c:axId val="555299776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1315904256"/>
+        <c:axId val="555287264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8512,7 +8582,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315908608"/>
+        <c:crossAx val="555299776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8520,7 +8590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1315908608"/>
+        <c:axId val="555299776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8560,7 +8630,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315904256"/>
+        <c:crossAx val="555287264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8801,7 +8871,7 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>29223.789999999997</c:v>
+                  <c:v>31341.319999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8822,11 +8892,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1315915136"/>
-        <c:axId val="1315904800"/>
+        <c:axId val="555300320"/>
+        <c:axId val="555288352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1315915136"/>
+        <c:axId val="555300320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8867,7 +8937,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315904800"/>
+        <c:crossAx val="555288352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8875,7 +8945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1315904800"/>
+        <c:axId val="555288352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8915,7 +8985,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315915136"/>
+        <c:crossAx val="555300320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9255,8 +9325,11 @@
                 <c:pt idx="7">
                   <c:v>1268.77</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>320.88</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>6678.65</c:v>
+                  <c:v>6999.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9276,8 +9349,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1315907520"/>
-        <c:axId val="1315908064"/>
+        <c:axId val="555288896"/>
+        <c:axId val="555298144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9480,11 +9553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1315907520"/>
-        <c:axId val="1315908064"/>
+        <c:axId val="555288896"/>
+        <c:axId val="555298144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1315907520"/>
+        <c:axId val="555288896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9526,7 +9599,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315908064"/>
+        <c:crossAx val="555298144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9534,7 +9607,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1315908064"/>
+        <c:axId val="555298144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9575,7 +9648,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315907520"/>
+        <c:crossAx val="555288896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9920,8 +9993,11 @@
                 <c:pt idx="7">
                   <c:v>1268.77</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>320.88</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>6678.65</c:v>
+                  <c:v>6999.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9943,11 +10019,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="1315910240"/>
-        <c:axId val="1315911872"/>
+        <c:axId val="555294880"/>
+        <c:axId val="555295424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1315910240"/>
+        <c:axId val="555294880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9995,7 +10071,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315911872"/>
+        <c:crossAx val="555295424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10003,7 +10079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1315911872"/>
+        <c:axId val="555295424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10013,7 +10089,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1315910240"/>
+        <c:crossAx val="555294880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10295,10 +10371,13 @@
                   <c:v>295.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2064.9899999999998</c:v>
+                  <c:v>2264.9899999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1396.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18986.660000000003</c:v>
+                  <c:v>20583.310000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10318,8 +10397,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1315914048"/>
-        <c:axId val="1317282352"/>
+        <c:axId val="555292160"/>
+        <c:axId val="555300864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10487,11 +10566,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1315914048"/>
-        <c:axId val="1317282352"/>
+        <c:axId val="555292160"/>
+        <c:axId val="555300864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1315914048"/>
+        <c:axId val="555292160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10532,7 +10611,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317282352"/>
+        <c:crossAx val="555300864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10540,7 +10619,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1317282352"/>
+        <c:axId val="555300864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10580,7 +10659,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315914048"/>
+        <c:crossAx val="555292160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10888,10 +10967,13 @@
                   <c:v>295.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2064.9899999999998</c:v>
+                  <c:v>2264.9899999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1396.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18986.660000000003</c:v>
+                  <c:v>20583.310000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10913,11 +10995,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="1317282896"/>
-        <c:axId val="1317274192"/>
+        <c:axId val="555301408"/>
+        <c:axId val="555289984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1317282896"/>
+        <c:axId val="555301408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10965,7 +11047,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317274192"/>
+        <c:crossAx val="555289984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10973,7 +11055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1317274192"/>
+        <c:axId val="555289984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10983,7 +11065,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1317282896"/>
+        <c:crossAx val="555301408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19328,7 +19410,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19405,7 +19487,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19491,7 +19573,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19568,7 +19650,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19645,7 +19727,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19722,7 +19804,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19799,7 +19881,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19876,7 +19958,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19957,7 +20039,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCD85AFD-A5D3-EF15-7D80-2D8434DB3838}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD85AFD-A5D3-EF15-7D80-2D8434DB3838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19998,7 +20080,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20034,7 +20116,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20070,7 +20152,7 @@
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20106,7 +20188,7 @@
         <xdr:cNvPr id="4" name="Fluxograma: Conector fora de Página 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20160,7 +20242,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20237,7 +20319,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20323,7 +20405,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20400,7 +20482,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20477,7 +20559,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20554,7 +20636,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20631,7 +20713,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20708,7 +20790,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20789,7 +20871,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20826,7 +20908,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20903,7 +20985,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20989,7 +21071,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21066,7 +21148,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21143,7 +21225,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21220,7 +21302,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21297,7 +21379,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21374,7 +21456,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21455,7 +21537,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21492,7 +21574,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21569,7 +21651,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21655,7 +21737,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21732,7 +21814,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000030000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21809,7 +21891,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21886,7 +21968,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21963,7 +22045,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22040,7 +22122,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22121,7 +22203,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22159,7 +22241,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22197,7 +22279,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22250,7 +22332,7 @@
         <xdr:cNvPr id="5" name="Elipse 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22304,7 +22386,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22381,7 +22463,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22467,7 +22549,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22544,7 +22626,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22621,7 +22703,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22698,7 +22780,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22775,7 +22857,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22852,7 +22934,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22933,7 +23015,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22969,7 +23051,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23006,7 +23088,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23083,7 +23165,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23169,7 +23251,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23246,7 +23328,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23323,7 +23405,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23400,7 +23482,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23477,7 +23559,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23554,7 +23636,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23635,7 +23717,7 @@
         <xdr:cNvPr id="3" name="Elipse 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23688,7 +23770,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23741,7 +23823,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23777,7 +23859,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23813,7 +23895,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23850,7 +23932,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23927,7 +24009,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24013,7 +24095,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24090,7 +24172,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24167,7 +24249,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24244,7 +24326,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24321,7 +24403,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24398,7 +24480,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24479,7 +24561,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24515,7 +24597,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24568,7 +24650,7 @@
         <xdr:cNvPr id="5" name="Elipse 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24621,7 +24703,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24658,7 +24740,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24735,7 +24817,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24821,7 +24903,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24898,7 +24980,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24975,7 +25057,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25052,7 +25134,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25129,7 +25211,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25206,7 +25288,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25287,7 +25369,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DA06EEC-3CFB-42E2-870A-3A538915B99C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA06EEC-3CFB-42E2-870A-3A538915B99C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25664,7 +25746,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="185"/>
       <c r="C1" s="185"/>
@@ -27293,7 +27375,7 @@
   <dimension ref="B3:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27303,7 +27385,7 @@
   <sheetData>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="199"/>
       <c r="D3" s="199"/>
@@ -27315,13 +27397,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="161" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="161" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="161" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="162" t="s">
         <v>5</v>
@@ -27329,25 +27411,25 @@
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="163" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="163">
         <v>0</v>
       </c>
       <c r="D5" s="163">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="163">
         <v>0</v>
       </c>
       <c r="F5" s="164">
         <f>SUM(C5:E5)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="162" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="162">
         <v>0</v>
@@ -27359,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="164">
-        <f t="shared" ref="F6:F12" si="0">SUM(C6:E6)</f>
+        <f t="shared" ref="F6:F13" si="0">SUM(C6:E6)</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="163" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="162">
         <v>0</v>
@@ -27383,7 +27465,7 @@
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="162" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="162">
         <v>1</v>
@@ -27401,7 +27483,7 @@
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="163" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="163">
         <v>0</v>
@@ -27419,7 +27501,7 @@
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="162" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="162">
         <v>0</v>
@@ -27438,7 +27520,7 @@
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="163" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="163">
         <v>0</v>
@@ -27457,7 +27539,7 @@
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="162" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="162">
         <v>1</v>
@@ -27475,16 +27557,25 @@
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="163" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="164"/>
+        <v>66</v>
+      </c>
+      <c r="C13" s="163">
+        <v>0</v>
+      </c>
+      <c r="D13" s="163">
+        <v>1</v>
+      </c>
+      <c r="E13" s="163">
+        <v>0</v>
+      </c>
+      <c r="F13" s="164">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="162" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="162"/>
       <c r="D14" s="162"/>
@@ -27493,7 +27584,7 @@
     </row>
     <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="163" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="163"/>
       <c r="D15" s="163"/>
@@ -27502,7 +27593,7 @@
     </row>
     <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="162" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="162"/>
       <c r="D16" s="162"/>
@@ -27511,7 +27602,7 @@
     </row>
     <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="163" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="165"/>
       <c r="D17" s="165"/>
@@ -27581,7 +27672,7 @@
         <v>1933</v>
       </c>
       <c r="H4" s="200" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -27712,7 +27803,7 @@
   <dimension ref="A1:AF52"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27946,8 +28037,8 @@
         <v>200</v>
       </c>
       <c r="C10" s="116">
-        <f>8.33+1268.77+1650+406.66</f>
-        <v>3333.7599999999998</v>
+        <f>8.33+1268.77+1650+406.66+200</f>
+        <v>3533.7599999999998</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="4"/>
@@ -27963,8 +28054,13 @@
       <c r="A11" s="115">
         <v>45536</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="B11" s="116">
+        <v>200</v>
+      </c>
+      <c r="C11" s="116">
+        <f>235+500+320.88+13.33+371.66+276.66</f>
+        <v>1717.5300000000002</v>
+      </c>
       <c r="D11" s="32"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -28029,11 +28125,11 @@
       </c>
       <c r="B15" s="116">
         <f>SUM(B3:B14)</f>
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="C15" s="116">
         <f>SUM(C3:C14)</f>
-        <v>25423.789999999997</v>
+        <v>27341.319999999996</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="34"/>
@@ -28591,7 +28687,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="127" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="130"/>
       <c r="E3" s="128"/>
@@ -29073,7 +29169,7 @@
       </c>
       <c r="C10" s="58">
         <f>'Custo NC '!C10</f>
-        <v>3333.7599999999998</v>
+        <v>3533.7599999999998</v>
       </c>
       <c r="N10" s="52"/>
     </row>
@@ -29083,11 +29179,11 @@
       </c>
       <c r="B11" s="58">
         <f>'Custo NC '!B11</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C11" s="58">
         <f>'Custo NC '!C11</f>
-        <v>0</v>
+        <v>1717.5300000000002</v>
       </c>
       <c r="N11" s="52"/>
     </row>
@@ -29139,11 +29235,11 @@
       </c>
       <c r="B15" s="58">
         <f>'Custo NC '!B15</f>
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="C15" s="58">
         <f>'Custo NC '!C15</f>
-        <v>25423.789999999997</v>
+        <v>27341.319999999996</v>
       </c>
       <c r="N15" s="52"/>
     </row>
@@ -29153,7 +29249,7 @@
       </c>
       <c r="B16" s="61">
         <f>SUM(B15:C15)</f>
-        <v>29223.789999999997</v>
+        <v>31341.319999999996</v>
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="54"/>
@@ -29183,7 +29279,7 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29582,7 +29678,10 @@
       <c r="A12" s="68">
         <v>45536</v>
       </c>
-      <c r="B12" s="101"/>
+      <c r="B12" s="101">
+        <f>320.88</f>
+        <v>320.88</v>
+      </c>
       <c r="C12" s="183">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -29720,7 +29819,7 @@
       </c>
       <c r="B16" s="101">
         <f>SUM(B4:B15)</f>
-        <v>6678.65</v>
+        <v>6999.53</v>
       </c>
       <c r="C16" s="150"/>
       <c r="D16" s="149">
@@ -30689,7 +30788,7 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30963,8 +31062,8 @@
         <v>45505</v>
       </c>
       <c r="B11" s="17">
-        <f>8.33+1650+406.66</f>
-        <v>2064.9899999999998</v>
+        <f>8.33+1650+406.66+200</f>
+        <v>2264.9899999999998</v>
       </c>
       <c r="C11" s="182">
         <v>5.0000000000000001E-3</v>
@@ -30988,7 +31087,10 @@
       <c r="A12" s="65">
         <v>45536</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="17">
+        <f>235+500+13.33+371.66+276.66</f>
+        <v>1396.65</v>
+      </c>
       <c r="C12" s="182">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -31082,7 +31184,7 @@
       </c>
       <c r="B16" s="17">
         <f>SUM(B4:B15)</f>
-        <v>18986.660000000003</v>
+        <v>20583.310000000005</v>
       </c>
       <c r="C16" s="100"/>
       <c r="D16" s="100"/>
@@ -31575,7 +31677,7 @@
   <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31603,7 +31705,7 @@
     <row r="1" spans="1:39" ht="126" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:39" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="197"/>
       <c r="C2" s="197"/>
@@ -31664,7 +31766,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="109" t="s">
         <v>36</v>
@@ -31682,34 +31784,34 @@
         <v>38</v>
       </c>
       <c r="M3" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="109" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" s="109" t="s">
+      <c r="T3" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="109" t="s">
-        <v>80</v>
-      </c>
       <c r="U3" s="109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V3" s="173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W3" s="174" t="s">
         <v>20</v>
@@ -32352,7 +32454,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="102">
         <v>0</v>
@@ -32390,7 +32492,7 @@
       </c>
       <c r="V11" s="176">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="W11" s="177" t="e">
         <f t="shared" si="1"/>
@@ -32411,29 +32513,71 @@
       <c r="A12" s="110">
         <v>45536</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
+      <c r="B12" s="107">
+        <v>1</v>
+      </c>
+      <c r="C12" s="107">
+        <v>0</v>
+      </c>
+      <c r="D12" s="107">
+        <v>0</v>
+      </c>
+      <c r="E12" s="107">
+        <v>3</v>
+      </c>
+      <c r="F12" s="107">
+        <v>0</v>
+      </c>
+      <c r="G12" s="107">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="H12" s="107">
+        <v>0</v>
+      </c>
+      <c r="I12" s="107">
+        <v>0</v>
+      </c>
+      <c r="J12" s="107">
+        <v>0</v>
+      </c>
+      <c r="K12" s="107">
+        <v>0</v>
+      </c>
+      <c r="L12" s="107">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="107">
+        <v>0</v>
+      </c>
+      <c r="N12" s="107">
+        <v>12</v>
+      </c>
+      <c r="O12" s="107">
+        <v>0</v>
+      </c>
+      <c r="P12" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="107">
+        <v>0</v>
+      </c>
+      <c r="R12" s="107">
+        <v>0</v>
+      </c>
+      <c r="S12" s="107">
+        <v>0</v>
+      </c>
+      <c r="T12" s="107">
+        <v>12</v>
+      </c>
+      <c r="U12" s="107">
+        <v>0</v>
+      </c>
       <c r="V12" s="176">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="W12" s="177" t="e">
         <f t="shared" si="1"/>
@@ -32581,11 +32725,11 @@
     </row>
     <row r="16" spans="1:39" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16" s="84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="85">
         <f>SUM(B4:B15)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="85">
         <f t="shared" ref="C16:U16" si="2">SUM(C4:C15)</f>
@@ -32597,7 +32741,7 @@
       </c>
       <c r="E16" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="85">
         <f t="shared" si="2"/>
@@ -32605,7 +32749,7 @@
       </c>
       <c r="G16" s="85">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H16" s="85">
         <f t="shared" si="2"/>
@@ -32617,7 +32761,7 @@
       </c>
       <c r="J16" s="85">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K16" s="85">
         <f t="shared" si="2"/>
@@ -32625,7 +32769,7 @@
       </c>
       <c r="L16" s="85">
         <f t="shared" si="2"/>
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M16" s="85">
         <f t="shared" si="2"/>
@@ -32633,7 +32777,7 @@
       </c>
       <c r="N16" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O16" s="85">
         <f t="shared" si="2"/>
@@ -32662,11 +32806,11 @@
       </c>
       <c r="V16" s="176">
         <f t="shared" ref="V16" si="3">SUM(V4:V15)</f>
-        <v>863</v>
+        <v>916</v>
       </c>
       <c r="W16" s="180">
         <f>SUM(V16/Y16)</f>
-        <v>2.1273973278114679E-2</v>
+        <v>2.2580486121382439E-2</v>
       </c>
       <c r="X16" s="178">
         <v>0.01</v>
@@ -32733,7 +32877,7 @@
       <c r="U18" s="20"/>
       <c r="V18" s="181">
         <f>SUM(V4:V15)/12</f>
-        <v>71.916666666666671</v>
+        <v>76.333333333333329</v>
       </c>
       <c r="W18" s="180" t="e">
         <f>SUM(W4:W15)/12</f>
@@ -33067,7 +33211,7 @@
   <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33096,7 +33240,7 @@
     <row r="1" spans="1:39" ht="108" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="197" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="197"/>
       <c r="C2" s="197"/>
@@ -33148,7 +33292,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="105" t="s">
         <v>14</v>
@@ -33160,19 +33304,19 @@
         <v>16</v>
       </c>
       <c r="H3" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="105" t="s">
+      <c r="K3" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="105" t="s">
+      <c r="L3" s="105" t="s">
         <v>52</v>
-      </c>
-      <c r="L3" s="105" t="s">
-        <v>53</v>
       </c>
       <c r="M3" s="104" t="s">
         <v>5</v>
@@ -33649,20 +33793,42 @@
       <c r="A12" s="106">
         <v>45536</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
+      <c r="B12" s="107">
+        <v>0</v>
+      </c>
+      <c r="C12" s="107">
+        <v>12</v>
+      </c>
+      <c r="D12" s="107">
+        <v>0</v>
+      </c>
+      <c r="E12" s="107">
+        <v>0</v>
+      </c>
+      <c r="F12" s="107">
+        <v>0</v>
+      </c>
+      <c r="G12" s="107">
+        <v>0</v>
+      </c>
+      <c r="H12" s="107">
+        <v>0</v>
+      </c>
+      <c r="I12" s="107">
+        <v>0</v>
+      </c>
+      <c r="J12" s="107">
+        <v>0</v>
+      </c>
+      <c r="K12" s="107">
+        <v>0</v>
+      </c>
+      <c r="L12" s="107">
+        <v>0</v>
+      </c>
       <c r="M12" s="107">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N12" s="155" t="e">
         <f t="shared" si="2"/>
@@ -33791,7 +33957,7 @@
       </c>
       <c r="C16" s="83">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D16" s="83">
         <f t="shared" si="3"/>
@@ -33831,11 +33997,11 @@
       </c>
       <c r="M16" s="83">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="N16" s="158">
         <f>SUM(M16/P16)</f>
-        <v>2.9581422866439876E-3</v>
+        <v>3.2539565153083864E-3</v>
       </c>
       <c r="O16" s="156">
         <v>5.0000000000000001E-3</v>
@@ -33886,7 +34052,7 @@
       </c>
       <c r="M18" s="87">
         <f>SUM(M4:M15)/12</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N18" s="160" t="e">
         <f>SUM(N4:N15)/12</f>
@@ -34054,7 +34220,7 @@
   <dimension ref="B3:G17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34064,7 +34230,7 @@
   <sheetData>
     <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="198" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="198"/>
       <c r="D3" s="198"/>
@@ -34077,16 +34243,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="166" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="166" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="166" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="167" t="s">
         <v>5</v>
@@ -34094,7 +34260,7 @@
     </row>
     <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="168" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="168">
         <v>1</v>
@@ -34115,7 +34281,7 @@
     </row>
     <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="167" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="167">
         <v>6</v>
@@ -34136,7 +34302,7 @@
     </row>
     <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="168" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="168">
         <f>4</f>
@@ -34158,7 +34324,7 @@
     </row>
     <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="167" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="167">
         <f>1</f>
@@ -34181,7 +34347,7 @@
     </row>
     <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="168" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="168">
         <f>1+1+1+1+1+1</f>
@@ -34203,7 +34369,7 @@
     </row>
     <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="167" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="167">
         <f>1+1</f>
@@ -34226,9 +34392,10 @@
     </row>
     <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="168" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="168">
+        <f>1+1+1+1+1</f>
         <v>5</v>
       </c>
       <c r="D11" s="168">
@@ -34248,10 +34415,11 @@
     </row>
     <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="167" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="167">
-        <v>3</v>
+        <f>1+1+1+1</f>
+        <v>4</v>
       </c>
       <c r="D12" s="167">
         <v>1</v>
@@ -34264,22 +34432,32 @@
       </c>
       <c r="G12" s="167">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="168" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
+        <v>66</v>
+      </c>
+      <c r="C13" s="168">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="168">
+        <f>1+1+1+1+1</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="168">
+        <v>0</v>
+      </c>
+      <c r="F13" s="168">
+        <v>0</v>
+      </c>
       <c r="G13" s="169"/>
     </row>
     <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="167" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="167"/>
       <c r="D14" s="167"/>
@@ -34289,7 +34467,7 @@
     </row>
     <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="168" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="168"/>
       <c r="D15" s="168"/>
@@ -34299,7 +34477,7 @@
     </row>
     <row r="16" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="167" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="167"/>
       <c r="D16" s="167"/>
@@ -34309,7 +34487,7 @@
     </row>
     <row r="17" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="168" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="170"/>
       <c r="D17" s="170"/>

--- a/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
+++ b/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\INDICADORES\QUALIDADE\ELOHIM\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839DADC0-84CA-4C53-B797-1FEA65977BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="915" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="915" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU PRINCIPAL" sheetId="36" r:id="rId1"/>
@@ -55,12 +56,12 @@
     <definedName name="Excel_BuiltIn_Print_Area_9" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_9">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
   <si>
     <t>Total</t>
   </si>
@@ -203,9 +204,6 @@
     <t>ACABAMENTO</t>
   </si>
   <si>
-    <t>CORTE 2</t>
-  </si>
-  <si>
     <t>SOLDA 2</t>
   </si>
   <si>
@@ -328,11 +326,17 @@
   <si>
     <t>MONTAGEM</t>
   </si>
+  <si>
+    <t>SHAMAH</t>
+  </si>
+  <si>
+    <t>GILHOTINA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1382,7 +1386,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1560,9 +1564,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1660,13 +1663,16 @@
                 <c:pt idx="8">
                   <c:v>200</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>4000</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E878-4B1F-990B-9EDE7F0B81DC}"/>
             </c:ext>
@@ -1744,9 +1750,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1844,13 +1849,16 @@
                 <c:pt idx="8">
                   <c:v>1717.5300000000002</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>8452.3230000000003</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>27341.319999999996</c:v>
+                  <c:v>35793.642999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E878-4B1F-990B-9EDE7F0B81DC}"/>
             </c:ext>
@@ -1867,11 +1875,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="249961216"/>
-        <c:axId val="479184528"/>
+        <c:axId val="-411329312"/>
+        <c:axId val="-411328224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="249961216"/>
+        <c:axId val="-411329312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,7 +1933,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479184528"/>
+        <c:crossAx val="-411328224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1933,7 +1941,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="479184528"/>
+        <c:axId val="-411328224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1951,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249961216"/>
+        <c:crossAx val="-411329312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2036,7 +2044,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2084,7 +2092,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2175,7 +2182,7 @@
                   <c:v>SOLDA 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CORTE 2</c:v>
+                  <c:v>GILHOTINA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>ACABAMENTO</c:v>
@@ -2285,7 +2292,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -2348,7 +2355,7 @@
                   <c:v>SOLDA 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CORTE 2</c:v>
+                  <c:v>GILHOTINA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>ACABAMENTO</c:v>
@@ -2458,7 +2465,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -2521,7 +2528,7 @@
                   <c:v>SOLDA 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CORTE 2</c:v>
+                  <c:v>GILHOTINA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>ACABAMENTO</c:v>
@@ -2631,7 +2638,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -2694,7 +2701,7 @@
                   <c:v>SOLDA 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CORTE 2</c:v>
+                  <c:v>GILHOTINA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>ACABAMENTO</c:v>
@@ -2804,7 +2811,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -2867,7 +2874,7 @@
                   <c:v>SOLDA 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CORTE 2</c:v>
+                  <c:v>GILHOTINA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>ACABAMENTO</c:v>
@@ -2977,7 +2984,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3040,7 +3047,7 @@
                   <c:v>SOLDA 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CORTE 2</c:v>
+                  <c:v>GILHOTINA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>ACABAMENTO</c:v>
@@ -3150,7 +3157,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3213,7 +3220,7 @@
                   <c:v>SOLDA 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CORTE 2</c:v>
+                  <c:v>GILHOTINA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>ACABAMENTO</c:v>
@@ -3323,7 +3330,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3386,7 +3393,7 @@
                   <c:v>SOLDA 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CORTE 2</c:v>
+                  <c:v>GILHOTINA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>ACABAMENTO</c:v>
@@ -3496,7 +3503,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3559,7 +3566,7 @@
                   <c:v>SOLDA 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CORTE 2</c:v>
+                  <c:v>GILHOTINA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>ACABAMENTO</c:v>
@@ -3669,7 +3676,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3732,7 +3739,7 @@
                   <c:v>SOLDA 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CORTE 2</c:v>
+                  <c:v>GILHOTINA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>ACABAMENTO</c:v>
@@ -3776,13 +3783,73 @@
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3847,7 +3914,7 @@
                   <c:v>SOLDA 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CORTE 2</c:v>
+                  <c:v>GILHOTINA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>ACABAMENTO</c:v>
@@ -3897,7 +3964,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -3960,7 +4027,7 @@
                   <c:v>SOLDA 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CORTE 2</c:v>
+                  <c:v>GILHOTINA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>ACABAMENTO</c:v>
@@ -4010,7 +4077,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-FDBD-47CC-AE29-F7BEDCB3958C}"/>
             </c:ext>
@@ -4026,11 +4093,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="555295968"/>
-        <c:axId val="558708992"/>
+        <c:axId val="-53690512"/>
+        <c:axId val="-53695952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="555295968"/>
+        <c:axId val="-53690512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4070,7 +4137,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558708992"/>
+        <c:crossAx val="-53695952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4078,7 +4145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558708992"/>
+        <c:axId val="-53695952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4126,7 +4193,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555295968"/>
+        <c:crossAx val="-53690512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4219,7 +4286,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4268,7 +4335,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4359,9 +4425,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4413,7 +4478,7 @@
                   <c:v>SOLDA 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CORTE 2</c:v>
+                  <c:v>GILHOTINA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>ACABAMENTO</c:v>
@@ -4455,22 +4520,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4479,34 +4544,37 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>357</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>60</c:v>
@@ -4514,7 +4582,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3BF4-4B76-9AF4-5071D5729B49}"/>
             </c:ext>
@@ -4529,11 +4597,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="558714976"/>
-        <c:axId val="558707904"/>
+        <c:axId val="-53689968"/>
+        <c:axId val="-53121168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="558714976"/>
+        <c:axId val="-53689968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4630,7 +4698,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558707904"/>
+        <c:crossAx val="-53121168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4638,7 +4706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558707904"/>
+        <c:axId val="-53121168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4752,7 +4820,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558714976"/>
+        <c:crossAx val="-53689968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4807,7 +4875,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4852,7 +4920,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4951,9 +5018,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5044,16 +5110,16 @@
                   <c:v>4.0677966101694916E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.4735165272799682E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.1991447770311544E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.3809425239770922E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.1350741457124437E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -5062,12 +5128,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000%">
-                  <c:v>2.2580486121382439E-2</c:v>
+                  <c:v>1.3538467922649183E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5BED-4A73-B79A-374CDFB6F0DB}"/>
             </c:ext>
@@ -5082,8 +5148,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="558722048"/>
-        <c:axId val="558713344"/>
+        <c:axId val="-53115728"/>
+        <c:axId val="-53118992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5148,9 +5214,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5265,7 +5330,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5BED-4A73-B79A-374CDFB6F0DB}"/>
             </c:ext>
@@ -5281,11 +5346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558722048"/>
-        <c:axId val="558713344"/>
+        <c:axId val="-53115728"/>
+        <c:axId val="-53118992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="558722048"/>
+        <c:axId val="-53115728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5325,7 +5390,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558713344"/>
+        <c:crossAx val="-53118992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5333,7 +5398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558713344"/>
+        <c:axId val="-53118992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5381,7 +5446,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558722048"/>
+        <c:crossAx val="-53115728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5395,7 +5460,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5465,7 +5529,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -5558,7 +5622,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NC - EXT. Nº DE PEÇAS'!$N$3</c:f>
+              <c:f>'NC - EXT. Nº DE PEÇAS'!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5628,7 +5692,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5697,7 +5761,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NC - EXT. Nº DE PEÇAS'!$N$4:$N$16</c:f>
+              <c:f>'NC - EXT. Nº DE PEÇAS'!$O$4:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5720,16 +5784,16 @@
                   <c:v>1.271186440677966E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.0354440461967343E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8.5522296884544895E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.2798592423928791E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.7556415215989687E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -5738,12 +5802,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.000%">
-                  <c:v>3.2539565153083864E-3</c:v>
+                  <c:v>6.203834343099012E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-809A-4AD7-8A2E-4B67A7AC8EE5}"/>
             </c:ext>
@@ -5758,8 +5822,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="558706816"/>
-        <c:axId val="558711712"/>
+        <c:axId val="-53122800"/>
+        <c:axId val="-53118448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5769,7 +5833,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NC - EXT. Nº DE PEÇAS'!$O$3</c:f>
+              <c:f>'NC - EXT. Nº DE PEÇAS'!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5845,7 +5909,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NC - EXT. Nº DE PEÇAS'!$O$4:$O$16</c:f>
+              <c:f>'NC - EXT. Nº DE PEÇAS'!$P$4:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5892,7 +5956,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-809A-4AD7-8A2E-4B67A7AC8EE5}"/>
             </c:ext>
@@ -5908,11 +5972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558706816"/>
-        <c:axId val="558711712"/>
+        <c:axId val="-53122800"/>
+        <c:axId val="-53118448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="558706816"/>
+        <c:axId val="-53122800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5953,7 +6017,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558711712"/>
+        <c:crossAx val="-53118448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5961,7 +6025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558711712"/>
+        <c:axId val="-53118448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6001,7 +6065,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558706816"/>
+        <c:crossAx val="-53122800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6084,7 +6148,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -6226,7 +6290,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6248,9 +6312,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'NC - EXT. Nº DE PEÇAS'!$B$3:$M$3</c:f>
+              <c:f>'NC - EXT. Nº DE PEÇAS'!$B$3:$N$3</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>BALTEAU</c:v>
                 </c:pt>
@@ -6282,9 +6346,12 @@
                   <c:v>HITACHI</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>SHAMAH</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>OUTROS CLIENTES</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>TOTAL</c:v>
                 </c:pt>
               </c:strCache>
@@ -6292,15 +6359,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NC - EXT. Nº DE PEÇAS'!$B$16:$M$16</c:f>
+              <c:f>'NC - EXT. Nº DE PEÇAS'!$B$16:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6326,16 +6393,16 @@
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>132</c:v>
+                <c:pt idx="12">
+                  <c:v>598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B5C9-42EE-8A97-00E25480C66D}"/>
             </c:ext>
@@ -6351,11 +6418,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="558713888"/>
-        <c:axId val="558708448"/>
+        <c:axId val="-53120624"/>
+        <c:axId val="-53113008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="558713888"/>
+        <c:axId val="-53120624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6395,7 +6462,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558708448"/>
+        <c:crossAx val="-53113008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6403,7 +6470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558708448"/>
+        <c:axId val="-53113008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6451,7 +6518,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558713888"/>
+        <c:crossAx val="-53120624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6506,7 +6573,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -6553,7 +6620,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6701,7 +6767,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3E08-4CF4-8132-8E77B1B7FA85}"/>
             </c:ext>
@@ -6761,9 +6827,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6812,10 +6877,16 @@
                 <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3E08-4CF4-8132-8E77B1B7FA85}"/>
             </c:ext>
@@ -6832,11 +6903,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="558711168"/>
-        <c:axId val="558717696"/>
+        <c:axId val="-53119536"/>
+        <c:axId val="-53114640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="558711168"/>
+        <c:axId val="-53119536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6879,7 +6950,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558717696"/>
+        <c:crossAx val="-53114640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6887,7 +6958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558717696"/>
+        <c:axId val="-53114640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6938,7 +7009,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558711168"/>
+        <c:crossAx val="-53119536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6952,14 +7023,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6995,7 +7066,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -7034,7 +7105,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7182,7 +7252,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8011-46F6-B42E-E3FA07D0D0AB}"/>
             </c:ext>
@@ -7240,9 +7310,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7294,10 +7363,13 @@
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8011-46F6-B42E-E3FA07D0D0AB}"/>
             </c:ext>
@@ -7314,11 +7386,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="558715520"/>
-        <c:axId val="558716064"/>
+        <c:axId val="-53113552"/>
+        <c:axId val="-53110288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="558715520"/>
+        <c:axId val="-53113552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7361,7 +7433,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558716064"/>
+        <c:crossAx val="-53110288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7369,7 +7441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558716064"/>
+        <c:axId val="-53110288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7420,7 +7492,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558715520"/>
+        <c:crossAx val="-53113552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7434,14 +7506,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7479,7 +7551,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -7581,9 +7653,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7680,11 +7751,14 @@
                 <c:pt idx="8">
                   <c:v>1717.5300000000002</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>8452.3230000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5FE3-4CF6-923F-AB918B1A103F}"/>
             </c:ext>
@@ -7699,11 +7773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="479186704"/>
-        <c:axId val="479182896"/>
+        <c:axId val="-189269472"/>
+        <c:axId val="-189270560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479186704"/>
+        <c:axId val="-189269472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7742,14 +7816,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479182896"/>
+        <c:crossAx val="-189270560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479182896"/>
+        <c:axId val="-189270560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7797,7 +7871,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479186704"/>
+        <c:crossAx val="-189269472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7852,7 +7926,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -7896,7 +7970,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7992,9 +8065,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8090,11 +8162,14 @@
                 <c:pt idx="8">
                   <c:v>200</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CF0B-498E-9CFB-B152C036E41C}"/>
             </c:ext>
@@ -8125,11 +8200,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="479187248"/>
-        <c:axId val="555292704"/>
+        <c:axId val="-189276544"/>
+        <c:axId val="-189275456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479187248"/>
+        <c:axId val="-189276544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8169,14 +8244,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555292704"/>
+        <c:crossAx val="-189275456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="555292704"/>
+        <c:axId val="-189275456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8210,7 +8285,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479187248"/>
+        <c:crossAx val="-189276544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8277,7 +8352,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -8322,7 +8397,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8440,9 +8514,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8520,7 +8593,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E98E-48F3-8051-088DB5672801}"/>
             </c:ext>
@@ -8537,11 +8610,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="555287264"/>
-        <c:axId val="555299776"/>
+        <c:axId val="-411984464"/>
+        <c:axId val="-53689424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="555287264"/>
+        <c:axId val="-411984464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8582,7 +8655,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555299776"/>
+        <c:crossAx val="-53689424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8590,7 +8663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555299776"/>
+        <c:axId val="-53689424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8630,7 +8703,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555287264"/>
+        <c:crossAx val="-411984464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8685,7 +8758,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -8733,7 +8806,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8832,9 +8904,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8871,12 +8942,12 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31341.319999999996</c:v>
+                  <c:v>40193.642999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9206-45EB-BDBF-3EC4898A0447}"/>
             </c:ext>
@@ -8892,11 +8963,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="555300320"/>
-        <c:axId val="555288352"/>
+        <c:axId val="-53687792"/>
+        <c:axId val="-53688880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="555300320"/>
+        <c:axId val="-53687792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8937,7 +9008,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555288352"/>
+        <c:crossAx val="-53688880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8945,7 +9016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555288352"/>
+        <c:axId val="-53688880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8985,7 +9056,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555300320"/>
+        <c:crossAx val="-53687792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9040,7 +9111,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -9080,10 +9151,6 @@
             <a:r>
               <a:rPr lang="pt-BR" sz="1400"/>
               <a:t>Produto Não Conforme - Rejeição Interna</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t/>
             </a:r>
             <a:br>
               <a:rPr lang="pt-BR"/>
@@ -9228,9 +9295,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9328,13 +9394,16 @@
                 <c:pt idx="8">
                   <c:v>320.88</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>4403.6100000000006</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>6999.53</c:v>
+                  <c:v>11403.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0025-42B7-9472-DF647C894514}"/>
             </c:ext>
@@ -9349,8 +9418,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="555288896"/>
-        <c:axId val="555298144"/>
+        <c:axId val="-53686160"/>
+        <c:axId val="-53687248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9426,9 +9495,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9516,16 +9584,16 @@
                   <c:v>3681.3967499999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3640.4254999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2592.0804000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1840.827225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3430.6619000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -9537,7 +9605,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0025-42B7-9472-DF647C894514}"/>
             </c:ext>
@@ -9553,11 +9621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555288896"/>
-        <c:axId val="555298144"/>
+        <c:axId val="-53686160"/>
+        <c:axId val="-53687248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="555288896"/>
+        <c:axId val="-53686160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9599,7 +9667,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555298144"/>
+        <c:crossAx val="-53687248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9607,7 +9675,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555298144"/>
+        <c:axId val="-53687248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9648,7 +9716,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555288896"/>
+        <c:crossAx val="-53686160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9737,7 +9805,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -9787,7 +9855,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9887,7 +9954,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <a:prstGeom prst="rect">
@@ -9898,7 +9965,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9996,13 +10062,16 @@
                 <c:pt idx="8">
                   <c:v>320.88</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>4403.6100000000006</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>6999.53</c:v>
+                  <c:v>11403.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3C41-4F63-8252-EDF5D0E176BD}"/>
             </c:ext>
@@ -10019,11 +10088,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="555294880"/>
-        <c:axId val="555295424"/>
+        <c:axId val="-53685616"/>
+        <c:axId val="-53692688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="555294880"/>
+        <c:axId val="-53685616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10071,7 +10140,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555295424"/>
+        <c:crossAx val="-53692688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10079,7 +10148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555295424"/>
+        <c:axId val="-53692688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10089,7 +10158,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="555294880"/>
+        <c:crossAx val="-53685616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10144,7 +10213,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -10289,9 +10358,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -10376,13 +10444,16 @@
                 <c:pt idx="8">
                   <c:v>1396.65</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>4048.7099999999996</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>20583.310000000005</c:v>
+                  <c:v>24632.020000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A12E-4C87-A3F6-E11BA52DD92B}"/>
             </c:ext>
@@ -10397,8 +10468,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="555292160"/>
-        <c:axId val="555300864"/>
+        <c:axId val="-53698672"/>
+        <c:axId val="-53691600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10452,9 +10523,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -10529,16 +10599,16 @@
                   <c:v>7362.7934999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7280.8509999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5184.1608000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3681.65445</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6861.3238000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -10550,7 +10620,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A12E-4C87-A3F6-E11BA52DD92B}"/>
             </c:ext>
@@ -10566,11 +10636,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555292160"/>
-        <c:axId val="555300864"/>
+        <c:axId val="-53698672"/>
+        <c:axId val="-53691600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="555292160"/>
+        <c:axId val="-53698672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10611,7 +10681,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555300864"/>
+        <c:crossAx val="-53691600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10619,7 +10689,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555300864"/>
+        <c:axId val="-53691600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10659,7 +10729,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555292160"/>
+        <c:crossAx val="-53698672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10728,7 +10798,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -10772,7 +10842,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10872,9 +10941,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10972,13 +11040,16 @@
                 <c:pt idx="8">
                   <c:v>1396.65</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>4048.7099999999996</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>20583.310000000005</c:v>
+                  <c:v>24632.020000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AAE4-46EE-9E51-59674A39F794}"/>
             </c:ext>
@@ -10995,11 +11066,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="555301408"/>
-        <c:axId val="555289984"/>
+        <c:axId val="-53693776"/>
+        <c:axId val="-53697040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="555301408"/>
+        <c:axId val="-53693776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11047,7 +11118,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555289984"/>
+        <c:crossAx val="-53697040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11055,7 +11126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555289984"/>
+        <c:axId val="-53697040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11065,7 +11136,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="555301408"/>
+        <c:crossAx val="-53693776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19410,7 +19481,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19487,7 +19558,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19573,7 +19644,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19650,7 +19721,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19727,7 +19798,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19804,7 +19875,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19881,7 +19952,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19958,7 +20029,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20039,7 +20110,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD85AFD-A5D3-EF15-7D80-2D8434DB3838}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD85AFD-A5D3-EF15-7D80-2D8434DB3838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20080,7 +20151,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20116,7 +20187,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20152,7 +20223,7 @@
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20188,7 +20259,7 @@
         <xdr:cNvPr id="4" name="Fluxograma: Conector fora de Página 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20242,7 +20313,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20319,7 +20390,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20405,7 +20476,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20482,7 +20553,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20559,7 +20630,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20636,7 +20707,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20713,7 +20784,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20790,7 +20861,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20871,7 +20942,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20908,7 +20979,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20985,7 +21056,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21071,7 +21142,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21148,7 +21219,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21225,7 +21296,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21302,7 +21373,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21379,7 +21450,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21456,7 +21527,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21537,7 +21608,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21574,7 +21645,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21651,7 +21722,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21737,7 +21808,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21814,7 +21885,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21891,7 +21962,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21968,7 +22039,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22045,7 +22116,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22122,7 +22193,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22203,7 +22274,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22241,7 +22312,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22279,7 +22350,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22332,7 +22403,7 @@
         <xdr:cNvPr id="5" name="Elipse 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22386,7 +22457,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22463,7 +22534,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22549,7 +22620,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22626,7 +22697,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22703,7 +22774,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22780,7 +22851,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22857,7 +22928,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22934,7 +23005,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23015,7 +23086,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23051,7 +23122,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23088,7 +23159,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23165,7 +23236,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23251,7 +23322,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23328,7 +23399,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23405,7 +23476,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23482,7 +23553,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23559,7 +23630,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23636,7 +23707,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23717,7 +23788,7 @@
         <xdr:cNvPr id="3" name="Elipse 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23770,7 +23841,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23823,7 +23894,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23859,7 +23930,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23895,7 +23966,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23932,7 +24003,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24009,7 +24080,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24095,7 +24166,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24172,7 +24243,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24249,7 +24320,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24326,7 +24397,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24403,7 +24474,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24480,7 +24551,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24545,13 +24616,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>532555</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -24561,7 +24632,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24581,13 +24652,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>673938</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>71887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>781769</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>206674</xdr:rowOff>
@@ -24597,7 +24668,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24634,13 +24705,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>332476</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>26957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>305519</xdr:rowOff>
@@ -24650,7 +24721,7 @@
         <xdr:cNvPr id="5" name="Elipse 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24687,13 +24758,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>122959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
@@ -24703,7 +24774,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24740,7 +24811,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24817,7 +24888,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24903,7 +24974,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24969,7 +25040,7 @@
       <xdr:rowOff>58512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>51956</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1289478</xdr:rowOff>
@@ -24980,7 +25051,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25040,13 +25111,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>335107</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>62593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>134134</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1292434</xdr:rowOff>
@@ -25057,7 +25128,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25117,13 +25188,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>199159</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>70757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>214664</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1300598</xdr:rowOff>
@@ -25134,7 +25205,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25211,7 +25282,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25288,7 +25359,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25369,7 +25440,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA06EEC-3CFB-42E2-870A-3A538915B99C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA06EEC-3CFB-42E2-870A-3A538915B99C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25729,7 +25800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -25746,7 +25817,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="185" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="185"/>
       <c r="C1" s="185"/>
@@ -27368,14 +27439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B3:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27385,7 +27456,7 @@
   <sheetData>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="199" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="199"/>
       <c r="D3" s="199"/>
@@ -27397,13 +27468,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="161" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="161" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="162" t="s">
         <v>5</v>
@@ -27411,7 +27482,7 @@
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="163" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="163">
         <v>0</v>
@@ -27429,7 +27500,7 @@
     </row>
     <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="162" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="162">
         <v>0</v>
@@ -27441,13 +27512,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="164">
-        <f t="shared" ref="F6:F13" si="0">SUM(C6:E6)</f>
+        <f t="shared" ref="F6:F14" si="0">SUM(C6:E6)</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="163" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="162">
         <v>0</v>
@@ -27465,7 +27536,7 @@
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="162" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="162">
         <v>1</v>
@@ -27483,7 +27554,7 @@
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="163" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="163">
         <v>0</v>
@@ -27501,7 +27572,7 @@
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="162" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="162">
         <v>0</v>
@@ -27520,7 +27591,7 @@
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="163" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="163">
         <v>0</v>
@@ -27539,7 +27610,7 @@
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="162" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="162">
         <v>1</v>
@@ -27557,7 +27628,7 @@
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="163" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="163">
         <v>0</v>
@@ -27575,16 +27646,26 @@
     </row>
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="162" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
+        <v>66</v>
+      </c>
+      <c r="C14" s="162">
+        <v>0</v>
+      </c>
+      <c r="D14" s="162">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="162">
+        <v>1</v>
+      </c>
+      <c r="F14" s="164">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="163" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="163"/>
       <c r="D15" s="163"/>
@@ -27593,7 +27674,7 @@
     </row>
     <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="162" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="162"/>
       <c r="D16" s="162"/>
@@ -27602,7 +27683,7 @@
     </row>
     <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="163" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="165"/>
       <c r="D17" s="165"/>
@@ -27619,14 +27700,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27672,7 +27753,7 @@
         <v>1933</v>
       </c>
       <c r="H4" s="200" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -27731,36 +27812,52 @@
       <c r="B9" s="71">
         <v>45474</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="72">
+        <v>1456170.2</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="77"/>
+      <c r="E9" s="77">
+        <v>12555</v>
+      </c>
       <c r="H9" s="200"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B10" s="71">
         <v>45505</v>
       </c>
-      <c r="C10" s="73"/>
+      <c r="C10" s="73">
+        <v>1036832.16</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="76"/>
+      <c r="E10" s="76">
+        <v>16370</v>
+      </c>
       <c r="H10" s="200"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B11" s="71">
         <v>45536</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="72">
+        <v>736330.89</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="77"/>
+      <c r="E11" s="77">
+        <v>14493</v>
+      </c>
       <c r="H11" s="200"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B12" s="71">
         <v>45566</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="73">
+        <v>1372264.76</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="76"/>
+      <c r="E12" s="76">
+        <v>12408</v>
+      </c>
       <c r="H12" s="200"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -27796,14 +27893,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28075,8 +28172,14 @@
       <c r="A12" s="115">
         <v>45566</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
+      <c r="B12" s="116">
+        <f>200+200</f>
+        <v>400</v>
+      </c>
+      <c r="C12" s="116">
+        <f>300+100+300+196.66+2703.333+38.73+469.16+653.08+53.95+66.66+2578+49.56+150+50+210+133.33+0+0+0+263.2+0+50+50+36.66</f>
+        <v>8452.3230000000003</v>
+      </c>
       <c r="D12" s="32"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -28125,11 +28228,11 @@
       </c>
       <c r="B15" s="116">
         <f>SUM(B3:B14)</f>
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C15" s="116">
         <f>SUM(C3:C14)</f>
-        <v>27341.319999999996</v>
+        <v>35793.642999999996</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="34"/>
@@ -28613,7 +28716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -28687,7 +28790,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="130"/>
       <c r="E3" s="128"/>
@@ -29024,13 +29127,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="H1" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29193,11 +29296,11 @@
       </c>
       <c r="B12" s="58">
         <f>'Custo NC '!B12</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C12" s="58">
         <f>'Custo NC '!C12</f>
-        <v>0</v>
+        <v>8452.3230000000003</v>
       </c>
       <c r="N12" s="52"/>
     </row>
@@ -29235,11 +29338,11 @@
       </c>
       <c r="B15" s="58">
         <f>'Custo NC '!B15</f>
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C15" s="58">
         <f>'Custo NC '!C15</f>
-        <v>27341.319999999996</v>
+        <v>35793.642999999996</v>
       </c>
       <c r="N15" s="52"/>
     </row>
@@ -29249,7 +29352,7 @@
       </c>
       <c r="B16" s="61">
         <f>SUM(B15:C15)</f>
-        <v>31341.319999999996</v>
+        <v>40193.642999999996</v>
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="54"/>
@@ -29272,14 +29375,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29613,11 +29716,11 @@
       </c>
       <c r="D10" s="149">
         <f>DADOS!C9</f>
-        <v>0</v>
+        <v>1456170.2</v>
       </c>
       <c r="E10" s="148">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3640.4254999999998</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -29650,11 +29753,11 @@
       </c>
       <c r="D11" s="149">
         <f>DADOS!C10</f>
-        <v>0</v>
+        <v>1036832.16</v>
       </c>
       <c r="E11" s="148">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2592.0804000000003</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -29687,11 +29790,11 @@
       </c>
       <c r="D12" s="149">
         <f>DADOS!C11</f>
-        <v>0</v>
+        <v>736330.89</v>
       </c>
       <c r="E12" s="148">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1840.827225</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -29715,17 +29818,20 @@
       <c r="A13" s="68">
         <v>45566</v>
       </c>
-      <c r="B13" s="101"/>
+      <c r="B13" s="101">
+        <f>300+469.16+653.08+53.95+2578+49.56+263.2+36.66</f>
+        <v>4403.6100000000006</v>
+      </c>
       <c r="C13" s="183">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D13" s="149">
         <f>DADOS!C12</f>
-        <v>0</v>
+        <v>1372264.76</v>
       </c>
       <c r="E13" s="148">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3430.6619000000001</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -29819,7 +29925,7 @@
       </c>
       <c r="B16" s="101">
         <f>SUM(B4:B15)</f>
-        <v>6999.53</v>
+        <v>11403.14</v>
       </c>
       <c r="C16" s="150"/>
       <c r="D16" s="149">
@@ -30781,14 +30887,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Plan6">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31044,11 +31150,11 @@
       </c>
       <c r="D10" s="98">
         <f>DADOS!C9</f>
-        <v>0</v>
+        <v>1456170.2</v>
       </c>
       <c r="E10" s="147">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7280.8509999999997</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="4"/>
@@ -31070,11 +31176,11 @@
       </c>
       <c r="D11" s="99">
         <f>DADOS!C10</f>
-        <v>0</v>
+        <v>1036832.16</v>
       </c>
       <c r="E11" s="147">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5184.1608000000006</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="4"/>
@@ -31096,11 +31202,11 @@
       </c>
       <c r="D12" s="99">
         <f>DADOS!C11</f>
-        <v>0</v>
+        <v>736330.89</v>
       </c>
       <c r="E12" s="147">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3681.65445</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="4"/>
@@ -31113,17 +31219,20 @@
       <c r="A13" s="65">
         <v>45566</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="17">
+        <f>300+100+196.66+2703.33+38.73+66.66+150+50+210+133.33+0+0+0+0+50+50</f>
+        <v>4048.7099999999996</v>
+      </c>
       <c r="C13" s="182">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D13" s="99">
         <f>DADOS!C12</f>
-        <v>0</v>
+        <v>1372264.76</v>
       </c>
       <c r="E13" s="147">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6861.3238000000001</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="4"/>
@@ -31184,7 +31293,7 @@
       </c>
       <c r="B16" s="17">
         <f>SUM(B4:B15)</f>
-        <v>20583.310000000005</v>
+        <v>24632.020000000004</v>
       </c>
       <c r="C16" s="100"/>
       <c r="D16" s="100"/>
@@ -31670,14 +31779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" topLeftCell="G7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31705,7 +31814,7 @@
     <row r="1" spans="1:39" ht="126" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:39" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="197"/>
       <c r="C2" s="197"/>
@@ -31766,7 +31875,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="109" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" s="109" t="s">
         <v>36</v>
@@ -31778,40 +31887,40 @@
         <v>37</v>
       </c>
       <c r="K3" s="109" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="L3" s="109" t="s">
         <v>38</v>
       </c>
       <c r="M3" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="109" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="R3" s="109" t="s">
+      <c r="T3" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="109" t="s">
-        <v>79</v>
-      </c>
       <c r="U3" s="109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V3" s="173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W3" s="174" t="s">
         <v>20</v>
@@ -32409,16 +32518,16 @@
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="W10" s="177" t="e">
+      <c r="W10" s="177">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.4735165272799682E-2</v>
       </c>
       <c r="X10" s="178">
         <v>0.01</v>
       </c>
       <c r="Y10" s="179">
         <f>DADOS!E9</f>
-        <v>0</v>
+        <v>12555</v>
       </c>
       <c r="Z10" s="172"/>
       <c r="AA10" s="51"/>
@@ -32494,16 +32603,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="W11" s="177" t="e">
+      <c r="W11" s="177">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.1991447770311544E-3</v>
       </c>
       <c r="X11" s="178">
         <v>0.01</v>
       </c>
       <c r="Y11" s="179">
         <f>DADOS!E10</f>
-        <v>0</v>
+        <v>16370</v>
       </c>
       <c r="Z11" s="172"/>
       <c r="AA11" s="51"/>
@@ -32579,16 +32688,16 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="W12" s="177" t="e">
+      <c r="W12" s="177">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.3809425239770922E-3</v>
       </c>
       <c r="X12" s="178">
         <v>0.01</v>
       </c>
       <c r="Y12" s="179">
         <f>DADOS!E11</f>
-        <v>0</v>
+        <v>14493</v>
       </c>
       <c r="Z12" s="172"/>
       <c r="AA12" s="51"/>
@@ -32598,40 +32707,92 @@
       <c r="A13" s="110">
         <v>45566</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
+      <c r="B13" s="102">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="102">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="102">
+        <f>1+3</f>
+        <v>4</v>
+      </c>
+      <c r="E13" s="102">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="102">
+        <v>0</v>
+      </c>
+      <c r="G13" s="102">
+        <f>4+6</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="102">
+        <v>0</v>
+      </c>
+      <c r="I13" s="102">
+        <v>0</v>
+      </c>
+      <c r="J13" s="102">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="K13" s="102">
+        <f>1+12</f>
+        <v>13</v>
+      </c>
+      <c r="L13" s="102">
+        <f>3+1</f>
+        <v>4</v>
+      </c>
+      <c r="M13" s="102">
+        <v>0</v>
+      </c>
+      <c r="N13" s="102">
+        <f>12</f>
+        <v>12</v>
+      </c>
+      <c r="O13" s="102">
+        <v>0</v>
+      </c>
+      <c r="P13" s="102">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="102">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="R13" s="102">
+        <f>12+1</f>
+        <v>13</v>
+      </c>
+      <c r="S13" s="102">
+        <v>0</v>
+      </c>
+      <c r="T13" s="102">
+        <f>4+16+288</f>
+        <v>308</v>
+      </c>
+      <c r="U13" s="102">
+        <v>0</v>
+      </c>
       <c r="V13" s="176">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="177" t="e">
+        <v>389</v>
+      </c>
+      <c r="W13" s="177">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.1350741457124437E-2</v>
       </c>
       <c r="X13" s="178">
         <v>0.01</v>
       </c>
       <c r="Y13" s="179">
         <f>DADOS!E12</f>
-        <v>0</v>
+        <v>12408</v>
       </c>
       <c r="Z13" s="172"/>
       <c r="AA13" s="51"/>
@@ -32725,23 +32886,23 @@
     </row>
     <row r="16" spans="1:39" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="85">
-        <f>SUM(B4:B15)</f>
-        <v>73</v>
+        <f t="shared" ref="B16:U16" si="2">SUM(B4:B15)</f>
+        <v>75</v>
       </c>
       <c r="C16" s="85">
-        <f t="shared" ref="C16:U16" si="2">SUM(C4:C15)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="D16" s="85">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E16" s="85">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F16" s="85">
         <f t="shared" si="2"/>
@@ -32749,7 +32910,7 @@
       </c>
       <c r="G16" s="85">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H16" s="85">
         <f t="shared" si="2"/>
@@ -32761,15 +32922,15 @@
       </c>
       <c r="J16" s="85">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K16" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L16" s="85">
         <f t="shared" si="2"/>
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M16" s="85">
         <f t="shared" si="2"/>
@@ -32777,7 +32938,7 @@
       </c>
       <c r="N16" s="85">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="O16" s="85">
         <f t="shared" si="2"/>
@@ -32785,39 +32946,42 @@
       </c>
       <c r="P16" s="85">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="85">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="R16" s="85">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="S16" s="85">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="T16" s="85"/>
+      <c r="T16" s="85">
+        <f t="shared" si="2"/>
+        <v>407</v>
+      </c>
       <c r="U16" s="85">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V16" s="176">
         <f t="shared" ref="V16" si="3">SUM(V4:V15)</f>
-        <v>916</v>
+        <v>1305</v>
       </c>
       <c r="W16" s="180">
         <f>SUM(V16/Y16)</f>
-        <v>2.2580486121382439E-2</v>
+        <v>1.3538467922649183E-2</v>
       </c>
       <c r="X16" s="178">
         <v>0.01</v>
       </c>
       <c r="Y16" s="179">
         <f>SUM(Y4:Y15)</f>
-        <v>40566</v>
+        <v>96392</v>
       </c>
       <c r="Z16" s="172"/>
       <c r="AA16" s="51"/>
@@ -32877,7 +33041,7 @@
       <c r="U18" s="20"/>
       <c r="V18" s="181">
         <f>SUM(V4:V15)/12</f>
-        <v>76.333333333333329</v>
+        <v>108.75</v>
       </c>
       <c r="W18" s="180" t="e">
         <f>SUM(W4:W15)/12</f>
@@ -33204,14 +33368,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" topLeftCell="L2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33225,22 +33389,22 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3" style="80" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" style="80" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="108" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="108" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="197" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="197"/>
       <c r="C2" s="197"/>
@@ -33254,12 +33418,12 @@
       <c r="K2" s="197"/>
       <c r="L2" s="197"/>
       <c r="M2" s="197"/>
-      <c r="N2" s="151"/>
+      <c r="N2" s="197"/>
       <c r="O2" s="151"/>
       <c r="P2" s="151"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="49"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="48"/>
       <c r="T2" s="49"/>
       <c r="U2" s="49"/>
       <c r="V2" s="49"/>
@@ -33278,10 +33442,11 @@
       <c r="AI2" s="49"/>
       <c r="AJ2" s="49"/>
       <c r="AK2" s="49"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="51"/>
-    </row>
-    <row r="3" spans="1:39" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
+    </row>
+    <row r="3" spans="1:40" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="104" t="s">
         <v>4</v>
       </c>
@@ -33292,7 +33457,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="105" t="s">
         <v>14</v>
@@ -33304,37 +33469,40 @@
         <v>16</v>
       </c>
       <c r="H3" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="105" t="s">
+      <c r="K3" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="105" t="s">
+      <c r="L3" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="104" t="s">
+      <c r="N3" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="152" t="s">
+      <c r="O3" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="153" t="s">
+      <c r="P3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="154" t="s">
+      <c r="Q3" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="51"/>
-      <c r="AM3" s="51"/>
-    </row>
-    <row r="4" spans="1:39" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="R3" s="81"/>
+      <c r="S3" s="51"/>
+      <c r="AN3" s="51"/>
+    </row>
+    <row r="4" spans="1:40" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A4" s="106">
         <v>45292</v>
       </c>
@@ -33373,25 +33541,28 @@
         <v>0</v>
       </c>
       <c r="M4" s="107">
-        <f>SUM(B4:L4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="107">
+        <f>SUM(B4:M4)</f>
         <v>39</v>
       </c>
-      <c r="N4" s="155">
-        <f>M4/P4</f>
+      <c r="O4" s="155">
+        <f>N4/Q4</f>
         <v>5.9171597633136093E-3</v>
       </c>
-      <c r="O4" s="156">
+      <c r="P4" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P4" s="157">
+      <c r="Q4" s="157">
         <f>DADOS!E3</f>
         <v>6591</v>
       </c>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="51"/>
-      <c r="AM4" s="51"/>
-    </row>
-    <row r="5" spans="1:39" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="R4" s="82"/>
+      <c r="S4" s="51"/>
+      <c r="AN4" s="51"/>
+    </row>
+    <row r="5" spans="1:40" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A5" s="106">
         <v>45323</v>
       </c>
@@ -33428,26 +33599,29 @@
       <c r="L5" s="103">
         <v>0</v>
       </c>
-      <c r="M5" s="107">
-        <f t="shared" ref="M5:M15" si="0">SUM(B5:L5)</f>
+      <c r="M5" s="103">
+        <v>0</v>
+      </c>
+      <c r="N5" s="107">
+        <f t="shared" ref="N5:N15" si="0">SUM(B5:M5)</f>
         <v>5</v>
       </c>
-      <c r="N5" s="155">
-        <f t="shared" ref="N5:N9" si="1">M5/P5</f>
+      <c r="O5" s="155">
+        <f t="shared" ref="O5:O9" si="1">N5/Q5</f>
         <v>2.5866528711846869E-3</v>
       </c>
-      <c r="O5" s="156">
+      <c r="P5" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P5" s="157">
+      <c r="Q5" s="157">
         <f>DADOS!E4</f>
         <v>1933</v>
       </c>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="51"/>
-      <c r="AM5" s="51"/>
-    </row>
-    <row r="6" spans="1:39" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="R5" s="82"/>
+      <c r="S5" s="51"/>
+      <c r="AN5" s="51"/>
+    </row>
+    <row r="6" spans="1:40" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" s="106">
         <v>45352</v>
       </c>
@@ -33484,26 +33658,29 @@
       <c r="L6" s="103">
         <v>0</v>
       </c>
-      <c r="M6" s="107">
+      <c r="M6" s="103">
+        <v>0</v>
+      </c>
+      <c r="N6" s="107">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N6" s="155">
-        <f>M6/P6</f>
+      <c r="O6" s="155">
+        <f>N6/Q6</f>
         <v>1.5160703456640388E-4</v>
       </c>
-      <c r="O6" s="156">
+      <c r="P6" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P6" s="157">
+      <c r="Q6" s="157">
         <f>DADOS!E5</f>
         <v>6596</v>
       </c>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="51"/>
-      <c r="AM6" s="51"/>
-    </row>
-    <row r="7" spans="1:39" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="R6" s="82"/>
+      <c r="S6" s="51"/>
+      <c r="AN6" s="51"/>
+    </row>
+    <row r="7" spans="1:40" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A7" s="106">
         <v>45383</v>
       </c>
@@ -33541,26 +33718,29 @@
       <c r="L7" s="103">
         <v>0</v>
       </c>
-      <c r="M7" s="107">
+      <c r="M7" s="103">
+        <v>0</v>
+      </c>
+      <c r="N7" s="107">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="N7" s="155">
+      <c r="O7" s="155">
         <f t="shared" si="1"/>
         <v>6.3883185033082367E-3</v>
       </c>
-      <c r="O7" s="156">
+      <c r="P7" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P7" s="157">
+      <c r="Q7" s="157">
         <f>DADOS!E6</f>
         <v>4383</v>
       </c>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="51"/>
-      <c r="AM7" s="51"/>
-    </row>
-    <row r="8" spans="1:39" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="R7" s="82"/>
+      <c r="S7" s="51"/>
+      <c r="AN7" s="51"/>
+    </row>
+    <row r="8" spans="1:40" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A8" s="106">
         <v>45413</v>
       </c>
@@ -33599,25 +33779,28 @@
         <v>0</v>
       </c>
       <c r="M8" s="107">
+        <v>0</v>
+      </c>
+      <c r="N8" s="107">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N8" s="155">
+      <c r="O8" s="155">
         <f t="shared" si="1"/>
         <v>5.3978192810104722E-4</v>
       </c>
-      <c r="O8" s="156">
+      <c r="P8" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P8" s="157">
+      <c r="Q8" s="157">
         <f>DADOS!E7</f>
         <v>9263</v>
       </c>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="51"/>
-      <c r="AM8" s="51"/>
-    </row>
-    <row r="9" spans="1:39" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="R8" s="82"/>
+      <c r="S8" s="51"/>
+      <c r="AN8" s="51"/>
+    </row>
+    <row r="9" spans="1:40" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A9" s="106">
         <v>45444</v>
       </c>
@@ -33655,26 +33838,29 @@
       <c r="L9" s="103">
         <v>0</v>
       </c>
-      <c r="M9" s="107">
+      <c r="M9" s="103">
+        <v>0</v>
+      </c>
+      <c r="N9" s="107">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="N9" s="155">
+      <c r="O9" s="155">
         <f t="shared" si="1"/>
         <v>1.271186440677966E-3</v>
       </c>
-      <c r="O9" s="156">
+      <c r="P9" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P9" s="157">
+      <c r="Q9" s="157">
         <f>DADOS!E8</f>
         <v>11800</v>
       </c>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="51"/>
-      <c r="AM9" s="51"/>
-    </row>
-    <row r="10" spans="1:39" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="R9" s="82"/>
+      <c r="S9" s="51"/>
+      <c r="AN9" s="51"/>
+    </row>
+    <row r="10" spans="1:40" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A10" s="106">
         <v>45474</v>
       </c>
@@ -33713,25 +33899,28 @@
         <v>0</v>
       </c>
       <c r="M10" s="107">
+        <v>0</v>
+      </c>
+      <c r="N10" s="107">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N10" s="155" t="e">
-        <f>M10/P10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="156">
+      <c r="O10" s="155">
+        <f>N10/Q10</f>
+        <v>1.0354440461967343E-3</v>
+      </c>
+      <c r="P10" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P10" s="157">
+      <c r="Q10" s="157">
         <f>DADOS!E9</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="51"/>
-      <c r="AM10" s="51"/>
-    </row>
-    <row r="11" spans="1:39" ht="18.75" x14ac:dyDescent="0.4">
+        <v>12555</v>
+      </c>
+      <c r="R10" s="82"/>
+      <c r="S10" s="51"/>
+      <c r="AN10" s="51"/>
+    </row>
+    <row r="11" spans="1:40" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A11" s="106">
         <v>45505</v>
       </c>
@@ -33770,26 +33959,29 @@
       <c r="L11" s="103">
         <v>0</v>
       </c>
-      <c r="M11" s="107">
+      <c r="M11" s="103">
+        <v>0</v>
+      </c>
+      <c r="N11" s="107">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="N11" s="155" t="e">
-        <f t="shared" ref="N11:N15" si="2">M11/P11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" s="156">
+      <c r="O11" s="155">
+        <f t="shared" ref="O11:O15" si="2">N11/Q11</f>
+        <v>8.5522296884544895E-4</v>
+      </c>
+      <c r="P11" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P11" s="157">
+      <c r="Q11" s="157">
         <f>DADOS!E10</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="51"/>
-      <c r="AM11" s="51"/>
-    </row>
-    <row r="12" spans="1:39" ht="18.75" x14ac:dyDescent="0.4">
+        <v>16370</v>
+      </c>
+      <c r="R11" s="82"/>
+      <c r="S11" s="51"/>
+      <c r="AN11" s="51"/>
+    </row>
+    <row r="12" spans="1:40" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A12" s="106">
         <v>45536</v>
       </c>
@@ -33827,59 +34019,88 @@
         <v>0</v>
       </c>
       <c r="M12" s="107">
+        <v>0</v>
+      </c>
+      <c r="N12" s="107">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="N12" s="155" t="e">
+      <c r="O12" s="155">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="156">
+        <v>8.2798592423928791E-4</v>
+      </c>
+      <c r="P12" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P12" s="157">
+      <c r="Q12" s="157">
         <f>DADOS!E11</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="51"/>
-      <c r="AM12" s="51"/>
-    </row>
-    <row r="13" spans="1:39" ht="18.75" x14ac:dyDescent="0.4">
+        <v>14493</v>
+      </c>
+      <c r="R12" s="82"/>
+      <c r="S12" s="51"/>
+      <c r="AN12" s="51"/>
+    </row>
+    <row r="13" spans="1:40" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A13" s="106">
         <v>45566</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="107">
+      <c r="B13" s="103">
+        <v>0</v>
+      </c>
+      <c r="C13" s="103">
+        <f>3+3</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="103">
+        <v>0</v>
+      </c>
+      <c r="E13" s="103">
+        <v>0</v>
+      </c>
+      <c r="F13" s="103">
+        <v>0</v>
+      </c>
+      <c r="G13" s="103">
+        <v>0</v>
+      </c>
+      <c r="H13" s="103">
+        <v>0</v>
+      </c>
+      <c r="I13" s="103">
+        <v>0</v>
+      </c>
+      <c r="J13" s="103">
+        <v>0</v>
+      </c>
+      <c r="K13" s="103">
+        <v>0</v>
+      </c>
+      <c r="L13" s="103">
+        <v>460</v>
+      </c>
+      <c r="M13" s="103">
+        <v>0</v>
+      </c>
+      <c r="N13" s="107">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="155" t="e">
+        <v>466</v>
+      </c>
+      <c r="O13" s="155">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="156">
+        <v>3.7556415215989687E-2</v>
+      </c>
+      <c r="P13" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P13" s="157">
+      <c r="Q13" s="157">
         <f>DADOS!E12</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="51"/>
-      <c r="AM13" s="51"/>
-    </row>
-    <row r="14" spans="1:39" ht="18.75" x14ac:dyDescent="0.4">
+        <v>12408</v>
+      </c>
+      <c r="R13" s="82"/>
+      <c r="S13" s="51"/>
+      <c r="AN13" s="51"/>
+    </row>
+    <row r="14" spans="1:40" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A14" s="106">
         <v>45597</v>
       </c>
@@ -33894,26 +34115,27 @@
       <c r="J14" s="107"/>
       <c r="K14" s="107"/>
       <c r="L14" s="107"/>
-      <c r="M14" s="107">
+      <c r="M14" s="107"/>
+      <c r="N14" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" s="155" t="e">
+      <c r="O14" s="155" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O14" s="156">
+      <c r="P14" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P14" s="157">
+      <c r="Q14" s="157">
         <f>DADOS!E13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="51"/>
-      <c r="AM14" s="51"/>
-    </row>
-    <row r="15" spans="1:39" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="R14" s="82"/>
+      <c r="S14" s="51"/>
+      <c r="AN14" s="51"/>
+    </row>
+    <row r="15" spans="1:40" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A15" s="106">
         <v>45627</v>
       </c>
@@ -33928,36 +34150,37 @@
       <c r="J15" s="103"/>
       <c r="K15" s="103"/>
       <c r="L15" s="103"/>
-      <c r="M15" s="107">
+      <c r="M15" s="103"/>
+      <c r="N15" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" s="155" t="e">
+      <c r="O15" s="155" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O15" s="156">
+      <c r="P15" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P15" s="157">
+      <c r="Q15" s="157">
         <f>DADOS!E14</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="51"/>
-      <c r="AM15" s="51"/>
-    </row>
-    <row r="16" spans="1:39" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="R15" s="82"/>
+      <c r="S15" s="51"/>
+      <c r="AN15" s="51"/>
+    </row>
+    <row r="16" spans="1:40" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A16" s="146" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="83">
-        <f t="shared" ref="B16:M16" si="3">SUM(B4:B15)</f>
+        <f t="shared" ref="B16:N16" si="3">SUM(B4:B15)</f>
         <v>0</v>
       </c>
       <c r="C16" s="83">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D16" s="83">
         <f t="shared" si="3"/>
@@ -33991,30 +34214,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L16" s="83">
+      <c r="L16" s="83"/>
+      <c r="M16" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M16" s="83">
+      <c r="N16" s="83">
         <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="N16" s="158">
-        <f>SUM(M16/P16)</f>
-        <v>3.2539565153083864E-3</v>
-      </c>
-      <c r="O16" s="156">
+        <v>598</v>
+      </c>
+      <c r="O16" s="158">
+        <f>SUM(N16/Q16)</f>
+        <v>6.203834343099012E-3</v>
+      </c>
+      <c r="P16" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P16" s="157">
-        <f>SUM(P4:P15)</f>
-        <v>40566</v>
-      </c>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="32"/>
-      <c r="AM16" s="32"/>
-    </row>
-    <row r="17" spans="1:39" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="Q16" s="157">
+        <f>SUM(Q4:Q15)</f>
+        <v>96392</v>
+      </c>
+      <c r="R16" s="82"/>
+      <c r="S16" s="32"/>
+      <c r="AN16" s="32"/>
+    </row>
+    <row r="17" spans="1:40" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A17" s="140"/>
       <c r="B17" s="141"/>
       <c r="C17" s="141"/>
@@ -34026,16 +34250,17 @@
       <c r="I17" s="141"/>
       <c r="J17" s="141"/>
       <c r="K17" s="141"/>
-      <c r="L17" s="86"/>
+      <c r="L17" s="141"/>
       <c r="M17" s="86"/>
-      <c r="N17" s="159"/>
+      <c r="N17" s="86"/>
       <c r="O17" s="159"/>
       <c r="P17" s="159"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="32"/>
-      <c r="AM17" s="32"/>
-    </row>
-    <row r="18" spans="1:39" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="Q17" s="159"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="32"/>
+      <c r="AN17" s="32"/>
+    </row>
+    <row r="18" spans="1:40" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A18" s="142"/>
       <c r="B18" s="141"/>
       <c r="C18" s="141"/>
@@ -34047,24 +34272,25 @@
       <c r="I18" s="141"/>
       <c r="J18" s="141"/>
       <c r="K18" s="141"/>
-      <c r="L18" s="86" t="s">
+      <c r="L18" s="141"/>
+      <c r="M18" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="87">
-        <f>SUM(M4:M15)/12</f>
-        <v>11</v>
-      </c>
-      <c r="N18" s="160" t="e">
+      <c r="N18" s="87">
         <f>SUM(N4:N15)/12</f>
+        <v>49.833333333333336</v>
+      </c>
+      <c r="O18" s="160" t="e">
+        <f>SUM(O4:O15)/12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O18" s="159"/>
       <c r="P18" s="159"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="32"/>
-      <c r="AM18" s="32"/>
-    </row>
-    <row r="19" spans="1:39" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="Q18" s="159"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="32"/>
+      <c r="AN18" s="32"/>
+    </row>
+    <row r="19" spans="1:40" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -34076,16 +34302,17 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="144"/>
+      <c r="L19" s="18"/>
       <c r="M19" s="144"/>
       <c r="N19" s="144"/>
       <c r="O19" s="144"/>
       <c r="P19" s="144"/>
-      <c r="Q19" s="145"/>
-      <c r="R19" s="51"/>
-      <c r="AM19" s="51"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="Q19" s="144"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="51"/>
+      <c r="AN19" s="51"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -34102,85 +34329,85 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="R20" s="51"/>
-      <c r="AM20" s="51"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="R21" s="51"/>
-      <c r="AM21" s="51"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="R22" s="51"/>
-      <c r="AM22" s="51"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="R23" s="51"/>
-      <c r="S23" s="4"/>
-      <c r="AM23" s="51"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="R24" s="51"/>
-      <c r="AM24" s="51"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="R25" s="51"/>
-      <c r="AM25" s="51"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="R26" s="51"/>
-      <c r="AM26" s="51"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="R27" s="51"/>
-      <c r="AM27" s="51"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="R28" s="51"/>
-      <c r="AM28" s="51"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="R29" s="51"/>
-      <c r="AM29" s="51"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="R30" s="51"/>
-      <c r="AM30" s="51"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="R31" s="51"/>
-      <c r="AM31" s="51"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="R32" s="51"/>
-      <c r="AM32" s="51"/>
-    </row>
-    <row r="33" spans="18:39" x14ac:dyDescent="0.2">
-      <c r="R33" s="51"/>
-      <c r="AM33" s="51"/>
-    </row>
-    <row r="34" spans="18:39" x14ac:dyDescent="0.2">
-      <c r="R34" s="51"/>
-      <c r="AM34" s="51"/>
-    </row>
-    <row r="35" spans="18:39" x14ac:dyDescent="0.2">
-      <c r="R35" s="51"/>
-      <c r="AM35" s="51"/>
-    </row>
-    <row r="36" spans="18:39" x14ac:dyDescent="0.2">
-      <c r="R36" s="51"/>
-      <c r="AM36" s="51"/>
-    </row>
-    <row r="37" spans="18:39" x14ac:dyDescent="0.2">
-      <c r="R37" s="51"/>
-      <c r="AM37" s="51"/>
-    </row>
-    <row r="38" spans="18:39" x14ac:dyDescent="0.2">
-      <c r="R38" s="51"/>
-      <c r="AM38" s="51"/>
-    </row>
-    <row r="39" spans="18:39" x14ac:dyDescent="0.2">
-      <c r="R39" s="53"/>
-      <c r="S39" s="54"/>
+      <c r="Q20" s="4"/>
+      <c r="S20" s="51"/>
+      <c r="AN20" s="51"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="S21" s="51"/>
+      <c r="AN21" s="51"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="S22" s="51"/>
+      <c r="AN22" s="51"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="S23" s="51"/>
+      <c r="T23" s="4"/>
+      <c r="AN23" s="51"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="S24" s="51"/>
+      <c r="AN24" s="51"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="S25" s="51"/>
+      <c r="AN25" s="51"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="S26" s="51"/>
+      <c r="AN26" s="51"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="S27" s="51"/>
+      <c r="AN27" s="51"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="S28" s="51"/>
+      <c r="AN28" s="51"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="S29" s="51"/>
+      <c r="AN29" s="51"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="S30" s="51"/>
+      <c r="AN30" s="51"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="S31" s="51"/>
+      <c r="AN31" s="51"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="S32" s="51"/>
+      <c r="AN32" s="51"/>
+    </row>
+    <row r="33" spans="19:40" x14ac:dyDescent="0.2">
+      <c r="S33" s="51"/>
+      <c r="AN33" s="51"/>
+    </row>
+    <row r="34" spans="19:40" x14ac:dyDescent="0.2">
+      <c r="S34" s="51"/>
+      <c r="AN34" s="51"/>
+    </row>
+    <row r="35" spans="19:40" x14ac:dyDescent="0.2">
+      <c r="S35" s="51"/>
+      <c r="AN35" s="51"/>
+    </row>
+    <row r="36" spans="19:40" x14ac:dyDescent="0.2">
+      <c r="S36" s="51"/>
+      <c r="AN36" s="51"/>
+    </row>
+    <row r="37" spans="19:40" x14ac:dyDescent="0.2">
+      <c r="S37" s="51"/>
+      <c r="AN37" s="51"/>
+    </row>
+    <row r="38" spans="19:40" x14ac:dyDescent="0.2">
+      <c r="S38" s="51"/>
+      <c r="AN38" s="51"/>
+    </row>
+    <row r="39" spans="19:40" x14ac:dyDescent="0.2">
+      <c r="S39" s="53"/>
       <c r="T39" s="54"/>
       <c r="U39" s="54"/>
       <c r="V39" s="54"/>
@@ -34200,11 +34427,12 @@
       <c r="AJ39" s="54"/>
       <c r="AK39" s="54"/>
       <c r="AL39" s="54"/>
-      <c r="AM39" s="51"/>
+      <c r="AM39" s="54"/>
+      <c r="AN39" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -34213,14 +34441,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B3:G17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34230,7 +34458,7 @@
   <sheetData>
     <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="198" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="198"/>
       <c r="D3" s="198"/>
@@ -34243,16 +34471,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="166" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="166" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="167" t="s">
         <v>5</v>
@@ -34260,7 +34488,7 @@
     </row>
     <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="168" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="168">
         <v>1</v>
@@ -34275,13 +34503,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="169">
-        <f t="shared" ref="G5:G12" si="0">SUM(C5:F5)</f>
+        <f t="shared" ref="G5:G14" si="0">SUM(C5:F5)</f>
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="167" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="167">
         <v>6</v>
@@ -34302,7 +34530,7 @@
     </row>
     <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="168" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="168">
         <f>4</f>
@@ -34324,7 +34552,7 @@
     </row>
     <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="167">
         <f>1</f>
@@ -34347,7 +34575,7 @@
     </row>
     <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="168" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="168">
         <f>1+1+1+1+1+1</f>
@@ -34369,7 +34597,7 @@
     </row>
     <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="167" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="167">
         <f>1+1</f>
@@ -34392,7 +34620,7 @@
     </row>
     <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="168" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="168">
         <f>1+1+1+1+1</f>
@@ -34415,7 +34643,7 @@
     </row>
     <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="167" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="167">
         <f>1+1+1+1</f>
@@ -34437,7 +34665,7 @@
     </row>
     <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="168" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="168">
         <f>1+1</f>
@@ -34453,21 +34681,37 @@
       <c r="F13" s="168">
         <v>0</v>
       </c>
-      <c r="G13" s="169"/>
+      <c r="G13" s="167">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="167" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
+        <v>66</v>
+      </c>
+      <c r="C14" s="167">
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="167">
+        <f>16</f>
+        <v>16</v>
+      </c>
+      <c r="E14" s="167">
+        <v>0</v>
+      </c>
+      <c r="F14" s="167">
+        <v>0</v>
+      </c>
+      <c r="G14" s="167">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="168"/>
       <c r="D15" s="168"/>
@@ -34477,7 +34721,7 @@
     </row>
     <row r="16" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="167" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="167"/>
       <c r="D16" s="167"/>
@@ -34487,7 +34731,7 @@
     </row>
     <row r="17" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="168" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="170"/>
       <c r="D17" s="170"/>

--- a/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
+++ b/Indicadores da Qualidade 2024 - QUALIDADE FQ 6.2-001-01 - ELOHIM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\INDICADORES\QUALIDADE\ELOHIM\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839DADC0-84CA-4C53-B797-1FEA65977BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267822E9-4CB4-4F5C-A442-F1232203769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="915" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="915" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU PRINCIPAL" sheetId="36" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
   <si>
     <t>Total</t>
   </si>
@@ -246,9 +246,6 @@
     <t>WEG SÃO BERNARDO</t>
   </si>
   <si>
-    <t>Essa informação voce precisa que a Carol passe. É só inser mesmo vou deixa esse modelo aqui</t>
-  </si>
-  <si>
     <t>Nº DE NC'S EXTERNAS POR CLIENTE</t>
   </si>
   <si>
@@ -332,6 +329,9 @@
   <si>
     <t>GILHOTINA</t>
   </si>
+  <si>
+    <t>HVEX</t>
+  </si>
 </sst>
 </file>
 
@@ -348,7 +348,7 @@
     <numFmt numFmtId="170" formatCode="0.000%"/>
     <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -549,11 +549,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -809,7 +804,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1233,6 +1228,18 @@
     <xf numFmtId="168" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,24 +1251,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1342,15 +1331,14 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1666,8 +1654,14 @@
                 <c:pt idx="9">
                   <c:v>400</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>4400</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,7 +1829,7 @@
                   <c:v>1920.0100000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1473.72</c:v>
+                  <c:v>1833.7199999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6333.52</c:v>
@@ -1850,10 +1844,16 @@
                   <c:v>1717.5300000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8452.3230000000003</c:v>
+                  <c:v>11504.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4433.1899999999987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6116.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35793.642999999996</c:v>
+                  <c:v>49755.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,11 +1875,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-411329312"/>
-        <c:axId val="-411328224"/>
+        <c:axId val="1493374464"/>
+        <c:axId val="1493361952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-411329312"/>
+        <c:axId val="1493374464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,7 +1933,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-411328224"/>
+        <c:crossAx val="1493361952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1941,7 +1941,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-411328224"/>
+        <c:axId val="1493361952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,7 +1951,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-411329312"/>
+        <c:crossAx val="1493374464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3787,19 +3787,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3844,7 +3844,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>389</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3958,8 +3958,68 @@
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48</c:v>
+                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4071,8 +4131,68 @@
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4093,11 +4213,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-53690512"/>
-        <c:axId val="-53695952"/>
+        <c:axId val="1638303152"/>
+        <c:axId val="1638310768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-53690512"/>
+        <c:axId val="1638303152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4137,7 +4257,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53695952"/>
+        <c:crossAx val="1638310768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4145,7 +4265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53695952"/>
+        <c:axId val="1638310768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4193,7 +4313,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53690512"/>
+        <c:crossAx val="1638303152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4520,37 +4640,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>361</c:v>
+                  <c:v>754</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4565,10 +4685,10 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>22</c:v>
@@ -4577,7 +4697,7 @@
                   <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4597,11 +4717,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-53689968"/>
-        <c:axId val="-53121168"/>
+        <c:axId val="1638309680"/>
+        <c:axId val="1638311312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-53689968"/>
+        <c:axId val="1638309680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4698,7 +4818,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53121168"/>
+        <c:crossAx val="1638311312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4706,7 +4826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53121168"/>
+        <c:axId val="1638311312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4820,7 +4940,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53689968"/>
+        <c:crossAx val="1638309680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5119,16 +5239,16 @@
                   <c:v>3.3809425239770922E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1350741457124437E-2</c:v>
+                  <c:v>3.3043197936814955E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4.2428571428571427E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4.1476234003656305E-2</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000%">
-                  <c:v>1.3538467922649183E-2</c:v>
+                  <c:v>1.9161686698448935E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5148,8 +5268,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-53115728"/>
-        <c:axId val="-53118992"/>
+        <c:axId val="1638312400"/>
+        <c:axId val="1638299888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5346,11 +5466,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-53115728"/>
-        <c:axId val="-53118992"/>
+        <c:axId val="1638312400"/>
+        <c:axId val="1638299888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-53115728"/>
+        <c:axId val="1638312400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5390,7 +5510,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53118992"/>
+        <c:crossAx val="1638299888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5398,7 +5518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53118992"/>
+        <c:axId val="1638299888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5446,7 +5566,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53115728"/>
+        <c:crossAx val="1638312400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5796,13 +5916,13 @@
                   <c:v>3.7556415215989687E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.1428571428571426E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4.033363802559415E-2</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.000%">
-                  <c:v>6.203834343099012E-3</c:v>
+                  <c:v>8.703753441213994E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5822,8 +5942,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-53122800"/>
-        <c:axId val="-53118448"/>
+        <c:axId val="1638303696"/>
+        <c:axId val="1638304240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5972,11 +6092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-53122800"/>
-        <c:axId val="-53118448"/>
+        <c:axId val="1638303696"/>
+        <c:axId val="1638304240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-53122800"/>
+        <c:axId val="1638303696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6017,7 +6137,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53118448"/>
+        <c:crossAx val="1638304240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6025,7 +6145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53118448"/>
+        <c:axId val="1638304240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6065,7 +6185,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53122800"/>
+        <c:crossAx val="1638303696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6367,7 +6487,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6376,7 +6496,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -6397,7 +6517,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>598</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6418,11 +6538,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-53120624"/>
-        <c:axId val="-53113008"/>
+        <c:axId val="1639056816"/>
+        <c:axId val="1639063344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-53120624"/>
+        <c:axId val="1639056816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6462,7 +6582,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53113008"/>
+        <c:crossAx val="1639063344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6470,7 +6590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53113008"/>
+        <c:axId val="1639063344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6518,7 +6638,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53120624"/>
+        <c:crossAx val="1639056816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6849,7 +6969,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'NC - INTERNAS'!$G$5:$G$17</c:f>
+              <c:f>'NC - INTERNAS'!$I$5:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6882,6 +7002,15 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6903,11 +7032,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-53119536"/>
-        <c:axId val="-53114640"/>
+        <c:axId val="1639063888"/>
+        <c:axId val="1639057360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-53119536"/>
+        <c:axId val="1639063888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6950,7 +7079,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53114640"/>
+        <c:crossAx val="1639057360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6958,7 +7087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53114640"/>
+        <c:axId val="1639057360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7009,7 +7138,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53119536"/>
+        <c:crossAx val="1639063888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7364,7 +7493,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7386,11 +7524,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-53113552"/>
-        <c:axId val="-53110288"/>
+        <c:axId val="1639064976"/>
+        <c:axId val="1639057904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-53113552"/>
+        <c:axId val="1639064976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7433,7 +7571,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53110288"/>
+        <c:crossAx val="1639057904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7441,7 +7579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53110288"/>
+        <c:axId val="1639057904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7492,7 +7630,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53113552"/>
+        <c:crossAx val="1639064976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7737,7 +7875,7 @@
                   <c:v>1920.0100000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1473.72</c:v>
+                  <c:v>1833.7199999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6333.52</c:v>
@@ -7752,7 +7890,13 @@
                   <c:v>1717.5300000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8452.3230000000003</c:v>
+                  <c:v>11504.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4433.1899999999987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6116.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7773,11 +7917,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-189269472"/>
-        <c:axId val="-189270560"/>
+        <c:axId val="1493372288"/>
+        <c:axId val="1493363040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-189269472"/>
+        <c:axId val="1493372288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7816,14 +7960,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-189270560"/>
+        <c:crossAx val="1493363040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-189270560"/>
+        <c:axId val="1493363040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7871,7 +8015,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-189269472"/>
+        <c:crossAx val="1493372288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7992,7 +8136,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8165,6 +8309,12 @@
                 <c:pt idx="9">
                   <c:v>400</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8200,11 +8350,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-189276544"/>
-        <c:axId val="-189275456"/>
+        <c:axId val="1493371200"/>
+        <c:axId val="1493364672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-189276544"/>
+        <c:axId val="1493371200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8244,14 +8394,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-189275456"/>
+        <c:crossAx val="1493364672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-189275456"/>
+        <c:axId val="1493364672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8285,7 +8435,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-189276544"/>
+        <c:crossAx val="1493371200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8610,11 +8760,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-411984464"/>
-        <c:axId val="-53689424"/>
+        <c:axId val="1493370112"/>
+        <c:axId val="1493365216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-411984464"/>
+        <c:axId val="1493370112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8655,7 +8805,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53689424"/>
+        <c:crossAx val="1493365216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8663,7 +8813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53689424"/>
+        <c:axId val="1493365216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8703,7 +8853,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-411984464"/>
+        <c:crossAx val="1493370112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8942,7 +9092,7 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40193.642999999996</c:v>
+                  <c:v>55355.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8963,11 +9113,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-53687792"/>
-        <c:axId val="-53688880"/>
+        <c:axId val="1493366304"/>
+        <c:axId val="1493366848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-53687792"/>
+        <c:axId val="1493366304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9008,7 +9158,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53688880"/>
+        <c:crossAx val="1493366848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9016,7 +9166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53688880"/>
+        <c:axId val="1493366848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9056,7 +9206,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53687792"/>
+        <c:crossAx val="1493366304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9397,8 +9547,14 @@
                 <c:pt idx="9">
                   <c:v>4403.6100000000006</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1848.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.78</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>11403.14</c:v>
+                  <c:v>13344.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9418,8 +9574,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-53686160"/>
-        <c:axId val="-53687248"/>
+        <c:axId val="1493368480"/>
+        <c:axId val="1493369568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9596,10 +9752,10 @@
                   <c:v>3430.6619000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3696.3012750000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2480.3977749999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9621,11 +9777,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-53686160"/>
-        <c:axId val="-53687248"/>
+        <c:axId val="1493368480"/>
+        <c:axId val="1493369568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-53686160"/>
+        <c:axId val="1493368480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9667,7 +9823,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53687248"/>
+        <c:crossAx val="1493369568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9675,7 +9831,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53687248"/>
+        <c:axId val="1493369568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9716,7 +9872,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53686160"/>
+        <c:crossAx val="1493368480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10065,8 +10221,14 @@
                 <c:pt idx="9">
                   <c:v>4403.6100000000006</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1848.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.78</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>11403.14</c:v>
+                  <c:v>13344.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10088,11 +10250,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-53685616"/>
-        <c:axId val="-53692688"/>
+        <c:axId val="1638306416"/>
+        <c:axId val="1638301520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-53685616"/>
+        <c:axId val="1638306416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10140,7 +10302,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53692688"/>
+        <c:crossAx val="1638301520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10148,7 +10310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53692688"/>
+        <c:axId val="1638301520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10158,7 +10320,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-53685616"/>
+        <c:crossAx val="1638306416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10445,10 +10607,16 @@
                   <c:v>1396.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4048.7099999999996</c:v>
+                  <c:v>7100.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2584.9699999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6023.33</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24632.020000000004</c:v>
+                  <c:v>36292.44000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10468,8 +10636,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-53698672"/>
-        <c:axId val="-53691600"/>
+        <c:axId val="1638300976"/>
+        <c:axId val="1638307504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10611,10 +10779,10 @@
                   <c:v>6861.3238000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7392.6025500000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4960.7955499999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10636,11 +10804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-53698672"/>
-        <c:axId val="-53691600"/>
+        <c:axId val="1638300976"/>
+        <c:axId val="1638307504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-53698672"/>
+        <c:axId val="1638300976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10681,7 +10849,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53691600"/>
+        <c:crossAx val="1638307504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10689,7 +10857,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53691600"/>
+        <c:axId val="1638307504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10729,7 +10897,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53698672"/>
+        <c:crossAx val="1638300976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10864,7 +11032,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11041,10 +11209,16 @@
                   <c:v>1396.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4048.7099999999996</c:v>
+                  <c:v>7100.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2584.9699999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6023.33</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24632.020000000004</c:v>
+                  <c:v>36292.44000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11066,11 +11240,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-53693776"/>
-        <c:axId val="-53697040"/>
+        <c:axId val="1638305328"/>
+        <c:axId val="1638298256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-53693776"/>
+        <c:axId val="1638305328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11118,7 +11292,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53697040"/>
+        <c:crossAx val="1638298256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11126,7 +11300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53697040"/>
+        <c:axId val="1638298256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11136,7 +11310,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-53693776"/>
+        <c:crossAx val="1638305328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25424,13 +25598,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>476248</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>552449</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
@@ -25816,1618 +25990,1618 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="185"/>
-      <c r="T1" s="185"/>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
     </row>
     <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="185"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="185"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="185"/>
-      <c r="X2" s="185"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
     </row>
     <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="185"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="185"/>
-      <c r="U3" s="185"/>
-      <c r="V3" s="185"/>
-      <c r="W3" s="185"/>
-      <c r="X3" s="185"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
     </row>
     <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="185"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="185"/>
-      <c r="S4" s="185"/>
-      <c r="T4" s="185"/>
-      <c r="U4" s="185"/>
-      <c r="V4" s="185"/>
-      <c r="W4" s="185"/>
-      <c r="X4" s="185"/>
+      <c r="A4" s="183"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="183"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="183"/>
     </row>
     <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="185"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="185"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="185"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="185"/>
-      <c r="S5" s="185"/>
-      <c r="T5" s="185"/>
-      <c r="U5" s="185"/>
-      <c r="V5" s="185"/>
-      <c r="W5" s="185"/>
-      <c r="X5" s="185"/>
+      <c r="A5" s="183"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="183"/>
+      <c r="R5" s="183"/>
+      <c r="S5" s="183"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="183"/>
+      <c r="V5" s="183"/>
+      <c r="W5" s="183"/>
+      <c r="X5" s="183"/>
     </row>
     <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="185"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="185"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="185"/>
-      <c r="O6" s="185"/>
-      <c r="P6" s="185"/>
-      <c r="Q6" s="185"/>
-      <c r="R6" s="185"/>
-      <c r="S6" s="185"/>
-      <c r="T6" s="185"/>
-      <c r="U6" s="185"/>
-      <c r="V6" s="185"/>
-      <c r="W6" s="185"/>
-      <c r="X6" s="185"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="183"/>
+      <c r="T6" s="183"/>
+      <c r="U6" s="183"/>
+      <c r="V6" s="183"/>
+      <c r="W6" s="183"/>
+      <c r="X6" s="183"/>
     </row>
     <row r="7" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="185"/>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="185"/>
-      <c r="R7" s="185"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="185"/>
-      <c r="U7" s="185"/>
-      <c r="V7" s="185"/>
-      <c r="W7" s="185"/>
-      <c r="X7" s="185"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="183"/>
+      <c r="S7" s="183"/>
+      <c r="T7" s="183"/>
+      <c r="U7" s="183"/>
+      <c r="V7" s="183"/>
+      <c r="W7" s="183"/>
+      <c r="X7" s="183"/>
     </row>
     <row r="8" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="185"/>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="185"/>
-      <c r="S8" s="185"/>
-      <c r="T8" s="185"/>
-      <c r="U8" s="185"/>
-      <c r="V8" s="185"/>
-      <c r="W8" s="185"/>
-      <c r="X8" s="185"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="183"/>
+      <c r="S8" s="183"/>
+      <c r="T8" s="183"/>
+      <c r="U8" s="183"/>
+      <c r="V8" s="183"/>
+      <c r="W8" s="183"/>
+      <c r="X8" s="183"/>
     </row>
     <row r="9" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="185"/>
-      <c r="B9" s="185"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="185"/>
-      <c r="O9" s="185"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="185"/>
-      <c r="U9" s="185"/>
-      <c r="V9" s="185"/>
-      <c r="W9" s="185"/>
-      <c r="X9" s="185"/>
+      <c r="A9" s="183"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="183"/>
+      <c r="T9" s="183"/>
+      <c r="U9" s="183"/>
+      <c r="V9" s="183"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="183"/>
     </row>
     <row r="10" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="185"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="185"/>
-      <c r="O10" s="185"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
-      <c r="U10" s="185"/>
-      <c r="V10" s="185"/>
-      <c r="W10" s="185"/>
-      <c r="X10" s="185"/>
+      <c r="A10" s="183"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="183"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="183"/>
+      <c r="V10" s="183"/>
+      <c r="W10" s="183"/>
+      <c r="X10" s="183"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="185"/>
-      <c r="B11" s="185"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="185"/>
-      <c r="N11" s="185"/>
-      <c r="O11" s="185"/>
-      <c r="P11" s="185"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="185"/>
-      <c r="S11" s="185"/>
-      <c r="T11" s="185"/>
-      <c r="U11" s="185"/>
-      <c r="V11" s="185"/>
-      <c r="W11" s="185"/>
-      <c r="X11" s="185"/>
+      <c r="A11" s="183"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="183"/>
+      <c r="O11" s="183"/>
+      <c r="P11" s="183"/>
+      <c r="Q11" s="183"/>
+      <c r="R11" s="183"/>
+      <c r="S11" s="183"/>
+      <c r="T11" s="183"/>
+      <c r="U11" s="183"/>
+      <c r="V11" s="183"/>
+      <c r="W11" s="183"/>
+      <c r="X11" s="183"/>
     </row>
     <row r="12" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="185"/>
-      <c r="B12" s="185"/>
-      <c r="C12" s="185"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="185"/>
-      <c r="K12" s="185"/>
-      <c r="L12" s="185"/>
-      <c r="M12" s="185"/>
-      <c r="N12" s="185"/>
-      <c r="O12" s="185"/>
-      <c r="P12" s="185"/>
-      <c r="Q12" s="185"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="185"/>
-      <c r="T12" s="185"/>
-      <c r="U12" s="185"/>
-      <c r="V12" s="185"/>
-      <c r="W12" s="185"/>
-      <c r="X12" s="185"/>
+      <c r="A12" s="183"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="183"/>
+      <c r="Q12" s="183"/>
+      <c r="R12" s="183"/>
+      <c r="S12" s="183"/>
+      <c r="T12" s="183"/>
+      <c r="U12" s="183"/>
+      <c r="V12" s="183"/>
+      <c r="W12" s="183"/>
+      <c r="X12" s="183"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="185"/>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="185"/>
-      <c r="K13" s="185"/>
-      <c r="L13" s="185"/>
-      <c r="M13" s="185"/>
-      <c r="N13" s="185"/>
-      <c r="O13" s="185"/>
-      <c r="P13" s="185"/>
-      <c r="Q13" s="185"/>
-      <c r="R13" s="185"/>
-      <c r="S13" s="185"/>
-      <c r="T13" s="185"/>
-      <c r="U13" s="185"/>
-      <c r="V13" s="185"/>
-      <c r="W13" s="185"/>
-      <c r="X13" s="185"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="183"/>
+      <c r="L13" s="183"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="183"/>
+      <c r="O13" s="183"/>
+      <c r="P13" s="183"/>
+      <c r="Q13" s="183"/>
+      <c r="R13" s="183"/>
+      <c r="S13" s="183"/>
+      <c r="T13" s="183"/>
+      <c r="U13" s="183"/>
+      <c r="V13" s="183"/>
+      <c r="W13" s="183"/>
+      <c r="X13" s="183"/>
     </row>
     <row r="14" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="185"/>
-      <c r="B14" s="185"/>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="185"/>
-      <c r="K14" s="185"/>
-      <c r="L14" s="185"/>
-      <c r="M14" s="185"/>
-      <c r="N14" s="185"/>
-      <c r="O14" s="185"/>
-      <c r="P14" s="185"/>
-      <c r="Q14" s="185"/>
-      <c r="R14" s="185"/>
-      <c r="S14" s="185"/>
-      <c r="T14" s="185"/>
-      <c r="U14" s="185"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="185"/>
+      <c r="A14" s="183"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="183"/>
+      <c r="L14" s="183"/>
+      <c r="M14" s="183"/>
+      <c r="N14" s="183"/>
+      <c r="O14" s="183"/>
+      <c r="P14" s="183"/>
+      <c r="Q14" s="183"/>
+      <c r="R14" s="183"/>
+      <c r="S14" s="183"/>
+      <c r="T14" s="183"/>
+      <c r="U14" s="183"/>
+      <c r="V14" s="183"/>
+      <c r="W14" s="183"/>
+      <c r="X14" s="183"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="185"/>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="185"/>
-      <c r="L15" s="185"/>
-      <c r="M15" s="185"/>
-      <c r="N15" s="185"/>
-      <c r="O15" s="185"/>
-      <c r="P15" s="185"/>
-      <c r="Q15" s="185"/>
-      <c r="R15" s="185"/>
-      <c r="S15" s="185"/>
-      <c r="T15" s="185"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="185"/>
-      <c r="X15" s="185"/>
+      <c r="A15" s="183"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="183"/>
+      <c r="Q15" s="183"/>
+      <c r="R15" s="183"/>
+      <c r="S15" s="183"/>
+      <c r="T15" s="183"/>
+      <c r="U15" s="183"/>
+      <c r="V15" s="183"/>
+      <c r="W15" s="183"/>
+      <c r="X15" s="183"/>
     </row>
     <row r="16" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="185"/>
-      <c r="B16" s="185"/>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="185"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="185"/>
-      <c r="O16" s="185"/>
-      <c r="P16" s="185"/>
-      <c r="Q16" s="185"/>
-      <c r="R16" s="185"/>
-      <c r="S16" s="185"/>
-      <c r="T16" s="185"/>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="183"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="183"/>
+      <c r="O16" s="183"/>
+      <c r="P16" s="183"/>
+      <c r="Q16" s="183"/>
+      <c r="R16" s="183"/>
+      <c r="S16" s="183"/>
+      <c r="T16" s="183"/>
+      <c r="U16" s="183"/>
+      <c r="V16" s="183"/>
+      <c r="W16" s="183"/>
+      <c r="X16" s="183"/>
     </row>
     <row r="17" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="185"/>
-      <c r="B17" s="185"/>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="185"/>
-      <c r="L17" s="185"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="185"/>
-      <c r="O17" s="185"/>
-      <c r="P17" s="185"/>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185"/>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="185"/>
+      <c r="A17" s="183"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="183"/>
+      <c r="Q17" s="183"/>
+      <c r="R17" s="183"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="183"/>
+      <c r="U17" s="183"/>
+      <c r="V17" s="183"/>
+      <c r="W17" s="183"/>
+      <c r="X17" s="183"/>
     </row>
     <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="185"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="185"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="185"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="185"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="185"/>
-      <c r="T18" s="185"/>
-      <c r="U18" s="185"/>
-      <c r="V18" s="185"/>
-      <c r="W18" s="185"/>
-      <c r="X18" s="185"/>
+      <c r="A18" s="183"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="183"/>
+      <c r="U18" s="183"/>
+      <c r="V18" s="183"/>
+      <c r="W18" s="183"/>
+      <c r="X18" s="183"/>
     </row>
     <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="185"/>
-      <c r="B19" s="185"/>
-      <c r="C19" s="185"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="185"/>
-      <c r="K19" s="185"/>
-      <c r="L19" s="185"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="185"/>
-      <c r="O19" s="185"/>
-      <c r="P19" s="185"/>
-      <c r="Q19" s="185"/>
-      <c r="R19" s="185"/>
-      <c r="S19" s="185"/>
-      <c r="T19" s="185"/>
-      <c r="U19" s="185"/>
-      <c r="V19" s="185"/>
-      <c r="W19" s="185"/>
-      <c r="X19" s="185"/>
+      <c r="A19" s="183"/>
+      <c r="B19" s="183"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="183"/>
+      <c r="P19" s="183"/>
+      <c r="Q19" s="183"/>
+      <c r="R19" s="183"/>
+      <c r="S19" s="183"/>
+      <c r="T19" s="183"/>
+      <c r="U19" s="183"/>
+      <c r="V19" s="183"/>
+      <c r="W19" s="183"/>
+      <c r="X19" s="183"/>
     </row>
     <row r="20" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="185"/>
-      <c r="B20" s="185"/>
-      <c r="C20" s="185"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="185"/>
-      <c r="K20" s="185"/>
-      <c r="L20" s="185"/>
-      <c r="M20" s="185"/>
-      <c r="N20" s="185"/>
-      <c r="O20" s="185"/>
-      <c r="P20" s="185"/>
-      <c r="Q20" s="185"/>
-      <c r="R20" s="185"/>
-      <c r="S20" s="185"/>
-      <c r="T20" s="185"/>
-      <c r="U20" s="185"/>
-      <c r="V20" s="185"/>
-      <c r="W20" s="185"/>
-      <c r="X20" s="185"/>
+      <c r="A20" s="183"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="183"/>
+      <c r="O20" s="183"/>
+      <c r="P20" s="183"/>
+      <c r="Q20" s="183"/>
+      <c r="R20" s="183"/>
+      <c r="S20" s="183"/>
+      <c r="T20" s="183"/>
+      <c r="U20" s="183"/>
+      <c r="V20" s="183"/>
+      <c r="W20" s="183"/>
+      <c r="X20" s="183"/>
     </row>
     <row r="21" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="185"/>
-      <c r="B21" s="185"/>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="185"/>
-      <c r="M21" s="185"/>
-      <c r="N21" s="185"/>
-      <c r="O21" s="185"/>
-      <c r="P21" s="185"/>
-      <c r="Q21" s="185"/>
-      <c r="R21" s="185"/>
-      <c r="S21" s="185"/>
-      <c r="T21" s="185"/>
-      <c r="U21" s="185"/>
-      <c r="V21" s="185"/>
-      <c r="W21" s="185"/>
-      <c r="X21" s="185"/>
+      <c r="A21" s="183"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="183"/>
+      <c r="Q21" s="183"/>
+      <c r="R21" s="183"/>
+      <c r="S21" s="183"/>
+      <c r="T21" s="183"/>
+      <c r="U21" s="183"/>
+      <c r="V21" s="183"/>
+      <c r="W21" s="183"/>
+      <c r="X21" s="183"/>
     </row>
     <row r="22" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="185"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="185"/>
-      <c r="L22" s="185"/>
-      <c r="M22" s="185"/>
-      <c r="N22" s="185"/>
-      <c r="O22" s="185"/>
-      <c r="P22" s="185"/>
-      <c r="Q22" s="185"/>
-      <c r="R22" s="185"/>
-      <c r="S22" s="185"/>
-      <c r="T22" s="185"/>
-      <c r="U22" s="185"/>
-      <c r="V22" s="185"/>
-      <c r="W22" s="185"/>
-      <c r="X22" s="185"/>
+      <c r="A22" s="183"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="183"/>
+      <c r="Q22" s="183"/>
+      <c r="R22" s="183"/>
+      <c r="S22" s="183"/>
+      <c r="T22" s="183"/>
+      <c r="U22" s="183"/>
+      <c r="V22" s="183"/>
+      <c r="W22" s="183"/>
+      <c r="X22" s="183"/>
     </row>
     <row r="23" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="185"/>
-      <c r="B23" s="185"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="185"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="185"/>
-      <c r="K23" s="185"/>
-      <c r="L23" s="185"/>
-      <c r="M23" s="185"/>
-      <c r="N23" s="185"/>
-      <c r="O23" s="185"/>
-      <c r="P23" s="185"/>
-      <c r="Q23" s="185"/>
-      <c r="R23" s="185"/>
-      <c r="S23" s="185"/>
-      <c r="T23" s="185"/>
-      <c r="U23" s="185"/>
-      <c r="V23" s="185"/>
-      <c r="W23" s="185"/>
-      <c r="X23" s="185"/>
+      <c r="A23" s="183"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="183"/>
+      <c r="Q23" s="183"/>
+      <c r="R23" s="183"/>
+      <c r="S23" s="183"/>
+      <c r="T23" s="183"/>
+      <c r="U23" s="183"/>
+      <c r="V23" s="183"/>
+      <c r="W23" s="183"/>
+      <c r="X23" s="183"/>
     </row>
     <row r="24" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="185"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="185"/>
-      <c r="K24" s="185"/>
-      <c r="L24" s="185"/>
-      <c r="M24" s="185"/>
-      <c r="N24" s="185"/>
-      <c r="O24" s="185"/>
-      <c r="P24" s="185"/>
-      <c r="Q24" s="185"/>
-      <c r="R24" s="185"/>
-      <c r="S24" s="185"/>
-      <c r="T24" s="185"/>
-      <c r="U24" s="185"/>
-      <c r="V24" s="185"/>
-      <c r="W24" s="185"/>
-      <c r="X24" s="185"/>
+      <c r="A24" s="183"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
     </row>
     <row r="25" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="185"/>
-      <c r="B25" s="185"/>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="185"/>
-      <c r="K25" s="185"/>
-      <c r="L25" s="185"/>
-      <c r="M25" s="185"/>
-      <c r="N25" s="185"/>
-      <c r="O25" s="185"/>
-      <c r="P25" s="185"/>
-      <c r="Q25" s="185"/>
-      <c r="R25" s="185"/>
-      <c r="S25" s="185"/>
-      <c r="T25" s="185"/>
-      <c r="U25" s="185"/>
-      <c r="V25" s="185"/>
-      <c r="W25" s="185"/>
-      <c r="X25" s="185"/>
+      <c r="A25" s="183"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="183"/>
+      <c r="R25" s="183"/>
+      <c r="S25" s="183"/>
+      <c r="T25" s="183"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="183"/>
+      <c r="W25" s="183"/>
+      <c r="X25" s="183"/>
     </row>
     <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="185"/>
-      <c r="B26" s="185"/>
-      <c r="C26" s="185"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="185"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="185"/>
-      <c r="H26" s="185"/>
-      <c r="I26" s="185"/>
-      <c r="J26" s="185"/>
-      <c r="K26" s="185"/>
-      <c r="L26" s="185"/>
-      <c r="M26" s="185"/>
-      <c r="N26" s="185"/>
-      <c r="O26" s="185"/>
-      <c r="P26" s="185"/>
-      <c r="Q26" s="185"/>
-      <c r="R26" s="185"/>
-      <c r="S26" s="185"/>
-      <c r="T26" s="185"/>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="185"/>
-      <c r="X26" s="185"/>
+      <c r="A26" s="183"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="183"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="183"/>
+      <c r="S26" s="183"/>
+      <c r="T26" s="183"/>
+      <c r="U26" s="183"/>
+      <c r="V26" s="183"/>
+      <c r="W26" s="183"/>
+      <c r="X26" s="183"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="185"/>
-      <c r="B27" s="185"/>
-      <c r="C27" s="185"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="185"/>
-      <c r="K27" s="185"/>
-      <c r="L27" s="185"/>
-      <c r="M27" s="185"/>
-      <c r="N27" s="185"/>
-      <c r="O27" s="185"/>
-      <c r="P27" s="185"/>
-      <c r="Q27" s="185"/>
-      <c r="R27" s="185"/>
-      <c r="S27" s="185"/>
-      <c r="T27" s="185"/>
-      <c r="U27" s="185"/>
-      <c r="V27" s="185"/>
-      <c r="W27" s="185"/>
-      <c r="X27" s="185"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="183"/>
+      <c r="R27" s="183"/>
+      <c r="S27" s="183"/>
+      <c r="T27" s="183"/>
+      <c r="U27" s="183"/>
+      <c r="V27" s="183"/>
+      <c r="W27" s="183"/>
+      <c r="X27" s="183"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="185"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="185"/>
-      <c r="K28" s="185"/>
-      <c r="L28" s="185"/>
-      <c r="M28" s="185"/>
-      <c r="N28" s="185"/>
-      <c r="O28" s="185"/>
-      <c r="P28" s="185"/>
-      <c r="Q28" s="185"/>
-      <c r="R28" s="185"/>
-      <c r="S28" s="185"/>
-      <c r="T28" s="185"/>
-      <c r="U28" s="185"/>
-      <c r="V28" s="185"/>
-      <c r="W28" s="185"/>
-      <c r="X28" s="185"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="183"/>
+      <c r="Q28" s="183"/>
+      <c r="R28" s="183"/>
+      <c r="S28" s="183"/>
+      <c r="T28" s="183"/>
+      <c r="U28" s="183"/>
+      <c r="V28" s="183"/>
+      <c r="W28" s="183"/>
+      <c r="X28" s="183"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="185"/>
-      <c r="B29" s="185"/>
-      <c r="C29" s="185"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="185"/>
-      <c r="K29" s="185"/>
-      <c r="L29" s="185"/>
-      <c r="M29" s="185"/>
-      <c r="N29" s="185"/>
-      <c r="O29" s="185"/>
-      <c r="P29" s="185"/>
-      <c r="Q29" s="185"/>
-      <c r="R29" s="185"/>
-      <c r="S29" s="185"/>
-      <c r="T29" s="185"/>
-      <c r="U29" s="185"/>
-      <c r="V29" s="185"/>
-      <c r="W29" s="185"/>
-      <c r="X29" s="185"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="183"/>
+      <c r="S29" s="183"/>
+      <c r="T29" s="183"/>
+      <c r="U29" s="183"/>
+      <c r="V29" s="183"/>
+      <c r="W29" s="183"/>
+      <c r="X29" s="183"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="185"/>
-      <c r="B30" s="185"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="185"/>
-      <c r="L30" s="185"/>
-      <c r="M30" s="185"/>
-      <c r="N30" s="185"/>
-      <c r="O30" s="185"/>
-      <c r="P30" s="185"/>
-      <c r="Q30" s="185"/>
-      <c r="R30" s="185"/>
-      <c r="S30" s="185"/>
-      <c r="T30" s="185"/>
-      <c r="U30" s="185"/>
-      <c r="V30" s="185"/>
-      <c r="W30" s="185"/>
-      <c r="X30" s="185"/>
+      <c r="A30" s="183"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="183"/>
+      <c r="R30" s="183"/>
+      <c r="S30" s="183"/>
+      <c r="T30" s="183"/>
+      <c r="U30" s="183"/>
+      <c r="V30" s="183"/>
+      <c r="W30" s="183"/>
+      <c r="X30" s="183"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="185"/>
-      <c r="B31" s="185"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="185"/>
-      <c r="J31" s="185"/>
-      <c r="K31" s="185"/>
-      <c r="L31" s="185"/>
-      <c r="M31" s="185"/>
-      <c r="N31" s="185"/>
-      <c r="O31" s="185"/>
-      <c r="P31" s="185"/>
-      <c r="Q31" s="185"/>
-      <c r="R31" s="185"/>
-      <c r="S31" s="185"/>
-      <c r="T31" s="185"/>
-      <c r="U31" s="185"/>
-      <c r="V31" s="185"/>
-      <c r="W31" s="185"/>
-      <c r="X31" s="185"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="183"/>
+      <c r="Q31" s="183"/>
+      <c r="R31" s="183"/>
+      <c r="S31" s="183"/>
+      <c r="T31" s="183"/>
+      <c r="U31" s="183"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
+      <c r="X31" s="183"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="185"/>
-      <c r="B32" s="185"/>
-      <c r="C32" s="185"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="185"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="185"/>
-      <c r="M32" s="185"/>
-      <c r="N32" s="185"/>
-      <c r="O32" s="185"/>
-      <c r="P32" s="185"/>
-      <c r="Q32" s="185"/>
-      <c r="R32" s="185"/>
-      <c r="S32" s="185"/>
-      <c r="T32" s="185"/>
-      <c r="U32" s="185"/>
-      <c r="V32" s="185"/>
-      <c r="W32" s="185"/>
-      <c r="X32" s="185"/>
+      <c r="A32" s="183"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="183"/>
+      <c r="L32" s="183"/>
+      <c r="M32" s="183"/>
+      <c r="N32" s="183"/>
+      <c r="O32" s="183"/>
+      <c r="P32" s="183"/>
+      <c r="Q32" s="183"/>
+      <c r="R32" s="183"/>
+      <c r="S32" s="183"/>
+      <c r="T32" s="183"/>
+      <c r="U32" s="183"/>
+      <c r="V32" s="183"/>
+      <c r="W32" s="183"/>
+      <c r="X32" s="183"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="185"/>
-      <c r="B33" s="185"/>
-      <c r="C33" s="185"/>
-      <c r="D33" s="185"/>
-      <c r="E33" s="185"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
-      <c r="L33" s="185"/>
-      <c r="M33" s="185"/>
-      <c r="N33" s="185"/>
-      <c r="O33" s="185"/>
-      <c r="P33" s="185"/>
-      <c r="Q33" s="185"/>
-      <c r="R33" s="185"/>
-      <c r="S33" s="185"/>
-      <c r="T33" s="185"/>
-      <c r="U33" s="185"/>
-      <c r="V33" s="185"/>
-      <c r="W33" s="185"/>
-      <c r="X33" s="185"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="183"/>
+      <c r="L33" s="183"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="183"/>
+      <c r="P33" s="183"/>
+      <c r="Q33" s="183"/>
+      <c r="R33" s="183"/>
+      <c r="S33" s="183"/>
+      <c r="T33" s="183"/>
+      <c r="U33" s="183"/>
+      <c r="V33" s="183"/>
+      <c r="W33" s="183"/>
+      <c r="X33" s="183"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="185"/>
-      <c r="B34" s="185"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="185"/>
-      <c r="K34" s="185"/>
-      <c r="L34" s="185"/>
-      <c r="M34" s="185"/>
-      <c r="N34" s="185"/>
-      <c r="O34" s="185"/>
-      <c r="P34" s="185"/>
-      <c r="Q34" s="185"/>
-      <c r="R34" s="185"/>
-      <c r="S34" s="185"/>
-      <c r="T34" s="185"/>
-      <c r="U34" s="185"/>
-      <c r="V34" s="185"/>
-      <c r="W34" s="185"/>
-      <c r="X34" s="185"/>
+      <c r="A34" s="183"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
+      <c r="L34" s="183"/>
+      <c r="M34" s="183"/>
+      <c r="N34" s="183"/>
+      <c r="O34" s="183"/>
+      <c r="P34" s="183"/>
+      <c r="Q34" s="183"/>
+      <c r="R34" s="183"/>
+      <c r="S34" s="183"/>
+      <c r="T34" s="183"/>
+      <c r="U34" s="183"/>
+      <c r="V34" s="183"/>
+      <c r="W34" s="183"/>
+      <c r="X34" s="183"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="185"/>
-      <c r="B35" s="185"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="185"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="185"/>
-      <c r="K35" s="185"/>
-      <c r="L35" s="185"/>
-      <c r="M35" s="185"/>
-      <c r="N35" s="185"/>
-      <c r="O35" s="185"/>
-      <c r="P35" s="185"/>
-      <c r="Q35" s="185"/>
-      <c r="R35" s="185"/>
-      <c r="S35" s="185"/>
-      <c r="T35" s="185"/>
-      <c r="U35" s="185"/>
-      <c r="V35" s="185"/>
-      <c r="W35" s="185"/>
-      <c r="X35" s="185"/>
+      <c r="A35" s="183"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="183"/>
+      <c r="L35" s="183"/>
+      <c r="M35" s="183"/>
+      <c r="N35" s="183"/>
+      <c r="O35" s="183"/>
+      <c r="P35" s="183"/>
+      <c r="Q35" s="183"/>
+      <c r="R35" s="183"/>
+      <c r="S35" s="183"/>
+      <c r="T35" s="183"/>
+      <c r="U35" s="183"/>
+      <c r="V35" s="183"/>
+      <c r="W35" s="183"/>
+      <c r="X35" s="183"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="185"/>
-      <c r="B36" s="185"/>
-      <c r="C36" s="185"/>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="185"/>
-      <c r="G36" s="185"/>
-      <c r="H36" s="185"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="185"/>
-      <c r="K36" s="185"/>
-      <c r="L36" s="185"/>
-      <c r="M36" s="185"/>
-      <c r="N36" s="185"/>
-      <c r="O36" s="185"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
-      <c r="S36" s="185"/>
-      <c r="T36" s="185"/>
-      <c r="U36" s="185"/>
-      <c r="V36" s="185"/>
-      <c r="W36" s="185"/>
-      <c r="X36" s="185"/>
+      <c r="A36" s="183"/>
+      <c r="B36" s="183"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="183"/>
+      <c r="K36" s="183"/>
+      <c r="L36" s="183"/>
+      <c r="M36" s="183"/>
+      <c r="N36" s="183"/>
+      <c r="O36" s="183"/>
+      <c r="P36" s="183"/>
+      <c r="Q36" s="183"/>
+      <c r="R36" s="183"/>
+      <c r="S36" s="183"/>
+      <c r="T36" s="183"/>
+      <c r="U36" s="183"/>
+      <c r="V36" s="183"/>
+      <c r="W36" s="183"/>
+      <c r="X36" s="183"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="185"/>
-      <c r="B37" s="185"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="185"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="185"/>
-      <c r="G37" s="185"/>
-      <c r="H37" s="185"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="185"/>
-      <c r="K37" s="185"/>
-      <c r="L37" s="185"/>
-      <c r="M37" s="185"/>
-      <c r="N37" s="185"/>
-      <c r="O37" s="185"/>
-      <c r="P37" s="185"/>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
-      <c r="S37" s="185"/>
-      <c r="T37" s="185"/>
-      <c r="U37" s="185"/>
-      <c r="V37" s="185"/>
-      <c r="W37" s="185"/>
-      <c r="X37" s="185"/>
+      <c r="A37" s="183"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="183"/>
+      <c r="L37" s="183"/>
+      <c r="M37" s="183"/>
+      <c r="N37" s="183"/>
+      <c r="O37" s="183"/>
+      <c r="P37" s="183"/>
+      <c r="Q37" s="183"/>
+      <c r="R37" s="183"/>
+      <c r="S37" s="183"/>
+      <c r="T37" s="183"/>
+      <c r="U37" s="183"/>
+      <c r="V37" s="183"/>
+      <c r="W37" s="183"/>
+      <c r="X37" s="183"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="185"/>
-      <c r="B38" s="185"/>
-      <c r="C38" s="185"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="185"/>
-      <c r="K38" s="185"/>
-      <c r="L38" s="185"/>
-      <c r="M38" s="185"/>
-      <c r="N38" s="185"/>
-      <c r="O38" s="185"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
-      <c r="S38" s="185"/>
-      <c r="T38" s="185"/>
-      <c r="U38" s="185"/>
-      <c r="V38" s="185"/>
-      <c r="W38" s="185"/>
-      <c r="X38" s="185"/>
+      <c r="A38" s="183"/>
+      <c r="B38" s="183"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="183"/>
+      <c r="L38" s="183"/>
+      <c r="M38" s="183"/>
+      <c r="N38" s="183"/>
+      <c r="O38" s="183"/>
+      <c r="P38" s="183"/>
+      <c r="Q38" s="183"/>
+      <c r="R38" s="183"/>
+      <c r="S38" s="183"/>
+      <c r="T38" s="183"/>
+      <c r="U38" s="183"/>
+      <c r="V38" s="183"/>
+      <c r="W38" s="183"/>
+      <c r="X38" s="183"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="185"/>
-      <c r="B39" s="185"/>
-      <c r="C39" s="185"/>
-      <c r="D39" s="185"/>
-      <c r="E39" s="185"/>
-      <c r="F39" s="185"/>
-      <c r="G39" s="185"/>
-      <c r="H39" s="185"/>
-      <c r="I39" s="185"/>
-      <c r="J39" s="185"/>
-      <c r="K39" s="185"/>
-      <c r="L39" s="185"/>
-      <c r="M39" s="185"/>
-      <c r="N39" s="185"/>
-      <c r="O39" s="185"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="185"/>
-      <c r="S39" s="185"/>
-      <c r="T39" s="185"/>
-      <c r="U39" s="185"/>
-      <c r="V39" s="185"/>
-      <c r="W39" s="185"/>
-      <c r="X39" s="185"/>
+      <c r="A39" s="183"/>
+      <c r="B39" s="183"/>
+      <c r="C39" s="183"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="183"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="183"/>
+      <c r="O39" s="183"/>
+      <c r="P39" s="183"/>
+      <c r="Q39" s="183"/>
+      <c r="R39" s="183"/>
+      <c r="S39" s="183"/>
+      <c r="T39" s="183"/>
+      <c r="U39" s="183"/>
+      <c r="V39" s="183"/>
+      <c r="W39" s="183"/>
+      <c r="X39" s="183"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="185"/>
-      <c r="B40" s="185"/>
-      <c r="C40" s="185"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="185"/>
-      <c r="H40" s="185"/>
-      <c r="I40" s="185"/>
-      <c r="J40" s="185"/>
-      <c r="K40" s="185"/>
-      <c r="L40" s="185"/>
-      <c r="M40" s="185"/>
-      <c r="N40" s="185"/>
-      <c r="O40" s="185"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="185"/>
-      <c r="S40" s="185"/>
-      <c r="T40" s="185"/>
-      <c r="U40" s="185"/>
-      <c r="V40" s="185"/>
-      <c r="W40" s="185"/>
-      <c r="X40" s="185"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="183"/>
+      <c r="L40" s="183"/>
+      <c r="M40" s="183"/>
+      <c r="N40" s="183"/>
+      <c r="O40" s="183"/>
+      <c r="P40" s="183"/>
+      <c r="Q40" s="183"/>
+      <c r="R40" s="183"/>
+      <c r="S40" s="183"/>
+      <c r="T40" s="183"/>
+      <c r="U40" s="183"/>
+      <c r="V40" s="183"/>
+      <c r="W40" s="183"/>
+      <c r="X40" s="183"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="185"/>
-      <c r="B41" s="185"/>
-      <c r="C41" s="185"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="185"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="185"/>
-      <c r="I41" s="185"/>
-      <c r="J41" s="185"/>
-      <c r="K41" s="185"/>
-      <c r="L41" s="185"/>
-      <c r="M41" s="185"/>
-      <c r="N41" s="185"/>
-      <c r="O41" s="185"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
-      <c r="S41" s="185"/>
-      <c r="T41" s="185"/>
-      <c r="U41" s="185"/>
-      <c r="V41" s="185"/>
-      <c r="W41" s="185"/>
-      <c r="X41" s="185"/>
+      <c r="A41" s="183"/>
+      <c r="B41" s="183"/>
+      <c r="C41" s="183"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="183"/>
+      <c r="P41" s="183"/>
+      <c r="Q41" s="183"/>
+      <c r="R41" s="183"/>
+      <c r="S41" s="183"/>
+      <c r="T41" s="183"/>
+      <c r="U41" s="183"/>
+      <c r="V41" s="183"/>
+      <c r="W41" s="183"/>
+      <c r="X41" s="183"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="185"/>
-      <c r="B42" s="185"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="185"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="185"/>
-      <c r="K42" s="185"/>
-      <c r="L42" s="185"/>
-      <c r="M42" s="185"/>
-      <c r="N42" s="185"/>
-      <c r="O42" s="185"/>
-      <c r="P42" s="185"/>
-      <c r="Q42" s="185"/>
-      <c r="R42" s="185"/>
-      <c r="S42" s="185"/>
-      <c r="T42" s="185"/>
-      <c r="U42" s="185"/>
-      <c r="V42" s="185"/>
-      <c r="W42" s="185"/>
-      <c r="X42" s="185"/>
+      <c r="A42" s="183"/>
+      <c r="B42" s="183"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="183"/>
+      <c r="I42" s="183"/>
+      <c r="J42" s="183"/>
+      <c r="K42" s="183"/>
+      <c r="L42" s="183"/>
+      <c r="M42" s="183"/>
+      <c r="N42" s="183"/>
+      <c r="O42" s="183"/>
+      <c r="P42" s="183"/>
+      <c r="Q42" s="183"/>
+      <c r="R42" s="183"/>
+      <c r="S42" s="183"/>
+      <c r="T42" s="183"/>
+      <c r="U42" s="183"/>
+      <c r="V42" s="183"/>
+      <c r="W42" s="183"/>
+      <c r="X42" s="183"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="185"/>
-      <c r="B43" s="185"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="185"/>
-      <c r="I43" s="185"/>
-      <c r="J43" s="185"/>
-      <c r="K43" s="185"/>
-      <c r="L43" s="185"/>
-      <c r="M43" s="185"/>
-      <c r="N43" s="185"/>
-      <c r="O43" s="185"/>
-      <c r="P43" s="185"/>
-      <c r="Q43" s="185"/>
-      <c r="R43" s="185"/>
-      <c r="S43" s="185"/>
-      <c r="T43" s="185"/>
-      <c r="U43" s="185"/>
-      <c r="V43" s="185"/>
-      <c r="W43" s="185"/>
-      <c r="X43" s="185"/>
+      <c r="A43" s="183"/>
+      <c r="B43" s="183"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="183"/>
+      <c r="Q43" s="183"/>
+      <c r="R43" s="183"/>
+      <c r="S43" s="183"/>
+      <c r="T43" s="183"/>
+      <c r="U43" s="183"/>
+      <c r="V43" s="183"/>
+      <c r="W43" s="183"/>
+      <c r="X43" s="183"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="185"/>
-      <c r="B44" s="185"/>
-      <c r="C44" s="185"/>
-      <c r="D44" s="185"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="185"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="185"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="185"/>
-      <c r="K44" s="185"/>
-      <c r="L44" s="185"/>
-      <c r="M44" s="185"/>
-      <c r="N44" s="185"/>
-      <c r="O44" s="185"/>
-      <c r="P44" s="185"/>
-      <c r="Q44" s="185"/>
-      <c r="R44" s="185"/>
-      <c r="S44" s="185"/>
-      <c r="T44" s="185"/>
-      <c r="U44" s="185"/>
-      <c r="V44" s="185"/>
-      <c r="W44" s="185"/>
-      <c r="X44" s="185"/>
+      <c r="A44" s="183"/>
+      <c r="B44" s="183"/>
+      <c r="C44" s="183"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="183"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="183"/>
+      <c r="I44" s="183"/>
+      <c r="J44" s="183"/>
+      <c r="K44" s="183"/>
+      <c r="L44" s="183"/>
+      <c r="M44" s="183"/>
+      <c r="N44" s="183"/>
+      <c r="O44" s="183"/>
+      <c r="P44" s="183"/>
+      <c r="Q44" s="183"/>
+      <c r="R44" s="183"/>
+      <c r="S44" s="183"/>
+      <c r="T44" s="183"/>
+      <c r="U44" s="183"/>
+      <c r="V44" s="183"/>
+      <c r="W44" s="183"/>
+      <c r="X44" s="183"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" s="185"/>
-      <c r="B45" s="185"/>
-      <c r="C45" s="185"/>
-      <c r="D45" s="185"/>
-      <c r="E45" s="185"/>
-      <c r="F45" s="185"/>
-      <c r="G45" s="185"/>
-      <c r="H45" s="185"/>
-      <c r="I45" s="185"/>
-      <c r="J45" s="185"/>
-      <c r="K45" s="185"/>
-      <c r="L45" s="185"/>
-      <c r="M45" s="185"/>
-      <c r="N45" s="185"/>
-      <c r="O45" s="185"/>
-      <c r="P45" s="185"/>
-      <c r="Q45" s="185"/>
-      <c r="R45" s="185"/>
-      <c r="S45" s="185"/>
-      <c r="T45" s="185"/>
-      <c r="U45" s="185"/>
-      <c r="V45" s="185"/>
-      <c r="W45" s="185"/>
-      <c r="X45" s="185"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="183"/>
+      <c r="C45" s="183"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="183"/>
+      <c r="G45" s="183"/>
+      <c r="H45" s="183"/>
+      <c r="I45" s="183"/>
+      <c r="J45" s="183"/>
+      <c r="K45" s="183"/>
+      <c r="L45" s="183"/>
+      <c r="M45" s="183"/>
+      <c r="N45" s="183"/>
+      <c r="O45" s="183"/>
+      <c r="P45" s="183"/>
+      <c r="Q45" s="183"/>
+      <c r="R45" s="183"/>
+      <c r="S45" s="183"/>
+      <c r="T45" s="183"/>
+      <c r="U45" s="183"/>
+      <c r="V45" s="183"/>
+      <c r="W45" s="183"/>
+      <c r="X45" s="183"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="185"/>
-      <c r="B46" s="185"/>
-      <c r="C46" s="185"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="185"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="185"/>
-      <c r="H46" s="185"/>
-      <c r="I46" s="185"/>
-      <c r="J46" s="185"/>
-      <c r="K46" s="185"/>
-      <c r="L46" s="185"/>
-      <c r="M46" s="185"/>
-      <c r="N46" s="185"/>
-      <c r="O46" s="185"/>
-      <c r="P46" s="185"/>
-      <c r="Q46" s="185"/>
-      <c r="R46" s="185"/>
-      <c r="S46" s="185"/>
-      <c r="T46" s="185"/>
-      <c r="U46" s="185"/>
-      <c r="V46" s="185"/>
-      <c r="W46" s="185"/>
-      <c r="X46" s="185"/>
+      <c r="A46" s="183"/>
+      <c r="B46" s="183"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="183"/>
+      <c r="H46" s="183"/>
+      <c r="I46" s="183"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="183"/>
+      <c r="L46" s="183"/>
+      <c r="M46" s="183"/>
+      <c r="N46" s="183"/>
+      <c r="O46" s="183"/>
+      <c r="P46" s="183"/>
+      <c r="Q46" s="183"/>
+      <c r="R46" s="183"/>
+      <c r="S46" s="183"/>
+      <c r="T46" s="183"/>
+      <c r="U46" s="183"/>
+      <c r="V46" s="183"/>
+      <c r="W46" s="183"/>
+      <c r="X46" s="183"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="185"/>
-      <c r="B47" s="185"/>
-      <c r="C47" s="185"/>
-      <c r="D47" s="185"/>
-      <c r="E47" s="185"/>
-      <c r="F47" s="185"/>
-      <c r="G47" s="185"/>
-      <c r="H47" s="185"/>
-      <c r="I47" s="185"/>
-      <c r="J47" s="185"/>
-      <c r="K47" s="185"/>
-      <c r="L47" s="185"/>
-      <c r="M47" s="185"/>
-      <c r="N47" s="185"/>
-      <c r="O47" s="185"/>
-      <c r="P47" s="185"/>
-      <c r="Q47" s="185"/>
-      <c r="R47" s="185"/>
-      <c r="S47" s="185"/>
-      <c r="T47" s="185"/>
-      <c r="U47" s="185"/>
-      <c r="V47" s="185"/>
-      <c r="W47" s="185"/>
-      <c r="X47" s="185"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="183"/>
+      <c r="C47" s="183"/>
+      <c r="D47" s="183"/>
+      <c r="E47" s="183"/>
+      <c r="F47" s="183"/>
+      <c r="G47" s="183"/>
+      <c r="H47" s="183"/>
+      <c r="I47" s="183"/>
+      <c r="J47" s="183"/>
+      <c r="K47" s="183"/>
+      <c r="L47" s="183"/>
+      <c r="M47" s="183"/>
+      <c r="N47" s="183"/>
+      <c r="O47" s="183"/>
+      <c r="P47" s="183"/>
+      <c r="Q47" s="183"/>
+      <c r="R47" s="183"/>
+      <c r="S47" s="183"/>
+      <c r="T47" s="183"/>
+      <c r="U47" s="183"/>
+      <c r="V47" s="183"/>
+      <c r="W47" s="183"/>
+      <c r="X47" s="183"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" s="185"/>
-      <c r="B48" s="185"/>
-      <c r="C48" s="185"/>
-      <c r="D48" s="185"/>
-      <c r="E48" s="185"/>
-      <c r="F48" s="185"/>
-      <c r="G48" s="185"/>
-      <c r="H48" s="185"/>
-      <c r="I48" s="185"/>
-      <c r="J48" s="185"/>
-      <c r="K48" s="185"/>
-      <c r="L48" s="185"/>
-      <c r="M48" s="185"/>
-      <c r="N48" s="185"/>
-      <c r="O48" s="185"/>
-      <c r="P48" s="185"/>
-      <c r="Q48" s="185"/>
-      <c r="R48" s="185"/>
-      <c r="S48" s="185"/>
-      <c r="T48" s="185"/>
-      <c r="U48" s="185"/>
-      <c r="V48" s="185"/>
-      <c r="W48" s="185"/>
-      <c r="X48" s="185"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="183"/>
+      <c r="C48" s="183"/>
+      <c r="D48" s="183"/>
+      <c r="E48" s="183"/>
+      <c r="F48" s="183"/>
+      <c r="G48" s="183"/>
+      <c r="H48" s="183"/>
+      <c r="I48" s="183"/>
+      <c r="J48" s="183"/>
+      <c r="K48" s="183"/>
+      <c r="L48" s="183"/>
+      <c r="M48" s="183"/>
+      <c r="N48" s="183"/>
+      <c r="O48" s="183"/>
+      <c r="P48" s="183"/>
+      <c r="Q48" s="183"/>
+      <c r="R48" s="183"/>
+      <c r="S48" s="183"/>
+      <c r="T48" s="183"/>
+      <c r="U48" s="183"/>
+      <c r="V48" s="183"/>
+      <c r="W48" s="183"/>
+      <c r="X48" s="183"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A49" s="185"/>
-      <c r="B49" s="185"/>
-      <c r="C49" s="185"/>
-      <c r="D49" s="185"/>
-      <c r="E49" s="185"/>
-      <c r="F49" s="185"/>
-      <c r="G49" s="185"/>
-      <c r="H49" s="185"/>
-      <c r="I49" s="185"/>
-      <c r="J49" s="185"/>
-      <c r="K49" s="185"/>
-      <c r="L49" s="185"/>
-      <c r="M49" s="185"/>
-      <c r="N49" s="185"/>
-      <c r="O49" s="185"/>
-      <c r="P49" s="185"/>
-      <c r="Q49" s="185"/>
-      <c r="R49" s="185"/>
-      <c r="S49" s="185"/>
-      <c r="T49" s="185"/>
-      <c r="U49" s="185"/>
-      <c r="V49" s="185"/>
-      <c r="W49" s="185"/>
-      <c r="X49" s="185"/>
+      <c r="A49" s="183"/>
+      <c r="B49" s="183"/>
+      <c r="C49" s="183"/>
+      <c r="D49" s="183"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="183"/>
+      <c r="G49" s="183"/>
+      <c r="H49" s="183"/>
+      <c r="I49" s="183"/>
+      <c r="J49" s="183"/>
+      <c r="K49" s="183"/>
+      <c r="L49" s="183"/>
+      <c r="M49" s="183"/>
+      <c r="N49" s="183"/>
+      <c r="O49" s="183"/>
+      <c r="P49" s="183"/>
+      <c r="Q49" s="183"/>
+      <c r="R49" s="183"/>
+      <c r="S49" s="183"/>
+      <c r="T49" s="183"/>
+      <c r="U49" s="183"/>
+      <c r="V49" s="183"/>
+      <c r="W49" s="183"/>
+      <c r="X49" s="183"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A50" s="185"/>
-      <c r="B50" s="185"/>
-      <c r="C50" s="185"/>
-      <c r="D50" s="185"/>
-      <c r="E50" s="185"/>
-      <c r="F50" s="185"/>
-      <c r="G50" s="185"/>
-      <c r="H50" s="185"/>
-      <c r="I50" s="185"/>
-      <c r="J50" s="185"/>
-      <c r="K50" s="185"/>
-      <c r="L50" s="185"/>
-      <c r="M50" s="185"/>
-      <c r="N50" s="185"/>
-      <c r="O50" s="185"/>
-      <c r="P50" s="185"/>
-      <c r="Q50" s="185"/>
-      <c r="R50" s="185"/>
-      <c r="S50" s="185"/>
-      <c r="T50" s="185"/>
-      <c r="U50" s="185"/>
-      <c r="V50" s="185"/>
-      <c r="W50" s="185"/>
-      <c r="X50" s="185"/>
+      <c r="A50" s="183"/>
+      <c r="B50" s="183"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="183"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="183"/>
+      <c r="H50" s="183"/>
+      <c r="I50" s="183"/>
+      <c r="J50" s="183"/>
+      <c r="K50" s="183"/>
+      <c r="L50" s="183"/>
+      <c r="M50" s="183"/>
+      <c r="N50" s="183"/>
+      <c r="O50" s="183"/>
+      <c r="P50" s="183"/>
+      <c r="Q50" s="183"/>
+      <c r="R50" s="183"/>
+      <c r="S50" s="183"/>
+      <c r="T50" s="183"/>
+      <c r="U50" s="183"/>
+      <c r="V50" s="183"/>
+      <c r="W50" s="183"/>
+      <c r="X50" s="183"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A51" s="185"/>
-      <c r="B51" s="185"/>
-      <c r="C51" s="185"/>
-      <c r="D51" s="185"/>
-      <c r="E51" s="185"/>
-      <c r="F51" s="185"/>
-      <c r="G51" s="185"/>
-      <c r="H51" s="185"/>
-      <c r="I51" s="185"/>
-      <c r="J51" s="185"/>
-      <c r="K51" s="185"/>
-      <c r="L51" s="185"/>
-      <c r="M51" s="185"/>
-      <c r="N51" s="185"/>
-      <c r="O51" s="185"/>
-      <c r="P51" s="185"/>
-      <c r="Q51" s="185"/>
-      <c r="R51" s="185"/>
-      <c r="S51" s="185"/>
-      <c r="T51" s="185"/>
-      <c r="U51" s="185"/>
-      <c r="V51" s="185"/>
-      <c r="W51" s="185"/>
-      <c r="X51" s="185"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="183"/>
+      <c r="C51" s="183"/>
+      <c r="D51" s="183"/>
+      <c r="E51" s="183"/>
+      <c r="F51" s="183"/>
+      <c r="G51" s="183"/>
+      <c r="H51" s="183"/>
+      <c r="I51" s="183"/>
+      <c r="J51" s="183"/>
+      <c r="K51" s="183"/>
+      <c r="L51" s="183"/>
+      <c r="M51" s="183"/>
+      <c r="N51" s="183"/>
+      <c r="O51" s="183"/>
+      <c r="P51" s="183"/>
+      <c r="Q51" s="183"/>
+      <c r="R51" s="183"/>
+      <c r="S51" s="183"/>
+      <c r="T51" s="183"/>
+      <c r="U51" s="183"/>
+      <c r="V51" s="183"/>
+      <c r="W51" s="183"/>
+      <c r="X51" s="183"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A52" s="185"/>
-      <c r="B52" s="185"/>
-      <c r="C52" s="185"/>
-      <c r="D52" s="185"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185"/>
-      <c r="H52" s="185"/>
-      <c r="I52" s="185"/>
-      <c r="J52" s="185"/>
-      <c r="K52" s="185"/>
-      <c r="L52" s="185"/>
-      <c r="M52" s="185"/>
-      <c r="N52" s="185"/>
-      <c r="O52" s="185"/>
-      <c r="P52" s="185"/>
-      <c r="Q52" s="185"/>
-      <c r="R52" s="185"/>
-      <c r="S52" s="185"/>
-      <c r="T52" s="185"/>
-      <c r="U52" s="185"/>
-      <c r="V52" s="185"/>
-      <c r="W52" s="185"/>
-      <c r="X52" s="185"/>
+      <c r="A52" s="183"/>
+      <c r="B52" s="183"/>
+      <c r="C52" s="183"/>
+      <c r="D52" s="183"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="183"/>
+      <c r="G52" s="183"/>
+      <c r="H52" s="183"/>
+      <c r="I52" s="183"/>
+      <c r="J52" s="183"/>
+      <c r="K52" s="183"/>
+      <c r="L52" s="183"/>
+      <c r="M52" s="183"/>
+      <c r="N52" s="183"/>
+      <c r="O52" s="183"/>
+      <c r="P52" s="183"/>
+      <c r="Q52" s="183"/>
+      <c r="R52" s="183"/>
+      <c r="S52" s="183"/>
+      <c r="T52" s="183"/>
+      <c r="U52" s="183"/>
+      <c r="V52" s="183"/>
+      <c r="W52" s="183"/>
+      <c r="X52" s="183"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A53" s="185"/>
-      <c r="B53" s="185"/>
-      <c r="C53" s="185"/>
-      <c r="D53" s="185"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="185"/>
-      <c r="G53" s="185"/>
-      <c r="H53" s="185"/>
-      <c r="I53" s="185"/>
-      <c r="J53" s="185"/>
-      <c r="K53" s="185"/>
-      <c r="L53" s="185"/>
-      <c r="M53" s="185"/>
-      <c r="N53" s="185"/>
-      <c r="O53" s="185"/>
-      <c r="P53" s="185"/>
-      <c r="Q53" s="185"/>
-      <c r="R53" s="185"/>
-      <c r="S53" s="185"/>
-      <c r="T53" s="185"/>
-      <c r="U53" s="185"/>
-      <c r="V53" s="185"/>
-      <c r="W53" s="185"/>
-      <c r="X53" s="185"/>
+      <c r="A53" s="183"/>
+      <c r="B53" s="183"/>
+      <c r="C53" s="183"/>
+      <c r="D53" s="183"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="183"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="183"/>
+      <c r="I53" s="183"/>
+      <c r="J53" s="183"/>
+      <c r="K53" s="183"/>
+      <c r="L53" s="183"/>
+      <c r="M53" s="183"/>
+      <c r="N53" s="183"/>
+      <c r="O53" s="183"/>
+      <c r="P53" s="183"/>
+      <c r="Q53" s="183"/>
+      <c r="R53" s="183"/>
+      <c r="S53" s="183"/>
+      <c r="T53" s="183"/>
+      <c r="U53" s="183"/>
+      <c r="V53" s="183"/>
+      <c r="W53" s="183"/>
+      <c r="X53" s="183"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A54" s="185"/>
-      <c r="B54" s="185"/>
-      <c r="C54" s="185"/>
-      <c r="D54" s="185"/>
-      <c r="E54" s="185"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="185"/>
-      <c r="H54" s="185"/>
-      <c r="I54" s="185"/>
-      <c r="J54" s="185"/>
-      <c r="K54" s="185"/>
-      <c r="L54" s="185"/>
-      <c r="M54" s="185"/>
-      <c r="N54" s="185"/>
-      <c r="O54" s="185"/>
-      <c r="P54" s="185"/>
-      <c r="Q54" s="185"/>
-      <c r="R54" s="185"/>
-      <c r="S54" s="185"/>
-      <c r="T54" s="185"/>
-      <c r="U54" s="185"/>
-      <c r="V54" s="185"/>
-      <c r="W54" s="185"/>
-      <c r="X54" s="185"/>
+      <c r="A54" s="183"/>
+      <c r="B54" s="183"/>
+      <c r="C54" s="183"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="183"/>
+      <c r="F54" s="183"/>
+      <c r="G54" s="183"/>
+      <c r="H54" s="183"/>
+      <c r="I54" s="183"/>
+      <c r="J54" s="183"/>
+      <c r="K54" s="183"/>
+      <c r="L54" s="183"/>
+      <c r="M54" s="183"/>
+      <c r="N54" s="183"/>
+      <c r="O54" s="183"/>
+      <c r="P54" s="183"/>
+      <c r="Q54" s="183"/>
+      <c r="R54" s="183"/>
+      <c r="S54" s="183"/>
+      <c r="T54" s="183"/>
+      <c r="U54" s="183"/>
+      <c r="V54" s="183"/>
+      <c r="W54" s="183"/>
+      <c r="X54" s="183"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A55" s="185"/>
-      <c r="B55" s="185"/>
-      <c r="C55" s="185"/>
-      <c r="D55" s="185"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="185"/>
-      <c r="H55" s="185"/>
-      <c r="I55" s="185"/>
-      <c r="J55" s="185"/>
-      <c r="K55" s="185"/>
-      <c r="L55" s="185"/>
-      <c r="M55" s="185"/>
-      <c r="N55" s="185"/>
-      <c r="O55" s="185"/>
-      <c r="P55" s="185"/>
-      <c r="Q55" s="185"/>
-      <c r="R55" s="185"/>
-      <c r="S55" s="185"/>
-      <c r="T55" s="185"/>
-      <c r="U55" s="185"/>
-      <c r="V55" s="185"/>
-      <c r="W55" s="185"/>
-      <c r="X55" s="185"/>
+      <c r="A55" s="183"/>
+      <c r="B55" s="183"/>
+      <c r="C55" s="183"/>
+      <c r="D55" s="183"/>
+      <c r="E55" s="183"/>
+      <c r="F55" s="183"/>
+      <c r="G55" s="183"/>
+      <c r="H55" s="183"/>
+      <c r="I55" s="183"/>
+      <c r="J55" s="183"/>
+      <c r="K55" s="183"/>
+      <c r="L55" s="183"/>
+      <c r="M55" s="183"/>
+      <c r="N55" s="183"/>
+      <c r="O55" s="183"/>
+      <c r="P55" s="183"/>
+      <c r="Q55" s="183"/>
+      <c r="R55" s="183"/>
+      <c r="S55" s="183"/>
+      <c r="T55" s="183"/>
+      <c r="U55" s="183"/>
+      <c r="V55" s="183"/>
+      <c r="W55" s="183"/>
+      <c r="X55" s="183"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A56" s="185"/>
-      <c r="B56" s="185"/>
-      <c r="C56" s="185"/>
-      <c r="D56" s="185"/>
-      <c r="E56" s="185"/>
-      <c r="F56" s="185"/>
-      <c r="G56" s="185"/>
-      <c r="H56" s="185"/>
-      <c r="I56" s="185"/>
-      <c r="J56" s="185"/>
-      <c r="K56" s="185"/>
-      <c r="L56" s="185"/>
-      <c r="M56" s="185"/>
-      <c r="N56" s="185"/>
-      <c r="O56" s="185"/>
-      <c r="P56" s="185"/>
-      <c r="Q56" s="185"/>
-      <c r="R56" s="185"/>
-      <c r="S56" s="185"/>
-      <c r="T56" s="185"/>
-      <c r="U56" s="185"/>
-      <c r="V56" s="185"/>
-      <c r="W56" s="185"/>
-      <c r="X56" s="185"/>
+      <c r="A56" s="183"/>
+      <c r="B56" s="183"/>
+      <c r="C56" s="183"/>
+      <c r="D56" s="183"/>
+      <c r="E56" s="183"/>
+      <c r="F56" s="183"/>
+      <c r="G56" s="183"/>
+      <c r="H56" s="183"/>
+      <c r="I56" s="183"/>
+      <c r="J56" s="183"/>
+      <c r="K56" s="183"/>
+      <c r="L56" s="183"/>
+      <c r="M56" s="183"/>
+      <c r="N56" s="183"/>
+      <c r="O56" s="183"/>
+      <c r="P56" s="183"/>
+      <c r="Q56" s="183"/>
+      <c r="R56" s="183"/>
+      <c r="S56" s="183"/>
+      <c r="T56" s="183"/>
+      <c r="U56" s="183"/>
+      <c r="V56" s="183"/>
+      <c r="W56" s="183"/>
+      <c r="X56" s="183"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A57" s="185"/>
-      <c r="B57" s="185"/>
-      <c r="C57" s="185"/>
-      <c r="D57" s="185"/>
-      <c r="E57" s="185"/>
-      <c r="F57" s="185"/>
-      <c r="G57" s="185"/>
-      <c r="H57" s="185"/>
-      <c r="I57" s="185"/>
-      <c r="J57" s="185"/>
-      <c r="K57" s="185"/>
-      <c r="L57" s="185"/>
-      <c r="M57" s="185"/>
-      <c r="N57" s="185"/>
-      <c r="O57" s="185"/>
-      <c r="P57" s="185"/>
-      <c r="Q57" s="185"/>
-      <c r="R57" s="185"/>
-      <c r="S57" s="185"/>
-      <c r="T57" s="185"/>
-      <c r="U57" s="185"/>
-      <c r="V57" s="185"/>
-      <c r="W57" s="185"/>
-      <c r="X57" s="185"/>
+      <c r="A57" s="183"/>
+      <c r="B57" s="183"/>
+      <c r="C57" s="183"/>
+      <c r="D57" s="183"/>
+      <c r="E57" s="183"/>
+      <c r="F57" s="183"/>
+      <c r="G57" s="183"/>
+      <c r="H57" s="183"/>
+      <c r="I57" s="183"/>
+      <c r="J57" s="183"/>
+      <c r="K57" s="183"/>
+      <c r="L57" s="183"/>
+      <c r="M57" s="183"/>
+      <c r="N57" s="183"/>
+      <c r="O57" s="183"/>
+      <c r="P57" s="183"/>
+      <c r="Q57" s="183"/>
+      <c r="R57" s="183"/>
+      <c r="S57" s="183"/>
+      <c r="T57" s="183"/>
+      <c r="U57" s="183"/>
+      <c r="V57" s="183"/>
+      <c r="W57" s="183"/>
+      <c r="X57" s="183"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A58" s="185"/>
-      <c r="B58" s="185"/>
-      <c r="C58" s="185"/>
-      <c r="D58" s="185"/>
-      <c r="E58" s="185"/>
-      <c r="F58" s="185"/>
-      <c r="G58" s="185"/>
-      <c r="H58" s="185"/>
-      <c r="I58" s="185"/>
-      <c r="J58" s="185"/>
-      <c r="K58" s="185"/>
-      <c r="L58" s="185"/>
-      <c r="M58" s="185"/>
-      <c r="N58" s="185"/>
-      <c r="O58" s="185"/>
-      <c r="P58" s="185"/>
-      <c r="Q58" s="185"/>
-      <c r="R58" s="185"/>
-      <c r="S58" s="185"/>
-      <c r="T58" s="185"/>
-      <c r="U58" s="185"/>
-      <c r="V58" s="185"/>
-      <c r="W58" s="185"/>
-      <c r="X58" s="185"/>
+      <c r="A58" s="183"/>
+      <c r="B58" s="183"/>
+      <c r="C58" s="183"/>
+      <c r="D58" s="183"/>
+      <c r="E58" s="183"/>
+      <c r="F58" s="183"/>
+      <c r="G58" s="183"/>
+      <c r="H58" s="183"/>
+      <c r="I58" s="183"/>
+      <c r="J58" s="183"/>
+      <c r="K58" s="183"/>
+      <c r="L58" s="183"/>
+      <c r="M58" s="183"/>
+      <c r="N58" s="183"/>
+      <c r="O58" s="183"/>
+      <c r="P58" s="183"/>
+      <c r="Q58" s="183"/>
+      <c r="R58" s="183"/>
+      <c r="S58" s="183"/>
+      <c r="T58" s="183"/>
+      <c r="U58" s="183"/>
+      <c r="V58" s="183"/>
+      <c r="W58" s="183"/>
+      <c r="X58" s="183"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A59" s="185"/>
-      <c r="B59" s="185"/>
-      <c r="C59" s="185"/>
-      <c r="D59" s="185"/>
-      <c r="E59" s="185"/>
-      <c r="F59" s="185"/>
-      <c r="G59" s="185"/>
-      <c r="H59" s="185"/>
-      <c r="I59" s="185"/>
-      <c r="J59" s="185"/>
-      <c r="K59" s="185"/>
-      <c r="L59" s="185"/>
-      <c r="M59" s="185"/>
-      <c r="N59" s="185"/>
-      <c r="O59" s="185"/>
-      <c r="P59" s="185"/>
-      <c r="Q59" s="185"/>
-      <c r="R59" s="185"/>
-      <c r="S59" s="185"/>
-      <c r="T59" s="185"/>
-      <c r="U59" s="185"/>
-      <c r="V59" s="185"/>
-      <c r="W59" s="185"/>
-      <c r="X59" s="185"/>
+      <c r="A59" s="183"/>
+      <c r="B59" s="183"/>
+      <c r="C59" s="183"/>
+      <c r="D59" s="183"/>
+      <c r="E59" s="183"/>
+      <c r="F59" s="183"/>
+      <c r="G59" s="183"/>
+      <c r="H59" s="183"/>
+      <c r="I59" s="183"/>
+      <c r="J59" s="183"/>
+      <c r="K59" s="183"/>
+      <c r="L59" s="183"/>
+      <c r="M59" s="183"/>
+      <c r="N59" s="183"/>
+      <c r="O59" s="183"/>
+      <c r="P59" s="183"/>
+      <c r="Q59" s="183"/>
+      <c r="R59" s="183"/>
+      <c r="S59" s="183"/>
+      <c r="T59" s="183"/>
+      <c r="U59" s="183"/>
+      <c r="V59" s="183"/>
+      <c r="W59" s="183"/>
+      <c r="X59" s="183"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A60" s="185"/>
-      <c r="B60" s="185"/>
-      <c r="C60" s="185"/>
-      <c r="D60" s="185"/>
-      <c r="E60" s="185"/>
-      <c r="F60" s="185"/>
-      <c r="G60" s="185"/>
-      <c r="H60" s="185"/>
-      <c r="I60" s="185"/>
-      <c r="J60" s="185"/>
-      <c r="K60" s="185"/>
-      <c r="L60" s="185"/>
-      <c r="M60" s="185"/>
-      <c r="N60" s="185"/>
-      <c r="O60" s="185"/>
-      <c r="P60" s="185"/>
-      <c r="Q60" s="185"/>
-      <c r="R60" s="185"/>
-      <c r="S60" s="185"/>
-      <c r="T60" s="185"/>
-      <c r="U60" s="185"/>
-      <c r="V60" s="185"/>
-      <c r="W60" s="185"/>
-      <c r="X60" s="185"/>
+      <c r="A60" s="183"/>
+      <c r="B60" s="183"/>
+      <c r="C60" s="183"/>
+      <c r="D60" s="183"/>
+      <c r="E60" s="183"/>
+      <c r="F60" s="183"/>
+      <c r="G60" s="183"/>
+      <c r="H60" s="183"/>
+      <c r="I60" s="183"/>
+      <c r="J60" s="183"/>
+      <c r="K60" s="183"/>
+      <c r="L60" s="183"/>
+      <c r="M60" s="183"/>
+      <c r="N60" s="183"/>
+      <c r="O60" s="183"/>
+      <c r="P60" s="183"/>
+      <c r="Q60" s="183"/>
+      <c r="R60" s="183"/>
+      <c r="S60" s="183"/>
+      <c r="T60" s="183"/>
+      <c r="U60" s="183"/>
+      <c r="V60" s="183"/>
+      <c r="W60" s="183"/>
+      <c r="X60" s="183"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A61" s="185"/>
-      <c r="B61" s="185"/>
-      <c r="C61" s="185"/>
-      <c r="D61" s="185"/>
-      <c r="E61" s="185"/>
-      <c r="F61" s="185"/>
-      <c r="G61" s="185"/>
-      <c r="H61" s="185"/>
-      <c r="I61" s="185"/>
-      <c r="J61" s="185"/>
-      <c r="K61" s="185"/>
-      <c r="L61" s="185"/>
-      <c r="M61" s="185"/>
-      <c r="N61" s="185"/>
-      <c r="O61" s="185"/>
-      <c r="P61" s="185"/>
-      <c r="Q61" s="185"/>
-      <c r="R61" s="185"/>
-      <c r="S61" s="185"/>
-      <c r="T61" s="185"/>
-      <c r="U61" s="185"/>
-      <c r="V61" s="185"/>
-      <c r="W61" s="185"/>
-      <c r="X61" s="185"/>
+      <c r="A61" s="183"/>
+      <c r="B61" s="183"/>
+      <c r="C61" s="183"/>
+      <c r="D61" s="183"/>
+      <c r="E61" s="183"/>
+      <c r="F61" s="183"/>
+      <c r="G61" s="183"/>
+      <c r="H61" s="183"/>
+      <c r="I61" s="183"/>
+      <c r="J61" s="183"/>
+      <c r="K61" s="183"/>
+      <c r="L61" s="183"/>
+      <c r="M61" s="183"/>
+      <c r="N61" s="183"/>
+      <c r="O61" s="183"/>
+      <c r="P61" s="183"/>
+      <c r="Q61" s="183"/>
+      <c r="R61" s="183"/>
+      <c r="S61" s="183"/>
+      <c r="T61" s="183"/>
+      <c r="U61" s="183"/>
+      <c r="V61" s="183"/>
+      <c r="W61" s="183"/>
+      <c r="X61" s="183"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A62" s="185"/>
-      <c r="B62" s="185"/>
-      <c r="C62" s="185"/>
-      <c r="D62" s="185"/>
-      <c r="E62" s="185"/>
-      <c r="F62" s="185"/>
-      <c r="G62" s="185"/>
-      <c r="H62" s="185"/>
-      <c r="I62" s="185"/>
-      <c r="J62" s="185"/>
-      <c r="K62" s="185"/>
-      <c r="L62" s="185"/>
-      <c r="M62" s="185"/>
-      <c r="N62" s="185"/>
-      <c r="O62" s="185"/>
-      <c r="P62" s="185"/>
-      <c r="Q62" s="185"/>
-      <c r="R62" s="185"/>
-      <c r="S62" s="185"/>
-      <c r="T62" s="185"/>
-      <c r="U62" s="185"/>
-      <c r="V62" s="185"/>
-      <c r="W62" s="185"/>
-      <c r="X62" s="185"/>
+      <c r="A62" s="183"/>
+      <c r="B62" s="183"/>
+      <c r="C62" s="183"/>
+      <c r="D62" s="183"/>
+      <c r="E62" s="183"/>
+      <c r="F62" s="183"/>
+      <c r="G62" s="183"/>
+      <c r="H62" s="183"/>
+      <c r="I62" s="183"/>
+      <c r="J62" s="183"/>
+      <c r="K62" s="183"/>
+      <c r="L62" s="183"/>
+      <c r="M62" s="183"/>
+      <c r="N62" s="183"/>
+      <c r="O62" s="183"/>
+      <c r="P62" s="183"/>
+      <c r="Q62" s="183"/>
+      <c r="R62" s="183"/>
+      <c r="S62" s="183"/>
+      <c r="T62" s="183"/>
+      <c r="U62" s="183"/>
+      <c r="V62" s="183"/>
+      <c r="W62" s="183"/>
+      <c r="X62" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -27446,7 +27620,7 @@
   <dimension ref="B3:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27455,26 +27629,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="199" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
+      <c r="B3" s="197" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="161" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="161" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="161" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="162" t="s">
         <v>5</v>
@@ -27482,7 +27656,7 @@
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="163" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="163">
         <v>0</v>
@@ -27500,7 +27674,7 @@
     </row>
     <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="162" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="162">
         <v>0</v>
@@ -27511,22 +27685,22 @@
       <c r="E6" s="162">
         <v>0</v>
       </c>
-      <c r="F6" s="164">
-        <f t="shared" ref="F6:F14" si="0">SUM(C6:E6)</f>
+      <c r="F6" s="162">
+        <f t="shared" ref="F6:F16" si="0">SUM(C6:E6)</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="163" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="162">
+        <v>58</v>
+      </c>
+      <c r="C7" s="163">
         <v>0</v>
       </c>
       <c r="D7" s="163">
         <v>1</v>
       </c>
-      <c r="E7" s="162">
+      <c r="E7" s="163">
         <v>0</v>
       </c>
       <c r="F7" s="164">
@@ -27536,7 +27710,7 @@
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="162" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="162">
         <v>1</v>
@@ -27547,14 +27721,14 @@
       <c r="E8" s="162">
         <v>0</v>
       </c>
-      <c r="F8" s="164">
+      <c r="F8" s="162">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="163" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="163">
         <v>0</v>
@@ -27572,7 +27746,7 @@
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="162" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="162">
         <v>0</v>
@@ -27584,14 +27758,14 @@
       <c r="E10" s="162">
         <v>0</v>
       </c>
-      <c r="F10" s="164">
+      <c r="F10" s="162">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="163" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="163">
         <v>0</v>
@@ -27610,7 +27784,7 @@
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="162" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="162">
         <v>1</v>
@@ -27621,14 +27795,14 @@
       <c r="E12" s="162">
         <v>0</v>
       </c>
-      <c r="F12" s="164">
+      <c r="F12" s="162">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="163" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="163">
         <v>0</v>
@@ -27646,7 +27820,7 @@
     </row>
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="162" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="162">
         <v>0</v>
@@ -27656,39 +27830,69 @@
         <v>2</v>
       </c>
       <c r="E14" s="162">
+        <v>0</v>
+      </c>
+      <c r="F14" s="162">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="163" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="163">
         <v>1</v>
       </c>
-      <c r="F14" s="164">
+      <c r="D15" s="163">
+        <v>3</v>
+      </c>
+      <c r="E15" s="163">
+        <v>0</v>
+      </c>
+      <c r="F15" s="164">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="162" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="162">
+        <v>0</v>
+      </c>
+      <c r="D16" s="162">
+        <v>3</v>
+      </c>
+      <c r="E16" s="162">
+        <v>0</v>
+      </c>
+      <c r="F16" s="162">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="163" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="164"/>
-    </row>
-    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="162" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-    </row>
     <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="163" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="164"/>
+        <v>71</v>
+      </c>
+      <c r="C17" s="163">
+        <f>SUM(C5:C16)</f>
+        <v>3</v>
+      </c>
+      <c r="D17" s="163">
+        <f t="shared" ref="D17:F17" si="1">SUM(D5:D16)</f>
+        <v>29</v>
+      </c>
+      <c r="E17" s="163">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="164">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -27706,15 +27910,15 @@
   </sheetPr>
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27740,6 +27944,7 @@
       <c r="E3" s="77">
         <v>6591</v>
       </c>
+      <c r="H3" s="198"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B4" s="71">
@@ -27752,9 +27957,7 @@
       <c r="E4" s="76">
         <v>1933</v>
       </c>
-      <c r="H4" s="200" t="s">
-        <v>53</v>
-      </c>
+      <c r="H4" s="198"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B5" s="71">
@@ -27767,7 +27970,7 @@
       <c r="E5" s="77">
         <v>6596</v>
       </c>
-      <c r="H5" s="200"/>
+      <c r="H5" s="198"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B6" s="71">
@@ -27780,7 +27983,7 @@
       <c r="E6" s="76">
         <v>4383</v>
       </c>
-      <c r="H6" s="200"/>
+      <c r="H6" s="198"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B7" s="71">
@@ -27793,7 +27996,7 @@
       <c r="E7" s="77">
         <v>9263</v>
       </c>
-      <c r="H7" s="200"/>
+      <c r="H7" s="198"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="71">
@@ -27806,7 +28009,7 @@
       <c r="E8" s="76">
         <v>11800</v>
       </c>
-      <c r="H8" s="200"/>
+      <c r="H8" s="198"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B9" s="71">
@@ -27819,7 +28022,7 @@
       <c r="E9" s="77">
         <v>12555</v>
       </c>
-      <c r="H9" s="200"/>
+      <c r="H9" s="198"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B10" s="71">
@@ -27832,7 +28035,7 @@
       <c r="E10" s="76">
         <v>16370</v>
       </c>
-      <c r="H10" s="200"/>
+      <c r="H10" s="198"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B11" s="71">
@@ -27845,7 +28048,7 @@
       <c r="E11" s="77">
         <v>14493</v>
       </c>
-      <c r="H11" s="200"/>
+      <c r="H11" s="198"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B12" s="71">
@@ -27858,35 +28061,40 @@
       <c r="E12" s="76">
         <v>12408</v>
       </c>
-      <c r="H12" s="200"/>
+      <c r="H12" s="198"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B13" s="71">
         <v>45597</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="72">
+        <v>1478520.51</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="77"/>
-      <c r="H13" s="200"/>
+      <c r="E13" s="77">
+        <v>14000</v>
+      </c>
+      <c r="H13" s="198"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B14" s="71">
         <v>45627</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="73">
+        <v>992159.11</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="76"/>
-      <c r="H14" s="200"/>
+      <c r="E14" s="76">
+        <v>8752</v>
+      </c>
+      <c r="H14" s="198"/>
     </row>
     <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="63"/>
       <c r="C15" s="64"/>
-      <c r="H15" s="200"/>
+      <c r="H15" s="199"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H4:H15"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -27900,7 +28108,7 @@
   <dimension ref="A1:AF52"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27984,7 +28192,7 @@
         <f>470.5+1543.45+1543.45+192.5+122.48+500</f>
         <v>4372.38</v>
       </c>
-      <c r="D3" s="186"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -28006,7 +28214,7 @@
         <f>200+253.76+596+150+150+600+792+792</f>
         <v>3533.76</v>
       </c>
-      <c r="D4" s="186"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -28027,7 +28235,7 @@
         <f>666.67+250+933.05+135.58+312.2</f>
         <v>2297.4999999999995</v>
       </c>
-      <c r="D5" s="186"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -28049,7 +28257,7 @@
         <f>356.61+453.61+271.43+121.75+360+356.61</f>
         <v>1920.0100000000002</v>
       </c>
-      <c r="D6" s="186"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -28068,10 +28276,10 @@
         <v>400</v>
       </c>
       <c r="C7" s="116">
-        <f>120+120+384+397.39+452.33</f>
-        <v>1473.72</v>
-      </c>
-      <c r="D7" s="186"/>
+        <f>360+120+120+384+397.39+452.33</f>
+        <v>1833.7199999999998</v>
+      </c>
+      <c r="D7" s="184"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -28093,7 +28301,7 @@
         <f>540+151.52+50+1062+4530</f>
         <v>6333.52</v>
       </c>
-      <c r="D8" s="186"/>
+      <c r="D8" s="184"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -28177,8 +28385,8 @@
         <v>400</v>
       </c>
       <c r="C12" s="116">
-        <f>300+100+300+196.66+2703.333+38.73+469.16+653.08+53.95+66.66+2578+49.56+150+50+210+133.33+0+0+0+263.2+0+50+50+36.66</f>
-        <v>8452.3230000000003</v>
+        <f>300+100+300+196.66+2703.33+38.73+469.16+653.08+53.95+66.66+2578+49.56+150+50+210+133.33+558.86+8.33+41.6+263.2+2443.33+50+50+36.66</f>
+        <v>11504.44</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="4"/>
@@ -28194,8 +28402,14 @@
       <c r="A13" s="115">
         <v>45597</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
+      <c r="B13" s="116">
+        <f>200+200+200</f>
+        <v>600</v>
+      </c>
+      <c r="C13" s="116">
+        <f>495.46+166.7+91.66+0+744.4+33.33+586.66+476.66+18.33+35+18.33+108.33+175+175+780+110+350+10+58.33</f>
+        <v>4433.1899999999987</v>
+      </c>
       <c r="D13" s="32"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -28210,8 +28424,14 @@
       <c r="A14" s="115">
         <v>45627</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
+      <c r="B14" s="116">
+        <f>200+200+200</f>
+        <v>600</v>
+      </c>
+      <c r="C14" s="116">
+        <f>50+0+33.33+240+250+100+100+0+92.78+5250</f>
+        <v>6116.11</v>
+      </c>
       <c r="D14" s="32"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -28228,11 +28448,11 @@
       </c>
       <c r="B15" s="116">
         <f>SUM(B3:B14)</f>
-        <v>4400</v>
+        <v>5600</v>
       </c>
       <c r="C15" s="116">
         <f>SUM(C3:C14)</f>
-        <v>35793.642999999996</v>
+        <v>49755.06</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="34"/>
@@ -28589,22 +28809,22 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="187"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="187"/>
-      <c r="K42" s="187"/>
-      <c r="L42" s="187"/>
-      <c r="M42" s="187"/>
-      <c r="N42" s="187"/>
-      <c r="O42" s="187"/>
-      <c r="P42" s="187"/>
-      <c r="Q42" s="188"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="185"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="185"/>
+      <c r="K42" s="185"/>
+      <c r="L42" s="185"/>
+      <c r="M42" s="185"/>
+      <c r="N42" s="185"/>
+      <c r="O42" s="185"/>
+      <c r="P42" s="185"/>
+      <c r="Q42" s="186"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
@@ -28790,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="127" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="130"/>
       <c r="E3" s="128"/>
@@ -29133,7 +29353,7 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="H1" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="K1" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29230,7 +29450,7 @@
       </c>
       <c r="C7" s="58">
         <f>'Custo NC '!C7</f>
-        <v>1473.72</v>
+        <v>1833.7199999999998</v>
       </c>
       <c r="N7" s="52"/>
     </row>
@@ -29300,7 +29520,7 @@
       </c>
       <c r="C12" s="58">
         <f>'Custo NC '!C12</f>
-        <v>8452.3230000000003</v>
+        <v>11504.44</v>
       </c>
       <c r="N12" s="52"/>
     </row>
@@ -29310,11 +29530,11 @@
       </c>
       <c r="B13" s="58">
         <f>'Custo NC '!B13</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C13" s="58">
         <f>'Custo NC '!C13</f>
-        <v>0</v>
+        <v>4433.1899999999987</v>
       </c>
       <c r="N13" s="52"/>
     </row>
@@ -29324,11 +29544,11 @@
       </c>
       <c r="B14" s="58">
         <f>'Custo NC '!B14</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C14" s="58">
         <f>'Custo NC '!C14</f>
-        <v>0</v>
+        <v>6116.11</v>
       </c>
       <c r="N14" s="52"/>
     </row>
@@ -29338,11 +29558,11 @@
       </c>
       <c r="B15" s="58">
         <f>'Custo NC '!B15</f>
-        <v>4400</v>
+        <v>5600</v>
       </c>
       <c r="C15" s="58">
         <f>'Custo NC '!C15</f>
-        <v>35793.642999999996</v>
+        <v>49755.06</v>
       </c>
       <c r="N15" s="52"/>
     </row>
@@ -29352,7 +29572,7 @@
       </c>
       <c r="B16" s="61">
         <f>SUM(B15:C15)</f>
-        <v>40193.642999999996</v>
+        <v>55355.06</v>
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="54"/>
@@ -29381,7 +29601,7 @@
   </sheetPr>
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -29417,35 +29637,35 @@
   <sheetData>
     <row r="1" spans="1:27" ht="108.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:27" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="195"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
     </row>
     <row r="3" spans="1:27" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="67" t="s">
@@ -29454,10 +29674,10 @@
       <c r="B3" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="184" t="s">
+      <c r="D3" s="182" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="70" t="s">
@@ -29468,18 +29688,18 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="189"/>
-      <c r="Z3" s="189"/>
-      <c r="AA3" s="190"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="187"/>
+      <c r="U3" s="187"/>
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="188"/>
     </row>
     <row r="4" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
@@ -29489,7 +29709,7 @@
         <f>470.5+192.5</f>
         <v>663</v>
       </c>
-      <c r="C4" s="183">
+      <c r="C4" s="181">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D4" s="149">
@@ -29505,18 +29725,18 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="P4" s="191"/>
-      <c r="Q4" s="191"/>
-      <c r="R4" s="191"/>
-      <c r="S4" s="191"/>
-      <c r="T4" s="191"/>
-      <c r="U4" s="191"/>
-      <c r="V4" s="191"/>
-      <c r="W4" s="191"/>
-      <c r="X4" s="191"/>
-      <c r="Y4" s="191"/>
-      <c r="Z4" s="191"/>
-      <c r="AA4" s="192"/>
+      <c r="P4" s="189"/>
+      <c r="Q4" s="189"/>
+      <c r="R4" s="189"/>
+      <c r="S4" s="189"/>
+      <c r="T4" s="189"/>
+      <c r="U4" s="189"/>
+      <c r="V4" s="189"/>
+      <c r="W4" s="189"/>
+      <c r="X4" s="189"/>
+      <c r="Y4" s="189"/>
+      <c r="Z4" s="189"/>
+      <c r="AA4" s="190"/>
     </row>
     <row r="5" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
@@ -29526,7 +29746,7 @@
         <f>253.76+596</f>
         <v>849.76</v>
       </c>
-      <c r="C5" s="183">
+      <c r="C5" s="181">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D5" s="149">
@@ -29542,18 +29762,18 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="P5" s="191"/>
-      <c r="Q5" s="191"/>
-      <c r="R5" s="191"/>
-      <c r="S5" s="191"/>
-      <c r="T5" s="191"/>
-      <c r="U5" s="191"/>
-      <c r="V5" s="191"/>
-      <c r="W5" s="191"/>
-      <c r="X5" s="191"/>
-      <c r="Y5" s="191"/>
-      <c r="Z5" s="191"/>
-      <c r="AA5" s="192"/>
+      <c r="P5" s="189"/>
+      <c r="Q5" s="189"/>
+      <c r="R5" s="189"/>
+      <c r="S5" s="189"/>
+      <c r="T5" s="189"/>
+      <c r="U5" s="189"/>
+      <c r="V5" s="189"/>
+      <c r="W5" s="189"/>
+      <c r="X5" s="189"/>
+      <c r="Y5" s="189"/>
+      <c r="Z5" s="189"/>
+      <c r="AA5" s="190"/>
     </row>
     <row r="6" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
@@ -29563,7 +29783,7 @@
         <f>933.05+135.58+312.2</f>
         <v>1380.83</v>
       </c>
-      <c r="C6" s="183">
+      <c r="C6" s="181">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D6" s="149">
@@ -29579,18 +29799,18 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="191"/>
-      <c r="W6" s="191"/>
-      <c r="X6" s="191"/>
-      <c r="Y6" s="191"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="192"/>
+      <c r="P6" s="189"/>
+      <c r="Q6" s="189"/>
+      <c r="R6" s="189"/>
+      <c r="S6" s="189"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="189"/>
+      <c r="V6" s="189"/>
+      <c r="W6" s="189"/>
+      <c r="X6" s="189"/>
+      <c r="Y6" s="189"/>
+      <c r="Z6" s="189"/>
+      <c r="AA6" s="190"/>
     </row>
     <row r="7" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
@@ -29600,7 +29820,7 @@
         <f>356.61+356.61</f>
         <v>713.22</v>
       </c>
-      <c r="C7" s="183">
+      <c r="C7" s="181">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D7" s="149">
@@ -29616,18 +29836,18 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="P7" s="191"/>
-      <c r="Q7" s="191"/>
-      <c r="R7" s="191"/>
-      <c r="S7" s="191"/>
-      <c r="T7" s="191"/>
-      <c r="U7" s="191"/>
-      <c r="V7" s="191"/>
-      <c r="W7" s="191"/>
-      <c r="X7" s="191"/>
-      <c r="Y7" s="191"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="192"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="189"/>
+      <c r="R7" s="189"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="189"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="189"/>
+      <c r="Y7" s="189"/>
+      <c r="Z7" s="189"/>
+      <c r="AA7" s="190"/>
     </row>
     <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
@@ -29637,7 +29857,7 @@
         <f>452.33</f>
         <v>452.33</v>
       </c>
-      <c r="C8" s="183">
+      <c r="C8" s="181">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D8" s="149">
@@ -29653,18 +29873,18 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="P8" s="191"/>
-      <c r="Q8" s="191"/>
-      <c r="R8" s="191"/>
-      <c r="S8" s="191"/>
-      <c r="T8" s="191"/>
-      <c r="U8" s="191"/>
-      <c r="V8" s="191"/>
-      <c r="W8" s="191"/>
-      <c r="X8" s="191"/>
-      <c r="Y8" s="191"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="192"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="189"/>
+      <c r="R8" s="189"/>
+      <c r="S8" s="189"/>
+      <c r="T8" s="189"/>
+      <c r="U8" s="189"/>
+      <c r="V8" s="189"/>
+      <c r="W8" s="189"/>
+      <c r="X8" s="189"/>
+      <c r="Y8" s="189"/>
+      <c r="Z8" s="189"/>
+      <c r="AA8" s="190"/>
     </row>
     <row r="9" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
@@ -29674,7 +29894,7 @@
         <f>1062</f>
         <v>1062</v>
       </c>
-      <c r="C9" s="183">
+      <c r="C9" s="181">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D9" s="149">
@@ -29690,18 +29910,18 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="191"/>
-      <c r="R9" s="191"/>
-      <c r="S9" s="191"/>
-      <c r="T9" s="191"/>
-      <c r="U9" s="191"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="191"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="192"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="189"/>
+      <c r="R9" s="189"/>
+      <c r="S9" s="189"/>
+      <c r="T9" s="189"/>
+      <c r="U9" s="189"/>
+      <c r="V9" s="189"/>
+      <c r="W9" s="189"/>
+      <c r="X9" s="189"/>
+      <c r="Y9" s="189"/>
+      <c r="Z9" s="189"/>
+      <c r="AA9" s="190"/>
     </row>
     <row r="10" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="68">
@@ -29711,7 +29931,7 @@
         <f>25.9+262.84</f>
         <v>288.73999999999995</v>
       </c>
-      <c r="C10" s="183">
+      <c r="C10" s="181">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D10" s="149">
@@ -29727,18 +29947,18 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="P10" s="191"/>
-      <c r="Q10" s="191"/>
-      <c r="R10" s="191"/>
-      <c r="S10" s="191"/>
-      <c r="T10" s="191"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="191"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="191"/>
-      <c r="Y10" s="191"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="192"/>
+      <c r="P10" s="189"/>
+      <c r="Q10" s="189"/>
+      <c r="R10" s="189"/>
+      <c r="S10" s="189"/>
+      <c r="T10" s="189"/>
+      <c r="U10" s="189"/>
+      <c r="V10" s="189"/>
+      <c r="W10" s="189"/>
+      <c r="X10" s="189"/>
+      <c r="Y10" s="189"/>
+      <c r="Z10" s="189"/>
+      <c r="AA10" s="190"/>
     </row>
     <row r="11" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="68">
@@ -29748,7 +29968,7 @@
         <f>1268.77</f>
         <v>1268.77</v>
       </c>
-      <c r="C11" s="183">
+      <c r="C11" s="181">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D11" s="149">
@@ -29764,18 +29984,18 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="P11" s="191"/>
-      <c r="Q11" s="191"/>
-      <c r="R11" s="191"/>
-      <c r="S11" s="191"/>
-      <c r="T11" s="191"/>
-      <c r="U11" s="191"/>
-      <c r="V11" s="191"/>
-      <c r="W11" s="191"/>
-      <c r="X11" s="191"/>
-      <c r="Y11" s="191"/>
-      <c r="Z11" s="191"/>
-      <c r="AA11" s="192"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="189"/>
+      <c r="R11" s="189"/>
+      <c r="S11" s="189"/>
+      <c r="T11" s="189"/>
+      <c r="U11" s="189"/>
+      <c r="V11" s="189"/>
+      <c r="W11" s="189"/>
+      <c r="X11" s="189"/>
+      <c r="Y11" s="189"/>
+      <c r="Z11" s="189"/>
+      <c r="AA11" s="190"/>
     </row>
     <row r="12" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="68">
@@ -29785,7 +30005,7 @@
         <f>320.88</f>
         <v>320.88</v>
       </c>
-      <c r="C12" s="183">
+      <c r="C12" s="181">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D12" s="149">
@@ -29801,18 +30021,18 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="P12" s="191"/>
-      <c r="Q12" s="191"/>
-      <c r="R12" s="191"/>
-      <c r="S12" s="191"/>
-      <c r="T12" s="191"/>
-      <c r="U12" s="191"/>
-      <c r="V12" s="191"/>
-      <c r="W12" s="191"/>
-      <c r="X12" s="191"/>
-      <c r="Y12" s="191"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="192"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="189"/>
+      <c r="S12" s="189"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="189"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="189"/>
+      <c r="Y12" s="189"/>
+      <c r="Z12" s="189"/>
+      <c r="AA12" s="190"/>
     </row>
     <row r="13" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="68">
@@ -29822,7 +30042,7 @@
         <f>300+469.16+653.08+53.95+2578+49.56+263.2+36.66</f>
         <v>4403.6100000000006</v>
       </c>
-      <c r="C13" s="183">
+      <c r="C13" s="181">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D13" s="149">
@@ -29838,86 +30058,92 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="P13" s="191"/>
-      <c r="Q13" s="191"/>
-      <c r="R13" s="191"/>
-      <c r="S13" s="191"/>
-      <c r="T13" s="191"/>
-      <c r="U13" s="191"/>
-      <c r="V13" s="191"/>
-      <c r="W13" s="191"/>
-      <c r="X13" s="191"/>
-      <c r="Y13" s="191"/>
-      <c r="Z13" s="191"/>
-      <c r="AA13" s="192"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="189"/>
+      <c r="S13" s="189"/>
+      <c r="T13" s="189"/>
+      <c r="U13" s="189"/>
+      <c r="V13" s="189"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="189"/>
+      <c r="Y13" s="189"/>
+      <c r="Z13" s="189"/>
+      <c r="AA13" s="190"/>
     </row>
     <row r="14" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="68">
         <v>45597</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="183">
+      <c r="B14" s="101">
+        <f>495.46+166.7+91.66+744.4+350</f>
+        <v>1848.2199999999998</v>
+      </c>
+      <c r="C14" s="181">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D14" s="149">
         <f>DADOS!C13</f>
-        <v>0</v>
+        <v>1478520.51</v>
       </c>
       <c r="E14" s="148">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3696.3012750000003</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="191"/>
-      <c r="T14" s="191"/>
-      <c r="U14" s="191"/>
-      <c r="V14" s="191"/>
-      <c r="W14" s="191"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="191"/>
-      <c r="Z14" s="191"/>
-      <c r="AA14" s="192"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="189"/>
+      <c r="S14" s="189"/>
+      <c r="T14" s="189"/>
+      <c r="U14" s="189"/>
+      <c r="V14" s="189"/>
+      <c r="W14" s="189"/>
+      <c r="X14" s="189"/>
+      <c r="Y14" s="189"/>
+      <c r="Z14" s="189"/>
+      <c r="AA14" s="190"/>
     </row>
     <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="68">
         <v>45627</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="183">
+      <c r="B15" s="101">
+        <f>92.78</f>
+        <v>92.78</v>
+      </c>
+      <c r="C15" s="181">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D15" s="149">
         <f>DADOS!C14</f>
-        <v>0</v>
+        <v>992159.11</v>
       </c>
       <c r="E15" s="148">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2480.3977749999999</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="191"/>
-      <c r="R15" s="191"/>
-      <c r="S15" s="191"/>
-      <c r="T15" s="191"/>
-      <c r="U15" s="191"/>
-      <c r="V15" s="191"/>
-      <c r="W15" s="191"/>
-      <c r="X15" s="191"/>
-      <c r="Y15" s="191"/>
-      <c r="Z15" s="191"/>
-      <c r="AA15" s="192"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="189"/>
+      <c r="S15" s="189"/>
+      <c r="T15" s="189"/>
+      <c r="U15" s="189"/>
+      <c r="V15" s="189"/>
+      <c r="W15" s="189"/>
+      <c r="X15" s="189"/>
+      <c r="Y15" s="189"/>
+      <c r="Z15" s="189"/>
+      <c r="AA15" s="190"/>
     </row>
     <row r="16" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
@@ -29925,7 +30151,7 @@
       </c>
       <c r="B16" s="101">
         <f>SUM(B4:B15)</f>
-        <v>11403.14</v>
+        <v>13344.14</v>
       </c>
       <c r="C16" s="150"/>
       <c r="D16" s="149">
@@ -29941,18 +30167,18 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="P16" s="191"/>
-      <c r="Q16" s="191"/>
-      <c r="R16" s="191"/>
-      <c r="S16" s="191"/>
-      <c r="T16" s="191"/>
-      <c r="U16" s="191"/>
-      <c r="V16" s="191"/>
-      <c r="W16" s="191"/>
-      <c r="X16" s="191"/>
-      <c r="Y16" s="191"/>
-      <c r="Z16" s="191"/>
-      <c r="AA16" s="192"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="189"/>
+      <c r="R16" s="189"/>
+      <c r="S16" s="189"/>
+      <c r="T16" s="189"/>
+      <c r="U16" s="189"/>
+      <c r="V16" s="189"/>
+      <c r="W16" s="189"/>
+      <c r="X16" s="189"/>
+      <c r="Y16" s="189"/>
+      <c r="Z16" s="189"/>
+      <c r="AA16" s="190"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -29965,18 +30191,18 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="P17" s="191"/>
-      <c r="Q17" s="191"/>
-      <c r="R17" s="191"/>
-      <c r="S17" s="191"/>
-      <c r="T17" s="191"/>
-      <c r="U17" s="191"/>
-      <c r="V17" s="191"/>
-      <c r="W17" s="191"/>
-      <c r="X17" s="191"/>
-      <c r="Y17" s="191"/>
-      <c r="Z17" s="191"/>
-      <c r="AA17" s="192"/>
+      <c r="P17" s="189"/>
+      <c r="Q17" s="189"/>
+      <c r="R17" s="189"/>
+      <c r="S17" s="189"/>
+      <c r="T17" s="189"/>
+      <c r="U17" s="189"/>
+      <c r="V17" s="189"/>
+      <c r="W17" s="189"/>
+      <c r="X17" s="189"/>
+      <c r="Y17" s="189"/>
+      <c r="Z17" s="189"/>
+      <c r="AA17" s="190"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -29989,18 +30215,18 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="P18" s="191"/>
-      <c r="Q18" s="191"/>
-      <c r="R18" s="191"/>
-      <c r="S18" s="191"/>
-      <c r="T18" s="191"/>
-      <c r="U18" s="191"/>
-      <c r="V18" s="191"/>
-      <c r="W18" s="191"/>
-      <c r="X18" s="191"/>
-      <c r="Y18" s="191"/>
-      <c r="Z18" s="191"/>
-      <c r="AA18" s="192"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="189"/>
+      <c r="S18" s="189"/>
+      <c r="T18" s="189"/>
+      <c r="U18" s="189"/>
+      <c r="V18" s="189"/>
+      <c r="W18" s="189"/>
+      <c r="X18" s="189"/>
+      <c r="Y18" s="189"/>
+      <c r="Z18" s="189"/>
+      <c r="AA18" s="190"/>
     </row>
     <row r="19" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -30013,18 +30239,18 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="P19" s="191"/>
-      <c r="Q19" s="191"/>
-      <c r="R19" s="191"/>
-      <c r="S19" s="191"/>
-      <c r="T19" s="191"/>
-      <c r="U19" s="191"/>
-      <c r="V19" s="191"/>
-      <c r="W19" s="191"/>
-      <c r="X19" s="191"/>
-      <c r="Y19" s="191"/>
-      <c r="Z19" s="191"/>
-      <c r="AA19" s="192"/>
+      <c r="P19" s="189"/>
+      <c r="Q19" s="189"/>
+      <c r="R19" s="189"/>
+      <c r="S19" s="189"/>
+      <c r="T19" s="189"/>
+      <c r="U19" s="189"/>
+      <c r="V19" s="189"/>
+      <c r="W19" s="189"/>
+      <c r="X19" s="189"/>
+      <c r="Y19" s="189"/>
+      <c r="Z19" s="189"/>
+      <c r="AA19" s="190"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -30042,18 +30268,18 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="P20" s="191"/>
-      <c r="Q20" s="191"/>
-      <c r="R20" s="191"/>
-      <c r="S20" s="191"/>
-      <c r="T20" s="191"/>
-      <c r="U20" s="191"/>
-      <c r="V20" s="191"/>
-      <c r="W20" s="191"/>
-      <c r="X20" s="191"/>
-      <c r="Y20" s="191"/>
-      <c r="Z20" s="191"/>
-      <c r="AA20" s="192"/>
+      <c r="P20" s="189"/>
+      <c r="Q20" s="189"/>
+      <c r="R20" s="189"/>
+      <c r="S20" s="189"/>
+      <c r="T20" s="189"/>
+      <c r="U20" s="189"/>
+      <c r="V20" s="189"/>
+      <c r="W20" s="189"/>
+      <c r="X20" s="189"/>
+      <c r="Y20" s="189"/>
+      <c r="Z20" s="189"/>
+      <c r="AA20" s="190"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
@@ -30071,18 +30297,18 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="P21" s="191"/>
-      <c r="Q21" s="191"/>
-      <c r="R21" s="191"/>
-      <c r="S21" s="191"/>
-      <c r="T21" s="191"/>
-      <c r="U21" s="191"/>
-      <c r="V21" s="191"/>
-      <c r="W21" s="191"/>
-      <c r="X21" s="191"/>
-      <c r="Y21" s="191"/>
-      <c r="Z21" s="191"/>
-      <c r="AA21" s="192"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="189"/>
+      <c r="R21" s="189"/>
+      <c r="S21" s="189"/>
+      <c r="T21" s="189"/>
+      <c r="U21" s="189"/>
+      <c r="V21" s="189"/>
+      <c r="W21" s="189"/>
+      <c r="X21" s="189"/>
+      <c r="Y21" s="189"/>
+      <c r="Z21" s="189"/>
+      <c r="AA21" s="190"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
@@ -30100,18 +30326,18 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="P22" s="191"/>
-      <c r="Q22" s="191"/>
-      <c r="R22" s="191"/>
-      <c r="S22" s="191"/>
-      <c r="T22" s="191"/>
-      <c r="U22" s="191"/>
-      <c r="V22" s="191"/>
-      <c r="W22" s="191"/>
-      <c r="X22" s="191"/>
-      <c r="Y22" s="191"/>
-      <c r="Z22" s="191"/>
-      <c r="AA22" s="192"/>
+      <c r="P22" s="189"/>
+      <c r="Q22" s="189"/>
+      <c r="R22" s="189"/>
+      <c r="S22" s="189"/>
+      <c r="T22" s="189"/>
+      <c r="U22" s="189"/>
+      <c r="V22" s="189"/>
+      <c r="W22" s="189"/>
+      <c r="X22" s="189"/>
+      <c r="Y22" s="189"/>
+      <c r="Z22" s="189"/>
+      <c r="AA22" s="190"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
@@ -30129,18 +30355,18 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="P23" s="191"/>
-      <c r="Q23" s="191"/>
-      <c r="R23" s="191"/>
-      <c r="S23" s="191"/>
-      <c r="T23" s="191"/>
-      <c r="U23" s="191"/>
-      <c r="V23" s="191"/>
-      <c r="W23" s="191"/>
-      <c r="X23" s="191"/>
-      <c r="Y23" s="191"/>
-      <c r="Z23" s="191"/>
-      <c r="AA23" s="192"/>
+      <c r="P23" s="189"/>
+      <c r="Q23" s="189"/>
+      <c r="R23" s="189"/>
+      <c r="S23" s="189"/>
+      <c r="T23" s="189"/>
+      <c r="U23" s="189"/>
+      <c r="V23" s="189"/>
+      <c r="W23" s="189"/>
+      <c r="X23" s="189"/>
+      <c r="Y23" s="189"/>
+      <c r="Z23" s="189"/>
+      <c r="AA23" s="190"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
@@ -30158,18 +30384,18 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="P24" s="191"/>
-      <c r="Q24" s="191"/>
-      <c r="R24" s="191"/>
-      <c r="S24" s="191"/>
-      <c r="T24" s="191"/>
-      <c r="U24" s="191"/>
-      <c r="V24" s="191"/>
-      <c r="W24" s="191"/>
-      <c r="X24" s="191"/>
-      <c r="Y24" s="191"/>
-      <c r="Z24" s="191"/>
-      <c r="AA24" s="192"/>
+      <c r="P24" s="189"/>
+      <c r="Q24" s="189"/>
+      <c r="R24" s="189"/>
+      <c r="S24" s="189"/>
+      <c r="T24" s="189"/>
+      <c r="U24" s="189"/>
+      <c r="V24" s="189"/>
+      <c r="W24" s="189"/>
+      <c r="X24" s="189"/>
+      <c r="Y24" s="189"/>
+      <c r="Z24" s="189"/>
+      <c r="AA24" s="190"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
@@ -30187,18 +30413,18 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="P25" s="191"/>
-      <c r="Q25" s="191"/>
-      <c r="R25" s="191"/>
-      <c r="S25" s="191"/>
-      <c r="T25" s="191"/>
-      <c r="U25" s="191"/>
-      <c r="V25" s="191"/>
-      <c r="W25" s="191"/>
-      <c r="X25" s="191"/>
-      <c r="Y25" s="191"/>
-      <c r="Z25" s="191"/>
-      <c r="AA25" s="192"/>
+      <c r="P25" s="189"/>
+      <c r="Q25" s="189"/>
+      <c r="R25" s="189"/>
+      <c r="S25" s="189"/>
+      <c r="T25" s="189"/>
+      <c r="U25" s="189"/>
+      <c r="V25" s="189"/>
+      <c r="W25" s="189"/>
+      <c r="X25" s="189"/>
+      <c r="Y25" s="189"/>
+      <c r="Z25" s="189"/>
+      <c r="AA25" s="190"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
@@ -30216,18 +30442,18 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="P26" s="191"/>
-      <c r="Q26" s="191"/>
-      <c r="R26" s="191"/>
-      <c r="S26" s="191"/>
-      <c r="T26" s="191"/>
-      <c r="U26" s="191"/>
-      <c r="V26" s="191"/>
-      <c r="W26" s="191"/>
-      <c r="X26" s="191"/>
-      <c r="Y26" s="191"/>
-      <c r="Z26" s="191"/>
-      <c r="AA26" s="192"/>
+      <c r="P26" s="189"/>
+      <c r="Q26" s="189"/>
+      <c r="R26" s="189"/>
+      <c r="S26" s="189"/>
+      <c r="T26" s="189"/>
+      <c r="U26" s="189"/>
+      <c r="V26" s="189"/>
+      <c r="W26" s="189"/>
+      <c r="X26" s="189"/>
+      <c r="Y26" s="189"/>
+      <c r="Z26" s="189"/>
+      <c r="AA26" s="190"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
@@ -30245,18 +30471,18 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="P27" s="191"/>
-      <c r="Q27" s="191"/>
-      <c r="R27" s="191"/>
-      <c r="S27" s="191"/>
-      <c r="T27" s="191"/>
-      <c r="U27" s="191"/>
-      <c r="V27" s="191"/>
-      <c r="W27" s="191"/>
-      <c r="X27" s="191"/>
-      <c r="Y27" s="191"/>
-      <c r="Z27" s="191"/>
-      <c r="AA27" s="192"/>
+      <c r="P27" s="189"/>
+      <c r="Q27" s="189"/>
+      <c r="R27" s="189"/>
+      <c r="S27" s="189"/>
+      <c r="T27" s="189"/>
+      <c r="U27" s="189"/>
+      <c r="V27" s="189"/>
+      <c r="W27" s="189"/>
+      <c r="X27" s="189"/>
+      <c r="Y27" s="189"/>
+      <c r="Z27" s="189"/>
+      <c r="AA27" s="190"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
@@ -30274,18 +30500,18 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="P28" s="191"/>
-      <c r="Q28" s="191"/>
-      <c r="R28" s="191"/>
-      <c r="S28" s="191"/>
-      <c r="T28" s="191"/>
-      <c r="U28" s="191"/>
-      <c r="V28" s="191"/>
-      <c r="W28" s="191"/>
-      <c r="X28" s="191"/>
-      <c r="Y28" s="191"/>
-      <c r="Z28" s="191"/>
-      <c r="AA28" s="192"/>
+      <c r="P28" s="189"/>
+      <c r="Q28" s="189"/>
+      <c r="R28" s="189"/>
+      <c r="S28" s="189"/>
+      <c r="T28" s="189"/>
+      <c r="U28" s="189"/>
+      <c r="V28" s="189"/>
+      <c r="W28" s="189"/>
+      <c r="X28" s="189"/>
+      <c r="Y28" s="189"/>
+      <c r="Z28" s="189"/>
+      <c r="AA28" s="190"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
@@ -30303,18 +30529,18 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="191"/>
-      <c r="S29" s="191"/>
-      <c r="T29" s="191"/>
-      <c r="U29" s="191"/>
-      <c r="V29" s="191"/>
-      <c r="W29" s="191"/>
-      <c r="X29" s="191"/>
-      <c r="Y29" s="191"/>
-      <c r="Z29" s="191"/>
-      <c r="AA29" s="192"/>
+      <c r="P29" s="189"/>
+      <c r="Q29" s="189"/>
+      <c r="R29" s="189"/>
+      <c r="S29" s="189"/>
+      <c r="T29" s="189"/>
+      <c r="U29" s="189"/>
+      <c r="V29" s="189"/>
+      <c r="W29" s="189"/>
+      <c r="X29" s="189"/>
+      <c r="Y29" s="189"/>
+      <c r="Z29" s="189"/>
+      <c r="AA29" s="190"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
@@ -30332,18 +30558,18 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="P30" s="191"/>
-      <c r="Q30" s="191"/>
-      <c r="R30" s="191"/>
-      <c r="S30" s="191"/>
-      <c r="T30" s="191"/>
-      <c r="U30" s="191"/>
-      <c r="V30" s="191"/>
-      <c r="W30" s="191"/>
-      <c r="X30" s="191"/>
-      <c r="Y30" s="191"/>
-      <c r="Z30" s="191"/>
-      <c r="AA30" s="192"/>
+      <c r="P30" s="189"/>
+      <c r="Q30" s="189"/>
+      <c r="R30" s="189"/>
+      <c r="S30" s="189"/>
+      <c r="T30" s="189"/>
+      <c r="U30" s="189"/>
+      <c r="V30" s="189"/>
+      <c r="W30" s="189"/>
+      <c r="X30" s="189"/>
+      <c r="Y30" s="189"/>
+      <c r="Z30" s="189"/>
+      <c r="AA30" s="190"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
@@ -30361,18 +30587,18 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="P31" s="191"/>
-      <c r="Q31" s="191"/>
-      <c r="R31" s="191"/>
-      <c r="S31" s="191"/>
-      <c r="T31" s="191"/>
-      <c r="U31" s="191"/>
-      <c r="V31" s="191"/>
-      <c r="W31" s="191"/>
-      <c r="X31" s="191"/>
-      <c r="Y31" s="191"/>
-      <c r="Z31" s="191"/>
-      <c r="AA31" s="192"/>
+      <c r="P31" s="189"/>
+      <c r="Q31" s="189"/>
+      <c r="R31" s="189"/>
+      <c r="S31" s="189"/>
+      <c r="T31" s="189"/>
+      <c r="U31" s="189"/>
+      <c r="V31" s="189"/>
+      <c r="W31" s="189"/>
+      <c r="X31" s="189"/>
+      <c r="Y31" s="189"/>
+      <c r="Z31" s="189"/>
+      <c r="AA31" s="190"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
@@ -30390,18 +30616,18 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="P32" s="191"/>
-      <c r="Q32" s="191"/>
-      <c r="R32" s="191"/>
-      <c r="S32" s="191"/>
-      <c r="T32" s="191"/>
-      <c r="U32" s="191"/>
-      <c r="V32" s="191"/>
-      <c r="W32" s="191"/>
-      <c r="X32" s="191"/>
-      <c r="Y32" s="191"/>
-      <c r="Z32" s="191"/>
-      <c r="AA32" s="192"/>
+      <c r="P32" s="189"/>
+      <c r="Q32" s="189"/>
+      <c r="R32" s="189"/>
+      <c r="S32" s="189"/>
+      <c r="T32" s="189"/>
+      <c r="U32" s="189"/>
+      <c r="V32" s="189"/>
+      <c r="W32" s="189"/>
+      <c r="X32" s="189"/>
+      <c r="Y32" s="189"/>
+      <c r="Z32" s="189"/>
+      <c r="AA32" s="190"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
@@ -30419,18 +30645,18 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="P33" s="191"/>
-      <c r="Q33" s="191"/>
-      <c r="R33" s="191"/>
-      <c r="S33" s="191"/>
-      <c r="T33" s="191"/>
-      <c r="U33" s="191"/>
-      <c r="V33" s="191"/>
-      <c r="W33" s="191"/>
-      <c r="X33" s="191"/>
-      <c r="Y33" s="191"/>
-      <c r="Z33" s="191"/>
-      <c r="AA33" s="192"/>
+      <c r="P33" s="189"/>
+      <c r="Q33" s="189"/>
+      <c r="R33" s="189"/>
+      <c r="S33" s="189"/>
+      <c r="T33" s="189"/>
+      <c r="U33" s="189"/>
+      <c r="V33" s="189"/>
+      <c r="W33" s="189"/>
+      <c r="X33" s="189"/>
+      <c r="Y33" s="189"/>
+      <c r="Z33" s="189"/>
+      <c r="AA33" s="190"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
@@ -30448,18 +30674,18 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="P34" s="191"/>
-      <c r="Q34" s="191"/>
-      <c r="R34" s="191"/>
-      <c r="S34" s="191"/>
-      <c r="T34" s="191"/>
-      <c r="U34" s="191"/>
-      <c r="V34" s="191"/>
-      <c r="W34" s="191"/>
-      <c r="X34" s="191"/>
-      <c r="Y34" s="191"/>
-      <c r="Z34" s="191"/>
-      <c r="AA34" s="192"/>
+      <c r="P34" s="189"/>
+      <c r="Q34" s="189"/>
+      <c r="R34" s="189"/>
+      <c r="S34" s="189"/>
+      <c r="T34" s="189"/>
+      <c r="U34" s="189"/>
+      <c r="V34" s="189"/>
+      <c r="W34" s="189"/>
+      <c r="X34" s="189"/>
+      <c r="Y34" s="189"/>
+      <c r="Z34" s="189"/>
+      <c r="AA34" s="190"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
@@ -30477,18 +30703,18 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="P35" s="191"/>
-      <c r="Q35" s="191"/>
-      <c r="R35" s="191"/>
-      <c r="S35" s="191"/>
-      <c r="T35" s="191"/>
-      <c r="U35" s="191"/>
-      <c r="V35" s="191"/>
-      <c r="W35" s="191"/>
-      <c r="X35" s="191"/>
-      <c r="Y35" s="191"/>
-      <c r="Z35" s="191"/>
-      <c r="AA35" s="192"/>
+      <c r="P35" s="189"/>
+      <c r="Q35" s="189"/>
+      <c r="R35" s="189"/>
+      <c r="S35" s="189"/>
+      <c r="T35" s="189"/>
+      <c r="U35" s="189"/>
+      <c r="V35" s="189"/>
+      <c r="W35" s="189"/>
+      <c r="X35" s="189"/>
+      <c r="Y35" s="189"/>
+      <c r="Z35" s="189"/>
+      <c r="AA35" s="190"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
@@ -30506,18 +30732,18 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="P36" s="191"/>
-      <c r="Q36" s="191"/>
-      <c r="R36" s="191"/>
-      <c r="S36" s="191"/>
-      <c r="T36" s="191"/>
-      <c r="U36" s="191"/>
-      <c r="V36" s="191"/>
-      <c r="W36" s="191"/>
-      <c r="X36" s="191"/>
-      <c r="Y36" s="191"/>
-      <c r="Z36" s="191"/>
-      <c r="AA36" s="192"/>
+      <c r="P36" s="189"/>
+      <c r="Q36" s="189"/>
+      <c r="R36" s="189"/>
+      <c r="S36" s="189"/>
+      <c r="T36" s="189"/>
+      <c r="U36" s="189"/>
+      <c r="V36" s="189"/>
+      <c r="W36" s="189"/>
+      <c r="X36" s="189"/>
+      <c r="Y36" s="189"/>
+      <c r="Z36" s="189"/>
+      <c r="AA36" s="190"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
@@ -30535,18 +30761,18 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="P37" s="191"/>
-      <c r="Q37" s="191"/>
-      <c r="R37" s="191"/>
-      <c r="S37" s="191"/>
-      <c r="T37" s="191"/>
-      <c r="U37" s="191"/>
-      <c r="V37" s="191"/>
-      <c r="W37" s="191"/>
-      <c r="X37" s="191"/>
-      <c r="Y37" s="191"/>
-      <c r="Z37" s="191"/>
-      <c r="AA37" s="192"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="189"/>
+      <c r="R37" s="189"/>
+      <c r="S37" s="189"/>
+      <c r="T37" s="189"/>
+      <c r="U37" s="189"/>
+      <c r="V37" s="189"/>
+      <c r="W37" s="189"/>
+      <c r="X37" s="189"/>
+      <c r="Y37" s="189"/>
+      <c r="Z37" s="189"/>
+      <c r="AA37" s="190"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
@@ -30564,18 +30790,18 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="P38" s="191"/>
-      <c r="Q38" s="191"/>
-      <c r="R38" s="191"/>
-      <c r="S38" s="191"/>
-      <c r="T38" s="191"/>
-      <c r="U38" s="191"/>
-      <c r="V38" s="191"/>
-      <c r="W38" s="191"/>
-      <c r="X38" s="191"/>
-      <c r="Y38" s="191"/>
-      <c r="Z38" s="191"/>
-      <c r="AA38" s="192"/>
+      <c r="P38" s="189"/>
+      <c r="Q38" s="189"/>
+      <c r="R38" s="189"/>
+      <c r="S38" s="189"/>
+      <c r="T38" s="189"/>
+      <c r="U38" s="189"/>
+      <c r="V38" s="189"/>
+      <c r="W38" s="189"/>
+      <c r="X38" s="189"/>
+      <c r="Y38" s="189"/>
+      <c r="Z38" s="189"/>
+      <c r="AA38" s="190"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
@@ -30593,18 +30819,18 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="P39" s="191"/>
-      <c r="Q39" s="191"/>
-      <c r="R39" s="191"/>
-      <c r="S39" s="191"/>
-      <c r="T39" s="191"/>
-      <c r="U39" s="191"/>
-      <c r="V39" s="191"/>
-      <c r="W39" s="191"/>
-      <c r="X39" s="191"/>
-      <c r="Y39" s="191"/>
-      <c r="Z39" s="191"/>
-      <c r="AA39" s="192"/>
+      <c r="P39" s="189"/>
+      <c r="Q39" s="189"/>
+      <c r="R39" s="189"/>
+      <c r="S39" s="189"/>
+      <c r="T39" s="189"/>
+      <c r="U39" s="189"/>
+      <c r="V39" s="189"/>
+      <c r="W39" s="189"/>
+      <c r="X39" s="189"/>
+      <c r="Y39" s="189"/>
+      <c r="Z39" s="189"/>
+      <c r="AA39" s="190"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
@@ -30622,18 +30848,18 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="P40" s="191"/>
-      <c r="Q40" s="191"/>
-      <c r="R40" s="191"/>
-      <c r="S40" s="191"/>
-      <c r="T40" s="191"/>
-      <c r="U40" s="191"/>
-      <c r="V40" s="191"/>
-      <c r="W40" s="191"/>
-      <c r="X40" s="191"/>
-      <c r="Y40" s="191"/>
-      <c r="Z40" s="191"/>
-      <c r="AA40" s="192"/>
+      <c r="P40" s="189"/>
+      <c r="Q40" s="189"/>
+      <c r="R40" s="189"/>
+      <c r="S40" s="189"/>
+      <c r="T40" s="189"/>
+      <c r="U40" s="189"/>
+      <c r="V40" s="189"/>
+      <c r="W40" s="189"/>
+      <c r="X40" s="189"/>
+      <c r="Y40" s="189"/>
+      <c r="Z40" s="189"/>
+      <c r="AA40" s="190"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
@@ -30651,18 +30877,18 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="P41" s="191"/>
-      <c r="Q41" s="191"/>
-      <c r="R41" s="191"/>
-      <c r="S41" s="191"/>
-      <c r="T41" s="191"/>
-      <c r="U41" s="191"/>
-      <c r="V41" s="191"/>
-      <c r="W41" s="191"/>
-      <c r="X41" s="191"/>
-      <c r="Y41" s="191"/>
-      <c r="Z41" s="191"/>
-      <c r="AA41" s="192"/>
+      <c r="P41" s="189"/>
+      <c r="Q41" s="189"/>
+      <c r="R41" s="189"/>
+      <c r="S41" s="189"/>
+      <c r="T41" s="189"/>
+      <c r="U41" s="189"/>
+      <c r="V41" s="189"/>
+      <c r="W41" s="189"/>
+      <c r="X41" s="189"/>
+      <c r="Y41" s="189"/>
+      <c r="Z41" s="189"/>
+      <c r="AA41" s="190"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
@@ -30680,18 +30906,18 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="P42" s="191"/>
-      <c r="Q42" s="191"/>
-      <c r="R42" s="191"/>
-      <c r="S42" s="191"/>
-      <c r="T42" s="191"/>
-      <c r="U42" s="191"/>
-      <c r="V42" s="191"/>
-      <c r="W42" s="191"/>
-      <c r="X42" s="191"/>
-      <c r="Y42" s="191"/>
-      <c r="Z42" s="191"/>
-      <c r="AA42" s="192"/>
+      <c r="P42" s="189"/>
+      <c r="Q42" s="189"/>
+      <c r="R42" s="189"/>
+      <c r="S42" s="189"/>
+      <c r="T42" s="189"/>
+      <c r="U42" s="189"/>
+      <c r="V42" s="189"/>
+      <c r="W42" s="189"/>
+      <c r="X42" s="189"/>
+      <c r="Y42" s="189"/>
+      <c r="Z42" s="189"/>
+      <c r="AA42" s="190"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
@@ -30709,18 +30935,18 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="P43" s="191"/>
-      <c r="Q43" s="191"/>
-      <c r="R43" s="191"/>
-      <c r="S43" s="191"/>
-      <c r="T43" s="191"/>
-      <c r="U43" s="191"/>
-      <c r="V43" s="191"/>
-      <c r="W43" s="191"/>
-      <c r="X43" s="191"/>
-      <c r="Y43" s="191"/>
-      <c r="Z43" s="191"/>
-      <c r="AA43" s="192"/>
+      <c r="P43" s="189"/>
+      <c r="Q43" s="189"/>
+      <c r="R43" s="189"/>
+      <c r="S43" s="189"/>
+      <c r="T43" s="189"/>
+      <c r="U43" s="189"/>
+      <c r="V43" s="189"/>
+      <c r="W43" s="189"/>
+      <c r="X43" s="189"/>
+      <c r="Y43" s="189"/>
+      <c r="Z43" s="189"/>
+      <c r="AA43" s="190"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
@@ -30738,18 +30964,18 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="P44" s="191"/>
-      <c r="Q44" s="191"/>
-      <c r="R44" s="191"/>
-      <c r="S44" s="191"/>
-      <c r="T44" s="191"/>
-      <c r="U44" s="191"/>
-      <c r="V44" s="191"/>
-      <c r="W44" s="191"/>
-      <c r="X44" s="191"/>
-      <c r="Y44" s="191"/>
-      <c r="Z44" s="191"/>
-      <c r="AA44" s="192"/>
+      <c r="P44" s="189"/>
+      <c r="Q44" s="189"/>
+      <c r="R44" s="189"/>
+      <c r="S44" s="189"/>
+      <c r="T44" s="189"/>
+      <c r="U44" s="189"/>
+      <c r="V44" s="189"/>
+      <c r="W44" s="189"/>
+      <c r="X44" s="189"/>
+      <c r="Y44" s="189"/>
+      <c r="Z44" s="189"/>
+      <c r="AA44" s="190"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
@@ -30767,18 +30993,18 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="P45" s="191"/>
-      <c r="Q45" s="191"/>
-      <c r="R45" s="191"/>
-      <c r="S45" s="191"/>
-      <c r="T45" s="191"/>
-      <c r="U45" s="191"/>
-      <c r="V45" s="191"/>
-      <c r="W45" s="191"/>
-      <c r="X45" s="191"/>
-      <c r="Y45" s="191"/>
-      <c r="Z45" s="191"/>
-      <c r="AA45" s="192"/>
+      <c r="P45" s="189"/>
+      <c r="Q45" s="189"/>
+      <c r="R45" s="189"/>
+      <c r="S45" s="189"/>
+      <c r="T45" s="189"/>
+      <c r="U45" s="189"/>
+      <c r="V45" s="189"/>
+      <c r="W45" s="189"/>
+      <c r="X45" s="189"/>
+      <c r="Y45" s="189"/>
+      <c r="Z45" s="189"/>
+      <c r="AA45" s="190"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
@@ -30796,18 +31022,18 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="P46" s="191"/>
-      <c r="Q46" s="191"/>
-      <c r="R46" s="191"/>
-      <c r="S46" s="191"/>
-      <c r="T46" s="191"/>
-      <c r="U46" s="191"/>
-      <c r="V46" s="191"/>
-      <c r="W46" s="191"/>
-      <c r="X46" s="191"/>
-      <c r="Y46" s="191"/>
-      <c r="Z46" s="191"/>
-      <c r="AA46" s="192"/>
+      <c r="P46" s="189"/>
+      <c r="Q46" s="189"/>
+      <c r="R46" s="189"/>
+      <c r="S46" s="189"/>
+      <c r="T46" s="189"/>
+      <c r="U46" s="189"/>
+      <c r="V46" s="189"/>
+      <c r="W46" s="189"/>
+      <c r="X46" s="189"/>
+      <c r="Y46" s="189"/>
+      <c r="Z46" s="189"/>
+      <c r="AA46" s="190"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
@@ -30825,18 +31051,18 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="P47" s="193"/>
-      <c r="Q47" s="193"/>
-      <c r="R47" s="193"/>
-      <c r="S47" s="193"/>
-      <c r="T47" s="193"/>
-      <c r="U47" s="193"/>
-      <c r="V47" s="193"/>
-      <c r="W47" s="193"/>
-      <c r="X47" s="193"/>
-      <c r="Y47" s="193"/>
-      <c r="Z47" s="193"/>
-      <c r="AA47" s="194"/>
+      <c r="P47" s="191"/>
+      <c r="Q47" s="191"/>
+      <c r="R47" s="191"/>
+      <c r="S47" s="191"/>
+      <c r="T47" s="191"/>
+      <c r="U47" s="191"/>
+      <c r="V47" s="191"/>
+      <c r="W47" s="191"/>
+      <c r="X47" s="191"/>
+      <c r="Y47" s="191"/>
+      <c r="Z47" s="191"/>
+      <c r="AA47" s="192"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
@@ -30893,8 +31119,8 @@
   </sheetPr>
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30929,34 +31155,34 @@
   <sheetData>
     <row r="1" spans="1:26" ht="114.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="194"/>
     </row>
     <row r="3" spans="1:26" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="95" t="s">
@@ -30989,7 +31215,7 @@
         <f>2060.75+1543.45+1543.45+500</f>
         <v>5647.65</v>
       </c>
-      <c r="C4" s="182">
+      <c r="C4" s="180">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D4" s="98">
@@ -31015,7 +31241,7 @@
         <f>200+150+150+600+792+792</f>
         <v>2684</v>
       </c>
-      <c r="C5" s="182">
+      <c r="C5" s="180">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D5" s="98">
@@ -31041,7 +31267,7 @@
         <f>666.67+250</f>
         <v>916.67</v>
       </c>
-      <c r="C6" s="182">
+      <c r="C6" s="180">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D6" s="98">
@@ -31067,7 +31293,7 @@
         <f>453.61+271.43</f>
         <v>725.04</v>
       </c>
-      <c r="C7" s="182">
+      <c r="C7" s="180">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D7" s="98">
@@ -31093,7 +31319,7 @@
         <f>384+360+397.39+120+120</f>
         <v>1381.3899999999999</v>
       </c>
-      <c r="C8" s="182">
+      <c r="C8" s="180">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D8" s="98">
@@ -31119,7 +31345,7 @@
         <f>540+151.52+50+4530</f>
         <v>5271.52</v>
       </c>
-      <c r="C9" s="182">
+      <c r="C9" s="180">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D9" s="98">
@@ -31145,7 +31371,7 @@
         <f>100+195.4</f>
         <v>295.39999999999998</v>
       </c>
-      <c r="C10" s="182">
+      <c r="C10" s="180">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D10" s="98">
@@ -31171,7 +31397,7 @@
         <f>8.33+1650+406.66+200</f>
         <v>2264.9899999999998</v>
       </c>
-      <c r="C11" s="182">
+      <c r="C11" s="180">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D11" s="99">
@@ -31197,7 +31423,7 @@
         <f>235+500+13.33+371.66+276.66</f>
         <v>1396.65</v>
       </c>
-      <c r="C12" s="182">
+      <c r="C12" s="180">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D12" s="99">
@@ -31220,10 +31446,10 @@
         <v>45566</v>
       </c>
       <c r="B13" s="17">
-        <f>300+100+196.66+2703.33+38.73+66.66+150+50+210+133.33+0+0+0+0+50+50</f>
-        <v>4048.7099999999996</v>
-      </c>
-      <c r="C13" s="182">
+        <f>300+100+196.66+2703.33+38.73+66.66+150+50+210+133.33+558.86+8.33+41.6+2443.33+50+50</f>
+        <v>7100.83</v>
+      </c>
+      <c r="C13" s="180">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D13" s="99">
@@ -31245,17 +31471,20 @@
       <c r="A14" s="65">
         <v>45597</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="182">
+      <c r="B14" s="17">
+        <f>0+33.33+586.66+476.66+18.33+35+18.33+108.33+175+175+780+110+10+58.33</f>
+        <v>2584.9699999999998</v>
+      </c>
+      <c r="C14" s="180">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D14" s="99">
         <f>DADOS!C13</f>
-        <v>0</v>
+        <v>1478520.51</v>
       </c>
       <c r="E14" s="147">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7392.6025500000005</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="4"/>
@@ -31268,17 +31497,20 @@
       <c r="A15" s="65">
         <v>45627</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="182">
+      <c r="B15" s="17">
+        <f>50+0+33.33+240+250+100+100+0+5250</f>
+        <v>6023.33</v>
+      </c>
+      <c r="C15" s="180">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D15" s="99">
         <f>DADOS!C14</f>
-        <v>0</v>
+        <v>992159.11</v>
       </c>
       <c r="E15" s="147">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4960.7955499999998</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="4"/>
@@ -31293,7 +31525,7 @@
       </c>
       <c r="B16" s="17">
         <f>SUM(B4:B15)</f>
-        <v>24632.020000000004</v>
+        <v>36292.44000000001</v>
       </c>
       <c r="C16" s="100"/>
       <c r="D16" s="100"/>
@@ -31785,8 +32017,8 @@
   </sheetPr>
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31813,34 +32045,34 @@
   <sheetData>
     <row r="1" spans="1:39" ht="126" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:39" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="197"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
       <c r="AA2" s="48"/>
       <c r="AB2" s="49"/>
       <c r="AC2" s="49"/>
@@ -31875,7 +32107,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="109" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="109" t="s">
         <v>36</v>
@@ -31887,7 +32119,7 @@
         <v>37</v>
       </c>
       <c r="K3" s="109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L3" s="109" t="s">
         <v>38</v>
@@ -31896,42 +32128,42 @@
         <v>40</v>
       </c>
       <c r="N3" s="109" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O3" s="109" t="s">
         <v>39</v>
       </c>
       <c r="P3" s="109" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="109" t="s">
         <v>76</v>
-      </c>
-      <c r="R3" s="109" t="s">
-        <v>77</v>
       </c>
       <c r="S3" s="109" t="s">
         <v>41</v>
       </c>
       <c r="T3" s="109" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U3" s="109" t="s">
-        <v>70</v>
-      </c>
-      <c r="V3" s="173" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="W3" s="174" t="s">
+      <c r="W3" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="175" t="s">
+      <c r="X3" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="173" t="s">
+      <c r="Y3" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="172"/>
+      <c r="Z3" s="170"/>
       <c r="AA3" s="51"/>
       <c r="AM3" s="52"/>
     </row>
@@ -32002,22 +32234,22 @@
       <c r="U4" s="107">
         <v>0</v>
       </c>
-      <c r="V4" s="176">
+      <c r="V4" s="174">
         <f t="shared" ref="V4:V15" si="0">SUM(B4:U4)</f>
         <v>290</v>
       </c>
-      <c r="W4" s="177">
+      <c r="W4" s="175">
         <f>V4/Y4</f>
         <v>4.3999393111819149E-2</v>
       </c>
-      <c r="X4" s="178">
+      <c r="X4" s="176">
         <v>0.01</v>
       </c>
-      <c r="Y4" s="179">
+      <c r="Y4" s="177">
         <f>DADOS!E3</f>
         <v>6591</v>
       </c>
-      <c r="Z4" s="172"/>
+      <c r="Z4" s="170"/>
       <c r="AA4" s="51"/>
       <c r="AM4" s="52"/>
     </row>
@@ -32088,22 +32320,22 @@
       <c r="U5" s="102">
         <v>2</v>
       </c>
-      <c r="V5" s="176">
+      <c r="V5" s="174">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="W5" s="177">
+      <c r="W5" s="175">
         <f t="shared" ref="W5:W15" si="1">V5/Y5</f>
         <v>5.7941024314536987E-2</v>
       </c>
-      <c r="X5" s="178">
+      <c r="X5" s="176">
         <v>0.01</v>
       </c>
-      <c r="Y5" s="179">
+      <c r="Y5" s="177">
         <f>DADOS!E4</f>
         <v>1933</v>
       </c>
-      <c r="Z5" s="172"/>
+      <c r="Z5" s="170"/>
       <c r="AA5" s="51"/>
       <c r="AM5" s="52"/>
     </row>
@@ -32174,22 +32406,22 @@
       <c r="U6" s="107">
         <v>0</v>
       </c>
-      <c r="V6" s="176">
+      <c r="V6" s="174">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="W6" s="177">
+      <c r="W6" s="175">
         <f t="shared" si="1"/>
         <v>4.2449969678593083E-3</v>
       </c>
-      <c r="X6" s="178">
+      <c r="X6" s="176">
         <v>0.01</v>
       </c>
-      <c r="Y6" s="179">
+      <c r="Y6" s="177">
         <f>DADOS!E5</f>
         <v>6596</v>
       </c>
-      <c r="Z6" s="172"/>
+      <c r="Z6" s="170"/>
       <c r="AA6" s="51"/>
       <c r="AM6" s="52"/>
     </row>
@@ -32259,22 +32491,22 @@
       <c r="U7" s="102">
         <v>0</v>
       </c>
-      <c r="V7" s="176">
+      <c r="V7" s="174">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="W7" s="177">
+      <c r="W7" s="175">
         <f>V7/Y7</f>
         <v>1.0495094684006388E-2</v>
       </c>
-      <c r="X7" s="178">
+      <c r="X7" s="176">
         <v>0.01</v>
       </c>
-      <c r="Y7" s="179">
+      <c r="Y7" s="177">
         <f>DADOS!E6</f>
         <v>4383</v>
       </c>
-      <c r="Z7" s="172"/>
+      <c r="Z7" s="170"/>
       <c r="AA7" s="51"/>
       <c r="AM7" s="52"/>
     </row>
@@ -32344,22 +32576,22 @@
         <f>12+24</f>
         <v>36</v>
       </c>
-      <c r="V8" s="176">
+      <c r="V8" s="174">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="W8" s="177">
+      <c r="W8" s="175">
         <f t="shared" si="1"/>
         <v>1.3170679045665551E-2</v>
       </c>
-      <c r="X8" s="178">
+      <c r="X8" s="176">
         <v>0.01</v>
       </c>
-      <c r="Y8" s="179">
+      <c r="Y8" s="177">
         <f>DADOS!E7</f>
         <v>9263</v>
       </c>
-      <c r="Z8" s="172"/>
+      <c r="Z8" s="170"/>
       <c r="AA8" s="51"/>
       <c r="AM8" s="52"/>
     </row>
@@ -32428,22 +32660,22 @@
         <f>12+9+1</f>
         <v>22</v>
       </c>
-      <c r="V9" s="176">
+      <c r="V9" s="174">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="W9" s="177">
+      <c r="W9" s="175">
         <f t="shared" si="1"/>
         <v>4.0677966101694916E-3</v>
       </c>
-      <c r="X9" s="178">
+      <c r="X9" s="176">
         <v>0.01</v>
       </c>
-      <c r="Y9" s="179">
+      <c r="Y9" s="177">
         <f>DADOS!E8</f>
         <v>11800</v>
       </c>
-      <c r="Z9" s="172"/>
+      <c r="Z9" s="170"/>
       <c r="AA9" s="51"/>
       <c r="AM9" s="52"/>
     </row>
@@ -32514,22 +32746,22 @@
       <c r="U10" s="107">
         <v>0</v>
       </c>
-      <c r="V10" s="176">
+      <c r="V10" s="174">
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="W10" s="177">
+      <c r="W10" s="175">
         <f t="shared" si="1"/>
         <v>1.4735165272799682E-2</v>
       </c>
-      <c r="X10" s="178">
+      <c r="X10" s="176">
         <v>0.01</v>
       </c>
-      <c r="Y10" s="179">
+      <c r="Y10" s="177">
         <f>DADOS!E9</f>
         <v>12555</v>
       </c>
-      <c r="Z10" s="172"/>
+      <c r="Z10" s="170"/>
       <c r="AA10" s="51"/>
       <c r="AM10" s="52"/>
     </row>
@@ -32599,22 +32831,22 @@
       <c r="U11" s="102">
         <v>0</v>
       </c>
-      <c r="V11" s="176">
+      <c r="V11" s="174">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="W11" s="177">
+      <c r="W11" s="175">
         <f t="shared" si="1"/>
         <v>2.1991447770311544E-3</v>
       </c>
-      <c r="X11" s="178">
+      <c r="X11" s="176">
         <v>0.01</v>
       </c>
-      <c r="Y11" s="179">
+      <c r="Y11" s="177">
         <f>DADOS!E10</f>
         <v>16370</v>
       </c>
-      <c r="Z11" s="172"/>
+      <c r="Z11" s="170"/>
       <c r="AA11" s="51"/>
       <c r="AM11" s="52"/>
     </row>
@@ -32684,22 +32916,22 @@
       <c r="U12" s="107">
         <v>0</v>
       </c>
-      <c r="V12" s="176">
+      <c r="V12" s="174">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="W12" s="177">
+      <c r="W12" s="175">
         <f t="shared" si="1"/>
         <v>3.3809425239770922E-3</v>
       </c>
-      <c r="X12" s="178">
+      <c r="X12" s="176">
         <v>0.01</v>
       </c>
-      <c r="Y12" s="179">
+      <c r="Y12" s="177">
         <f>DADOS!E11</f>
         <v>14493</v>
       </c>
-      <c r="Z12" s="172"/>
+      <c r="Z12" s="170"/>
       <c r="AA12" s="51"/>
       <c r="AM12" s="52"/>
     </row>
@@ -32712,23 +32944,23 @@
         <v>2</v>
       </c>
       <c r="C13" s="102">
-        <f>1</f>
-        <v>1</v>
+        <f>1+3</f>
+        <v>4</v>
       </c>
       <c r="D13" s="102">
         <f>1+3</f>
         <v>4</v>
       </c>
       <c r="E13" s="102">
-        <f>5</f>
-        <v>5</v>
+        <f>12+5</f>
+        <v>17</v>
       </c>
       <c r="F13" s="102">
         <v>0</v>
       </c>
       <c r="G13" s="102">
-        <f>4+6</f>
-        <v>10</v>
+        <f>4+6+1+5</f>
+        <v>16</v>
       </c>
       <c r="H13" s="102">
         <v>0</v>
@@ -32779,22 +33011,22 @@
       <c r="U13" s="102">
         <v>0</v>
       </c>
-      <c r="V13" s="176">
+      <c r="V13" s="174">
         <f t="shared" si="0"/>
-        <v>389</v>
-      </c>
-      <c r="W13" s="177">
+        <v>410</v>
+      </c>
+      <c r="W13" s="175">
         <f t="shared" si="1"/>
-        <v>3.1350741457124437E-2</v>
-      </c>
-      <c r="X13" s="178">
+        <v>3.3043197936814955E-2</v>
+      </c>
+      <c r="X13" s="176">
         <v>0.01</v>
       </c>
-      <c r="Y13" s="179">
+      <c r="Y13" s="177">
         <f>DADOS!E12</f>
         <v>12408</v>
       </c>
-      <c r="Z13" s="172"/>
+      <c r="Z13" s="170"/>
       <c r="AA13" s="51"/>
       <c r="AM13" s="52"/>
     </row>
@@ -32802,42 +33034,90 @@
       <c r="A14" s="110">
         <v>45597</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="176">
+      <c r="B14" s="107">
+        <f>1+6</f>
+        <v>7</v>
+      </c>
+      <c r="C14" s="107">
+        <v>0</v>
+      </c>
+      <c r="D14" s="107">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="107">
+        <v>0</v>
+      </c>
+      <c r="F14" s="107">
+        <v>0</v>
+      </c>
+      <c r="G14" s="107">
+        <f>6+1+2+1</f>
+        <v>10</v>
+      </c>
+      <c r="H14" s="107">
+        <v>0</v>
+      </c>
+      <c r="I14" s="107">
+        <f>22</f>
+        <v>22</v>
+      </c>
+      <c r="J14" s="107">
+        <f>4+1</f>
+        <v>5</v>
+      </c>
+      <c r="K14" s="107">
+        <v>0</v>
+      </c>
+      <c r="L14" s="107">
+        <f>2+39</f>
+        <v>41</v>
+      </c>
+      <c r="M14" s="107">
+        <v>0</v>
+      </c>
+      <c r="N14" s="107">
+        <v>0</v>
+      </c>
+      <c r="O14" s="107">
+        <v>0</v>
+      </c>
+      <c r="P14" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="107">
+        <f>460</f>
+        <v>460</v>
+      </c>
+      <c r="R14" s="107">
+        <v>0</v>
+      </c>
+      <c r="S14" s="107">
+        <v>0</v>
+      </c>
+      <c r="T14" s="107">
+        <v>0</v>
+      </c>
+      <c r="U14" s="107">
+        <f>24+24</f>
+        <v>48</v>
+      </c>
+      <c r="V14" s="174">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="177" t="e">
+        <v>594</v>
+      </c>
+      <c r="W14" s="175">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" s="178">
+        <v>4.2428571428571427E-2</v>
+      </c>
+      <c r="X14" s="176">
         <v>0.01</v>
       </c>
-      <c r="Y14" s="179">
+      <c r="Y14" s="177">
         <f>DADOS!E13</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="172"/>
+        <v>14000</v>
+      </c>
+      <c r="Z14" s="170"/>
       <c r="AA14" s="51"/>
       <c r="AM14" s="52"/>
     </row>
@@ -32845,42 +33125,88 @@
       <c r="A15" s="110">
         <v>45627</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="176">
+      <c r="B15" s="102">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="102">
+        <v>0</v>
+      </c>
+      <c r="D15" s="102">
+        <v>0</v>
+      </c>
+      <c r="E15" s="102">
+        <v>0</v>
+      </c>
+      <c r="F15" s="102">
+        <v>0</v>
+      </c>
+      <c r="G15" s="102">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="102">
+        <v>0</v>
+      </c>
+      <c r="I15" s="102">
+        <v>0</v>
+      </c>
+      <c r="J15" s="102">
+        <f>1+1+1</f>
+        <v>3</v>
+      </c>
+      <c r="K15" s="102">
+        <v>0</v>
+      </c>
+      <c r="L15" s="102">
+        <f>350+2</f>
+        <v>352</v>
+      </c>
+      <c r="M15" s="102">
+        <v>0</v>
+      </c>
+      <c r="N15" s="102">
+        <v>0</v>
+      </c>
+      <c r="O15" s="102">
+        <v>0</v>
+      </c>
+      <c r="P15" s="102">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="102">
+        <f>2+2</f>
+        <v>4</v>
+      </c>
+      <c r="R15" s="102">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="S15" s="102">
+        <v>0</v>
+      </c>
+      <c r="T15" s="102">
+        <v>0</v>
+      </c>
+      <c r="U15" s="102">
+        <v>0</v>
+      </c>
+      <c r="V15" s="174">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="177" t="e">
+        <v>363</v>
+      </c>
+      <c r="W15" s="175">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X15" s="178">
+        <v>4.1476234003656305E-2</v>
+      </c>
+      <c r="X15" s="176">
         <v>0.01</v>
       </c>
-      <c r="Y15" s="179">
+      <c r="Y15" s="177">
         <f>DADOS!E14</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="172"/>
+        <v>8752</v>
+      </c>
+      <c r="Z15" s="170"/>
       <c r="AA15" s="51"/>
       <c r="AM15" s="52"/>
     </row>
@@ -32890,19 +33216,19 @@
       </c>
       <c r="B16" s="85">
         <f t="shared" ref="B16:U16" si="2">SUM(B4:B15)</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C16" s="85">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="85">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="85">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F16" s="85">
         <f t="shared" si="2"/>
@@ -32910,7 +33236,7 @@
       </c>
       <c r="G16" s="85">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H16" s="85">
         <f t="shared" si="2"/>
@@ -32918,11 +33244,11 @@
       </c>
       <c r="I16" s="85">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J16" s="85">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K16" s="85">
         <f t="shared" si="2"/>
@@ -32930,7 +33256,7 @@
       </c>
       <c r="L16" s="85">
         <f t="shared" si="2"/>
-        <v>361</v>
+        <v>754</v>
       </c>
       <c r="M16" s="85">
         <f t="shared" si="2"/>
@@ -32950,11 +33276,11 @@
       </c>
       <c r="Q16" s="85">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="R16" s="85">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S16" s="85">
         <f t="shared" si="2"/>
@@ -32966,24 +33292,24 @@
       </c>
       <c r="U16" s="85">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="V16" s="176">
+        <v>108</v>
+      </c>
+      <c r="V16" s="174">
         <f t="shared" ref="V16" si="3">SUM(V4:V15)</f>
-        <v>1305</v>
-      </c>
-      <c r="W16" s="180">
+        <v>2283</v>
+      </c>
+      <c r="W16" s="178">
         <f>SUM(V16/Y16)</f>
-        <v>1.3538467922649183E-2</v>
-      </c>
-      <c r="X16" s="178">
+        <v>1.9161686698448935E-2</v>
+      </c>
+      <c r="X16" s="176">
         <v>0.01</v>
       </c>
-      <c r="Y16" s="179">
+      <c r="Y16" s="177">
         <f>SUM(Y4:Y15)</f>
-        <v>96392</v>
-      </c>
-      <c r="Z16" s="172"/>
+        <v>119144</v>
+      </c>
+      <c r="Z16" s="170"/>
       <c r="AA16" s="51"/>
       <c r="AM16" s="52"/>
     </row>
@@ -33009,11 +33335,11 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="176"/>
-      <c r="W17" s="176"/>
-      <c r="X17" s="176"/>
-      <c r="Y17" s="176"/>
-      <c r="Z17" s="172"/>
+      <c r="V17" s="174"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="174"/>
+      <c r="Z17" s="170"/>
       <c r="AA17" s="51"/>
       <c r="AM17" s="52"/>
     </row>
@@ -33039,17 +33365,17 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="181">
+      <c r="V18" s="179">
         <f>SUM(V4:V15)/12</f>
-        <v>108.75</v>
-      </c>
-      <c r="W18" s="180" t="e">
+        <v>190.25</v>
+      </c>
+      <c r="W18" s="178">
         <f>SUM(W4:W15)/12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X18" s="176"/>
-      <c r="Y18" s="176"/>
-      <c r="Z18" s="172"/>
+        <v>2.2598520056408958E-2</v>
+      </c>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="174"/>
+      <c r="Z18" s="170"/>
       <c r="AA18" s="53"/>
       <c r="AB18" s="54"/>
       <c r="AC18" s="54"/>
@@ -33374,8 +33700,8 @@
   </sheetPr>
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView showGridLines="0" topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33403,22 +33729,22 @@
   <sheetData>
     <row r="1" spans="1:40" ht="108" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
       <c r="O2" s="151"/>
       <c r="P2" s="151"/>
       <c r="Q2" s="151"/>
@@ -33481,7 +33807,7 @@
         <v>50</v>
       </c>
       <c r="L3" s="105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" s="105" t="s">
         <v>51</v>
@@ -34104,32 +34430,58 @@
       <c r="A14" s="106">
         <v>45597</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
+      <c r="B14" s="107">
+        <v>0</v>
+      </c>
+      <c r="C14" s="107">
+        <f>12+11+48</f>
+        <v>71</v>
+      </c>
+      <c r="D14" s="107">
+        <v>0</v>
+      </c>
+      <c r="E14" s="107">
+        <v>0</v>
+      </c>
+      <c r="F14" s="107">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="G14" s="107">
+        <v>0</v>
+      </c>
+      <c r="H14" s="107">
+        <v>0</v>
+      </c>
+      <c r="I14" s="107">
+        <v>0</v>
+      </c>
+      <c r="J14" s="107">
+        <v>0</v>
+      </c>
+      <c r="K14" s="107">
+        <v>0</v>
+      </c>
+      <c r="L14" s="107">
+        <v>0</v>
+      </c>
+      <c r="M14" s="107">
+        <v>0</v>
+      </c>
       <c r="N14" s="107">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="155" t="e">
+        <v>86</v>
+      </c>
+      <c r="O14" s="155">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.1428571428571426E-3</v>
       </c>
       <c r="P14" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q14" s="157">
         <f>DADOS!E13</f>
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="R14" s="82"/>
       <c r="S14" s="51"/>
@@ -34139,32 +34491,57 @@
       <c r="A15" s="106">
         <v>45627</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
+      <c r="B15" s="103">
+        <v>0</v>
+      </c>
+      <c r="C15" s="103">
+        <f>350+1+2</f>
+        <v>353</v>
+      </c>
+      <c r="D15" s="103">
+        <v>0</v>
+      </c>
+      <c r="E15" s="103">
+        <v>0</v>
+      </c>
+      <c r="F15" s="103">
+        <v>0</v>
+      </c>
+      <c r="G15" s="103">
+        <v>0</v>
+      </c>
+      <c r="H15" s="103">
+        <v>0</v>
+      </c>
+      <c r="I15" s="103">
+        <v>0</v>
+      </c>
+      <c r="J15" s="103">
+        <v>0</v>
+      </c>
+      <c r="K15" s="103">
+        <v>0</v>
+      </c>
+      <c r="L15" s="103">
+        <v>0</v>
+      </c>
+      <c r="M15" s="103">
+        <v>0</v>
+      </c>
       <c r="N15" s="107">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="155" t="e">
+        <v>353</v>
+      </c>
+      <c r="O15" s="155">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.033363802559415E-2</v>
       </c>
       <c r="P15" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q15" s="157">
         <f>DADOS!E14</f>
-        <v>0</v>
+        <v>8752</v>
       </c>
       <c r="R15" s="82"/>
       <c r="S15" s="51"/>
@@ -34180,7 +34557,7 @@
       </c>
       <c r="C16" s="83">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>537</v>
       </c>
       <c r="D16" s="83">
         <f t="shared" si="3"/>
@@ -34192,7 +34569,7 @@
       </c>
       <c r="F16" s="83">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G16" s="83">
         <f t="shared" si="3"/>
@@ -34221,18 +34598,18 @@
       </c>
       <c r="N16" s="83">
         <f t="shared" si="3"/>
-        <v>598</v>
+        <v>1037</v>
       </c>
       <c r="O16" s="158">
         <f>SUM(N16/Q16)</f>
-        <v>6.203834343099012E-3</v>
+        <v>8.703753441213994E-3</v>
       </c>
       <c r="P16" s="156">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q16" s="157">
         <f>SUM(Q4:Q15)</f>
-        <v>96392</v>
+        <v>119144</v>
       </c>
       <c r="R16" s="82"/>
       <c r="S16" s="32"/>
@@ -34278,11 +34655,11 @@
       </c>
       <c r="N18" s="87">
         <f>SUM(N4:N15)/12</f>
-        <v>49.833333333333336</v>
-      </c>
-      <c r="O18" s="160" t="e">
+        <v>86.416666666666671</v>
+      </c>
+      <c r="O18" s="160">
         <f>SUM(O4:O15)/12</f>
-        <v>#DIV/0!</v>
+        <v>8.6338558220728657E-3</v>
       </c>
       <c r="P18" s="159"/>
       <c r="Q18" s="159"/>
@@ -34445,98 +34822,118 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B3:G17"/>
+  <dimension ref="B3:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="7" width="15.7109375" customWidth="1"/>
+    <col min="2" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="198" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-    </row>
-    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="166" t="s">
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="196" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+    </row>
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="166" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="166" t="s">
+      <c r="C4" s="165" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="166" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="166" t="s">
+      <c r="E4" s="165" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="167" t="s">
+      <c r="G4" s="165" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="165" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="166" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="168" t="s">
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="167" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="167">
+        <v>1</v>
+      </c>
+      <c r="D5" s="167">
+        <v>5</v>
+      </c>
+      <c r="E5" s="167">
+        <v>2</v>
+      </c>
+      <c r="F5" s="167">
+        <v>0</v>
+      </c>
+      <c r="G5" s="167">
+        <v>0</v>
+      </c>
+      <c r="H5" s="167">
+        <v>0</v>
+      </c>
+      <c r="I5" s="168">
+        <f t="shared" ref="I5:I14" si="0">SUM(C5:F5)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="168">
-        <v>1</v>
-      </c>
-      <c r="D5" s="168">
+      <c r="C6" s="166">
+        <v>6</v>
+      </c>
+      <c r="D6" s="166">
         <v>5</v>
       </c>
-      <c r="E5" s="168">
-        <v>2</v>
-      </c>
-      <c r="F5" s="168">
-        <v>0</v>
-      </c>
-      <c r="G5" s="169">
-        <f t="shared" ref="G5:G14" si="0">SUM(C5:F5)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="167" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="167">
-        <v>6</v>
-      </c>
-      <c r="D6" s="167">
-        <v>5</v>
-      </c>
-      <c r="E6" s="167">
-        <v>0</v>
-      </c>
-      <c r="F6" s="167">
-        <v>0</v>
-      </c>
-      <c r="G6" s="167">
+      <c r="E6" s="166">
+        <v>0</v>
+      </c>
+      <c r="F6" s="166">
+        <v>0</v>
+      </c>
+      <c r="G6" s="166">
+        <v>0</v>
+      </c>
+      <c r="H6" s="166">
+        <v>0</v>
+      </c>
+      <c r="I6" s="166">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="168" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="168">
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="167">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="D7" s="168">
+      <c r="D7" s="167">
         <v>2</v>
       </c>
       <c r="E7" s="167">
@@ -34546,202 +34943,307 @@
         <v>0</v>
       </c>
       <c r="G7" s="167">
+        <v>0</v>
+      </c>
+      <c r="H7" s="167">
+        <v>0</v>
+      </c>
+      <c r="I7" s="168">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="167" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="167">
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="166" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="166">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D8" s="167">
+      <c r="D8" s="166">
         <f>1+1+1+1+1</f>
         <v>5</v>
       </c>
-      <c r="E8" s="167">
-        <v>0</v>
-      </c>
-      <c r="F8" s="167">
-        <v>0</v>
-      </c>
-      <c r="G8" s="167">
+      <c r="E8" s="166">
+        <v>0</v>
+      </c>
+      <c r="F8" s="166">
+        <v>0</v>
+      </c>
+      <c r="G8" s="166">
+        <v>0</v>
+      </c>
+      <c r="H8" s="166">
+        <v>0</v>
+      </c>
+      <c r="I8" s="166">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="168" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="168">
+    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="167" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="167">
         <f>1+1+1+1+1+1</f>
         <v>6</v>
       </c>
-      <c r="D9" s="168">
+      <c r="D9" s="167">
         <v>2</v>
       </c>
-      <c r="E9" s="168">
-        <v>0</v>
-      </c>
-      <c r="F9" s="168">
+      <c r="E9" s="167">
+        <v>0</v>
+      </c>
+      <c r="F9" s="167">
         <v>0</v>
       </c>
       <c r="G9" s="167">
+        <v>0</v>
+      </c>
+      <c r="H9" s="167">
+        <v>0</v>
+      </c>
+      <c r="I9" s="168">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="167" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="167">
+    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="166" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="166">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="167">
+      <c r="D10" s="166">
         <f>1+1+1+1</f>
         <v>4</v>
       </c>
-      <c r="E10" s="167">
-        <v>0</v>
-      </c>
-      <c r="F10" s="167">
-        <v>0</v>
-      </c>
-      <c r="G10" s="167">
+      <c r="E10" s="166">
+        <v>0</v>
+      </c>
+      <c r="F10" s="166">
+        <v>0</v>
+      </c>
+      <c r="G10" s="166">
+        <v>0</v>
+      </c>
+      <c r="H10" s="166">
+        <v>0</v>
+      </c>
+      <c r="I10" s="166">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="168" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="168">
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="167" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="167">
         <f>1+1+1+1+1</f>
         <v>5</v>
       </c>
-      <c r="D11" s="168">
+      <c r="D11" s="167">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="E11" s="168">
-        <v>0</v>
-      </c>
-      <c r="F11" s="168">
+      <c r="E11" s="167">
+        <v>0</v>
+      </c>
+      <c r="F11" s="167">
         <v>0</v>
       </c>
       <c r="G11" s="167">
+        <v>0</v>
+      </c>
+      <c r="H11" s="167">
+        <v>0</v>
+      </c>
+      <c r="I11" s="168">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="167" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="167">
+    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="166" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="166">
         <f>1+1+1+1</f>
         <v>4</v>
       </c>
-      <c r="D12" s="167">
+      <c r="D12" s="166">
         <v>1</v>
       </c>
-      <c r="E12" s="167">
-        <v>0</v>
-      </c>
-      <c r="F12" s="167">
-        <v>0</v>
-      </c>
-      <c r="G12" s="167">
+      <c r="E12" s="166">
+        <v>0</v>
+      </c>
+      <c r="F12" s="166">
+        <v>0</v>
+      </c>
+      <c r="G12" s="166">
+        <v>0</v>
+      </c>
+      <c r="H12" s="166">
+        <v>0</v>
+      </c>
+      <c r="I12" s="166">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="168" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="168">
+    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="167" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="167">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="D13" s="168">
+      <c r="D13" s="167">
         <f>1+1+1+1+1</f>
         <v>5</v>
       </c>
-      <c r="E13" s="168">
-        <v>0</v>
-      </c>
-      <c r="F13" s="168">
+      <c r="E13" s="167">
+        <v>0</v>
+      </c>
+      <c r="F13" s="167">
         <v>0</v>
       </c>
       <c r="G13" s="167">
+        <v>0</v>
+      </c>
+      <c r="H13" s="167">
+        <v>0</v>
+      </c>
+      <c r="I13" s="168">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="167" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="167">
+    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="166" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="166">
         <f>8</f>
         <v>8</v>
       </c>
-      <c r="D14" s="167">
+      <c r="D14" s="166">
         <f>16</f>
         <v>16</v>
       </c>
-      <c r="E14" s="167">
-        <v>0</v>
-      </c>
-      <c r="F14" s="167">
-        <v>0</v>
-      </c>
-      <c r="G14" s="167">
+      <c r="E14" s="166">
+        <v>0</v>
+      </c>
+      <c r="F14" s="166">
+        <v>0</v>
+      </c>
+      <c r="G14" s="166">
+        <v>0</v>
+      </c>
+      <c r="H14" s="166">
+        <v>0</v>
+      </c>
+      <c r="I14" s="166">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="168" t="s">
+    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="167" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="167">
+        <v>9</v>
+      </c>
+      <c r="D15" s="167">
+        <v>6</v>
+      </c>
+      <c r="E15" s="167">
+        <v>1</v>
+      </c>
+      <c r="F15" s="167">
+        <v>0</v>
+      </c>
+      <c r="G15" s="167">
+        <v>2</v>
+      </c>
+      <c r="H15" s="167">
+        <v>1</v>
+      </c>
+      <c r="I15" s="168">
+        <f>SUM(C15:H15)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="169"/>
-    </row>
-    <row r="16" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="167" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-    </row>
-    <row r="17" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="168" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="169"/>
+      <c r="C16" s="166">
+        <v>3</v>
+      </c>
+      <c r="D16" s="166">
+        <v>7</v>
+      </c>
+      <c r="E16" s="166">
+        <v>0</v>
+      </c>
+      <c r="F16" s="166">
+        <v>0</v>
+      </c>
+      <c r="G16" s="166">
+        <v>0</v>
+      </c>
+      <c r="H16" s="166">
+        <v>0</v>
+      </c>
+      <c r="I16" s="166">
+        <f>SUM(C16:H16)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="167">
+        <f>SUM(C5:C16)</f>
+        <v>51</v>
+      </c>
+      <c r="D17" s="167">
+        <f t="shared" ref="D17:I17" si="1">SUM(D5:D16)</f>
+        <v>61</v>
+      </c>
+      <c r="E17" s="167">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="167">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="167">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H17" s="167">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="167">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
